--- a/Hardware/UniversalConverter/BOM.xlsx
+++ b/Hardware/UniversalConverter/BOM.xlsx
@@ -3,7 +3,7 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="24430"/>
   <workbookPr filterPrivacy="1"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{ADB88A7E-1F94-4BA4-9801-7A8F49DCF8B7}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{FDC9D8F7-D0A8-4684-BB2E-854C6C15965C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="930" yWindow="5010" windowWidth="17600" windowHeight="15460" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="43" uniqueCount="41">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="70" uniqueCount="64">
   <si>
     <t>Link</t>
   </si>
@@ -143,6 +143,75 @@
   </si>
   <si>
     <t>RES 0.009 OHM 1% 2W 2512</t>
+  </si>
+  <si>
+    <t>296-44514-5-ND</t>
+  </si>
+  <si>
+    <t>Texas Instruments</t>
+  </si>
+  <si>
+    <t>IC REG BUCK ADJUSTABLE 3A 8SOPWR</t>
+  </si>
+  <si>
+    <t>B380B-13-FDITR-ND</t>
+  </si>
+  <si>
+    <t>Diodes Incorporated</t>
+  </si>
+  <si>
+    <t>Diode Schottky 80 V 3A Surface Mount SMB</t>
+  </si>
+  <si>
+    <t>FIXED IND 8.2UH 6.25A 20MOHM SMD</t>
+  </si>
+  <si>
+    <t>732-1207-2-ND</t>
+  </si>
+  <si>
+    <t>EEE-FN1K100XL</t>
+  </si>
+  <si>
+    <t>CAP ALUM 10UF 20% 80V SMD</t>
+  </si>
+  <si>
+    <t>Panasonic Electronic Components</t>
+  </si>
+  <si>
+    <t>IC REG LIN 3.3V 500MA SOT223-6</t>
+  </si>
+  <si>
+    <t>296-41943-5-ND</t>
+  </si>
+  <si>
+    <t>LTC4359CMS8#TRPBFTR-ND</t>
+  </si>
+  <si>
+    <t>Analog Devices Inc.</t>
+  </si>
+  <si>
+    <t>IC OR CTRLR N+1 8MSOP</t>
+  </si>
+  <si>
+    <t>LMP8480MME-S/NOPBTR-ND</t>
+  </si>
+  <si>
+    <t>IC CURR SENSE 1 CIRCUIT 8VSSOP</t>
+  </si>
+  <si>
+    <t>CRF2512-FZ-R001ELFTR-ND</t>
+  </si>
+  <si>
+    <t>RES 0.001 OHM 1% 2W 2512</t>
+  </si>
+  <si>
+    <t>MCP4017T-104E/LTTR-ND</t>
+  </si>
+  <si>
+    <t>IC DGT POT 100KOHM 128TAP SC70-6</t>
+  </si>
+  <si>
+    <t>Microchip Technology</t>
   </si>
 </sst>
 </file>
@@ -152,7 +221,7 @@
   <numFmts count="1">
     <numFmt numFmtId="164" formatCode="&quot;$&quot;#,##0.00"/>
   </numFmts>
-  <fonts count="3" x14ac:knownFonts="1">
+  <fonts count="4" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -169,6 +238,15 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <u/>
+      <sz val="11"/>
+      <color theme="10"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
       <u/>
       <sz val="11"/>
       <color theme="10"/>
@@ -396,7 +474,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="30">
+  <cellXfs count="53">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="4" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -410,16 +488,8 @@
     <xf numFmtId="0" fontId="0" fillId="2" borderId="5" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="5" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="12" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="1" fillId="4" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="4" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="9" xfId="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="10" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="11" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="6" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -435,33 +505,98 @@
     <xf numFmtId="0" fontId="0" fillId="3" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="5" xfId="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="164" fontId="0" fillId="3" borderId="6" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="2" borderId="6" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="3" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="1" fillId="2" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="1" fillId="2" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="9" xfId="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="1" fillId="3" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="2" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="6" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="6" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="7" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="7" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="5" xfId="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="164" fontId="0" fillId="2" borderId="10" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="164" fontId="0" fillId="3" borderId="6" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="164" fontId="0" fillId="2" borderId="6" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="164" fontId="0" fillId="3" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
     </xf>
   </cellXfs>
   <cellStyles count="2">
@@ -746,23 +881,23 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:G34"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D36" sqref="D36"/>
+    <sheetView tabSelected="1" topLeftCell="A13" workbookViewId="0">
+      <selection activeCell="C11" sqref="C11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
-    <col min="1" max="1" width="29.90625" style="21" customWidth="1"/>
-    <col min="2" max="2" width="29.90625" style="22" customWidth="1"/>
-    <col min="3" max="3" width="37.81640625" style="22" customWidth="1"/>
-    <col min="4" max="4" width="10.36328125" style="23" customWidth="1"/>
-    <col min="5" max="5" width="12.54296875" style="21" customWidth="1"/>
-    <col min="6" max="6" width="10.36328125" style="21" customWidth="1"/>
+    <col min="1" max="1" width="29.90625" style="16" customWidth="1"/>
+    <col min="2" max="2" width="29.90625" style="17" customWidth="1"/>
+    <col min="3" max="3" width="37.81640625" style="17" customWidth="1"/>
+    <col min="4" max="4" width="10.36328125" style="18" customWidth="1"/>
+    <col min="5" max="5" width="12.54296875" style="16" customWidth="1"/>
+    <col min="6" max="6" width="10.36328125" style="16" customWidth="1"/>
     <col min="7" max="7" width="103.81640625" customWidth="1"/>
     <col min="8" max="8" width="9.6328125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:7" s="11" customFormat="1" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="1" spans="1:7" s="10" customFormat="1" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A1" s="2" t="s">
         <v>1</v>
       </c>
@@ -781,420 +916,508 @@
       <c r="F1" s="2" t="s">
         <v>5</v>
       </c>
-      <c r="G1" s="10" t="s">
+      <c r="G1" s="9" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="2" spans="1:7" s="9" customFormat="1" x14ac:dyDescent="0.35">
-      <c r="A2" s="13" t="s">
+    <row r="2" spans="1:7" s="33" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="A2" s="29" t="s">
         <v>7</v>
       </c>
-      <c r="B2" s="14" t="s">
+      <c r="B2" s="30" t="s">
         <v>8</v>
       </c>
-      <c r="C2" s="14" t="s">
+      <c r="C2" s="30" t="s">
         <v>9</v>
       </c>
-      <c r="D2" s="13"/>
-      <c r="E2" s="25">
+      <c r="D2" s="29"/>
+      <c r="E2" s="31">
         <v>1.26</v>
       </c>
-      <c r="F2" s="13">
+      <c r="F2" s="29">
+        <v>10</v>
+      </c>
+      <c r="G2" s="32" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="3" spans="1:7" s="4" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="A3" s="43" t="s">
+        <v>11</v>
+      </c>
+      <c r="B3" s="48" t="s">
+        <v>12</v>
+      </c>
+      <c r="C3" s="48" t="s">
+        <v>13</v>
+      </c>
+      <c r="D3" s="43"/>
+      <c r="E3" s="20">
+        <v>0.48</v>
+      </c>
+      <c r="F3" s="11">
         <v>4</v>
       </c>
-      <c r="G2" s="12" t="s">
+      <c r="G3" s="19"/>
+    </row>
+    <row r="4" spans="1:7" s="3" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="A4" s="44" t="s">
+        <v>14</v>
+      </c>
+      <c r="B4" s="49" t="s">
+        <v>16</v>
+      </c>
+      <c r="C4" s="49" t="s">
+        <v>15</v>
+      </c>
+      <c r="D4" s="44"/>
+      <c r="E4" s="21">
+        <v>11.53</v>
+      </c>
+      <c r="F4" s="13">
+        <v>1</v>
+      </c>
+      <c r="G4" s="6"/>
+    </row>
+    <row r="5" spans="1:7" s="5" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="A5" s="45" t="s">
+        <v>17</v>
+      </c>
+      <c r="B5" s="50" t="s">
+        <v>18</v>
+      </c>
+      <c r="C5" s="50" t="s">
+        <v>19</v>
+      </c>
+      <c r="D5" s="45"/>
+      <c r="E5" s="22">
+        <v>1.08</v>
+      </c>
+      <c r="F5" s="15">
         <v>10</v>
       </c>
-    </row>
-    <row r="3" spans="1:7" s="4" customFormat="1" x14ac:dyDescent="0.35">
-      <c r="A3" s="15" t="s">
-        <v>11</v>
-      </c>
-      <c r="B3" s="16" t="s">
-        <v>12</v>
-      </c>
-      <c r="C3" s="16" t="s">
-        <v>13</v>
-      </c>
-      <c r="D3" s="15"/>
-      <c r="E3" s="26">
-        <v>0.48</v>
-      </c>
-      <c r="F3" s="15">
-        <v>4</v>
-      </c>
-      <c r="G3" s="24"/>
-    </row>
-    <row r="4" spans="1:7" s="3" customFormat="1" x14ac:dyDescent="0.35">
-      <c r="A4" s="17" t="s">
-        <v>14</v>
-      </c>
-      <c r="B4" s="18" t="s">
-        <v>16</v>
-      </c>
-      <c r="C4" s="18" t="s">
-        <v>15</v>
-      </c>
-      <c r="D4" s="17"/>
-      <c r="E4" s="27">
-        <v>11.53</v>
-      </c>
-      <c r="F4" s="17">
+      <c r="G5" s="8"/>
+    </row>
+    <row r="6" spans="1:7" s="42" customFormat="1" ht="14" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A6" s="46" t="s">
+        <v>21</v>
+      </c>
+      <c r="B6" s="51"/>
+      <c r="C6" s="51" t="s">
+        <v>20</v>
+      </c>
+      <c r="D6" s="46"/>
+      <c r="E6" s="40">
+        <v>0.38</v>
+      </c>
+      <c r="F6" s="39">
+        <v>2</v>
+      </c>
+      <c r="G6" s="41"/>
+    </row>
+    <row r="7" spans="1:7" s="38" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="A7" s="47" t="s">
+        <v>22</v>
+      </c>
+      <c r="B7" s="52" t="s">
+        <v>23</v>
+      </c>
+      <c r="C7" s="52" t="s">
+        <v>24</v>
+      </c>
+      <c r="D7" s="47"/>
+      <c r="E7" s="36">
+        <v>5.53</v>
+      </c>
+      <c r="F7" s="34">
         <v>1</v>
       </c>
-      <c r="G4" s="6"/>
-    </row>
-    <row r="5" spans="1:7" s="5" customFormat="1" x14ac:dyDescent="0.35">
-      <c r="A5" s="19" t="s">
-        <v>17</v>
-      </c>
-      <c r="B5" s="20" t="s">
-        <v>18</v>
-      </c>
-      <c r="C5" s="20" t="s">
-        <v>19</v>
-      </c>
-      <c r="D5" s="19"/>
-      <c r="E5" s="28">
-        <v>1.08</v>
-      </c>
-      <c r="F5" s="19">
-        <v>10</v>
-      </c>
-      <c r="G5" s="8"/>
-    </row>
-    <row r="6" spans="1:7" s="3" customFormat="1" x14ac:dyDescent="0.35">
-      <c r="A6" s="17" t="s">
-        <v>21</v>
-      </c>
-      <c r="B6" s="18"/>
-      <c r="C6" s="18" t="s">
+      <c r="G7" s="37"/>
+    </row>
+    <row r="8" spans="1:7" s="3" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="A8" s="44" t="s">
+        <v>41</v>
+      </c>
+      <c r="B8" s="49" t="s">
+        <v>42</v>
+      </c>
+      <c r="C8" s="49" t="s">
+        <v>43</v>
+      </c>
+      <c r="D8" s="44"/>
+      <c r="E8" s="21">
+        <v>4.8899999999999997</v>
+      </c>
+      <c r="F8" s="13">
+        <v>1</v>
+      </c>
+      <c r="G8" s="6"/>
+    </row>
+    <row r="9" spans="1:7" s="4" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="A9" s="43" t="s">
+        <v>44</v>
+      </c>
+      <c r="B9" s="48" t="s">
+        <v>45</v>
+      </c>
+      <c r="C9" s="48" t="s">
+        <v>46</v>
+      </c>
+      <c r="D9" s="43"/>
+      <c r="E9" s="20">
+        <v>0.91</v>
+      </c>
+      <c r="F9" s="11">
+        <v>1</v>
+      </c>
+      <c r="G9" s="7"/>
+    </row>
+    <row r="10" spans="1:7" s="3" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="A10" s="44" t="s">
+        <v>48</v>
+      </c>
+      <c r="B10" s="49" t="s">
+        <v>23</v>
+      </c>
+      <c r="C10" s="49" t="s">
+        <v>47</v>
+      </c>
+      <c r="D10" s="44"/>
+      <c r="E10" s="21">
+        <v>2.19</v>
+      </c>
+      <c r="F10" s="13">
+        <v>1</v>
+      </c>
+      <c r="G10" s="6"/>
+    </row>
+    <row r="11" spans="1:7" s="4" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="A11" s="43" t="s">
+        <v>49</v>
+      </c>
+      <c r="B11" s="48" t="s">
+        <v>51</v>
+      </c>
+      <c r="C11" s="48" t="s">
+        <v>50</v>
+      </c>
+      <c r="D11" s="43"/>
+      <c r="E11" s="20">
+        <v>0.66</v>
+      </c>
+      <c r="F11" s="11">
         <v>20</v>
       </c>
-      <c r="D6" s="17"/>
-      <c r="E6" s="27">
-        <v>0.38</v>
-      </c>
-      <c r="F6" s="17">
+      <c r="G11" s="7"/>
+    </row>
+    <row r="12" spans="1:7" s="3" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="A12" s="44" t="s">
+        <v>53</v>
+      </c>
+      <c r="B12" s="49" t="s">
+        <v>42</v>
+      </c>
+      <c r="C12" s="49" t="s">
+        <v>52</v>
+      </c>
+      <c r="D12" s="44"/>
+      <c r="E12" s="21">
+        <v>4.49</v>
+      </c>
+      <c r="F12" s="13">
+        <v>1</v>
+      </c>
+      <c r="G12" s="6"/>
+    </row>
+    <row r="13" spans="1:7" s="4" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="A13" s="43" t="s">
+        <v>54</v>
+      </c>
+      <c r="B13" s="48" t="s">
+        <v>55</v>
+      </c>
+      <c r="C13" s="48" t="s">
+        <v>56</v>
+      </c>
+      <c r="D13" s="43"/>
+      <c r="E13" s="20">
+        <v>4.6100000000000003</v>
+      </c>
+      <c r="F13" s="11">
         <v>2</v>
       </c>
-      <c r="G6" s="6"/>
-    </row>
-    <row r="7" spans="1:7" s="4" customFormat="1" x14ac:dyDescent="0.35">
-      <c r="A7" s="15" t="s">
-        <v>22</v>
-      </c>
-      <c r="B7" s="16" t="s">
-        <v>23</v>
-      </c>
-      <c r="C7" s="16" t="s">
-        <v>24</v>
-      </c>
-      <c r="D7" s="15"/>
-      <c r="E7" s="26">
-        <v>5.53</v>
-      </c>
-      <c r="F7" s="15">
-        <v>1</v>
-      </c>
-      <c r="G7" s="7"/>
-    </row>
-    <row r="8" spans="1:7" s="3" customFormat="1" x14ac:dyDescent="0.35">
-      <c r="A8" s="17"/>
-      <c r="B8" s="18"/>
-      <c r="C8" s="18"/>
-      <c r="D8" s="17"/>
-      <c r="E8" s="27"/>
-      <c r="F8" s="17"/>
-      <c r="G8" s="6"/>
-    </row>
-    <row r="9" spans="1:7" s="4" customFormat="1" x14ac:dyDescent="0.35">
-      <c r="A9" s="15"/>
-      <c r="B9" s="16"/>
-      <c r="C9" s="16"/>
-      <c r="D9" s="15"/>
-      <c r="E9" s="26"/>
-      <c r="F9" s="15"/>
-      <c r="G9" s="7"/>
-    </row>
-    <row r="10" spans="1:7" s="3" customFormat="1" x14ac:dyDescent="0.35">
-      <c r="A10" s="17"/>
-      <c r="B10" s="18"/>
-      <c r="C10" s="18"/>
-      <c r="D10" s="17"/>
-      <c r="E10" s="27"/>
-      <c r="F10" s="17"/>
-      <c r="G10" s="6"/>
-    </row>
-    <row r="11" spans="1:7" s="4" customFormat="1" x14ac:dyDescent="0.35">
-      <c r="A11" s="15"/>
-      <c r="B11" s="16"/>
-      <c r="C11" s="16"/>
-      <c r="D11" s="15"/>
-      <c r="E11" s="26"/>
-      <c r="F11" s="15"/>
-      <c r="G11" s="7"/>
-    </row>
-    <row r="12" spans="1:7" s="3" customFormat="1" x14ac:dyDescent="0.35">
-      <c r="A12" s="17"/>
-      <c r="B12" s="18"/>
-      <c r="C12" s="18"/>
-      <c r="D12" s="17"/>
-      <c r="E12" s="27"/>
-      <c r="F12" s="17"/>
-      <c r="G12" s="6"/>
-    </row>
-    <row r="13" spans="1:7" s="4" customFormat="1" x14ac:dyDescent="0.35">
-      <c r="A13" s="15"/>
-      <c r="B13" s="16"/>
-      <c r="C13" s="16"/>
-      <c r="D13" s="15"/>
-      <c r="E13" s="26"/>
-      <c r="F13" s="15"/>
       <c r="G13" s="7"/>
     </row>
     <row r="14" spans="1:7" s="3" customFormat="1" x14ac:dyDescent="0.35">
-      <c r="A14" s="17"/>
-      <c r="B14" s="18"/>
-      <c r="C14" s="18"/>
-      <c r="D14" s="17"/>
-      <c r="E14" s="27"/>
-      <c r="F14" s="17"/>
+      <c r="A14" s="44" t="s">
+        <v>57</v>
+      </c>
+      <c r="B14" s="49" t="s">
+        <v>42</v>
+      </c>
+      <c r="C14" s="49" t="s">
+        <v>58</v>
+      </c>
+      <c r="D14" s="44"/>
+      <c r="E14" s="21">
+        <v>3.34</v>
+      </c>
+      <c r="F14" s="13">
+        <v>2</v>
+      </c>
       <c r="G14" s="6"/>
     </row>
     <row r="15" spans="1:7" s="4" customFormat="1" x14ac:dyDescent="0.35">
-      <c r="A15" s="15"/>
-      <c r="B15" s="16"/>
-      <c r="C15" s="16"/>
-      <c r="D15" s="15"/>
-      <c r="E15" s="26"/>
-      <c r="F15" s="15"/>
+      <c r="A15" s="43" t="s">
+        <v>59</v>
+      </c>
+      <c r="B15" s="48" t="s">
+        <v>27</v>
+      </c>
+      <c r="C15" s="48" t="s">
+        <v>60</v>
+      </c>
+      <c r="D15" s="43"/>
+      <c r="E15" s="20">
+        <v>0.67</v>
+      </c>
+      <c r="F15" s="11">
+        <v>2</v>
+      </c>
       <c r="G15" s="7"/>
     </row>
     <row r="16" spans="1:7" s="3" customFormat="1" x14ac:dyDescent="0.35">
-      <c r="A16" s="17"/>
-      <c r="B16" s="18"/>
-      <c r="C16" s="18"/>
-      <c r="D16" s="17"/>
-      <c r="E16" s="27"/>
-      <c r="F16" s="17"/>
+      <c r="A16" s="44" t="s">
+        <v>61</v>
+      </c>
+      <c r="B16" s="49" t="s">
+        <v>63</v>
+      </c>
+      <c r="C16" s="49" t="s">
+        <v>62</v>
+      </c>
+      <c r="D16" s="44"/>
+      <c r="E16" s="21">
+        <v>0.63</v>
+      </c>
+      <c r="F16" s="13"/>
       <c r="G16" s="6"/>
     </row>
     <row r="17" spans="1:7" s="4" customFormat="1" x14ac:dyDescent="0.35">
-      <c r="A17" s="15"/>
-      <c r="B17" s="16"/>
-      <c r="C17" s="16"/>
-      <c r="D17" s="15"/>
-      <c r="E17" s="26"/>
-      <c r="F17" s="15"/>
+      <c r="A17" s="11"/>
+      <c r="B17" s="12"/>
+      <c r="C17" s="12"/>
+      <c r="D17" s="11"/>
+      <c r="E17" s="20"/>
+      <c r="F17" s="11"/>
       <c r="G17" s="7"/>
     </row>
     <row r="18" spans="1:7" s="3" customFormat="1" x14ac:dyDescent="0.35">
-      <c r="A18" s="17"/>
-      <c r="B18" s="18"/>
-      <c r="C18" s="18"/>
-      <c r="D18" s="17"/>
-      <c r="E18" s="27"/>
-      <c r="F18" s="17"/>
+      <c r="A18" s="13"/>
+      <c r="B18" s="14"/>
+      <c r="C18" s="14"/>
+      <c r="D18" s="13"/>
+      <c r="E18" s="21"/>
+      <c r="F18" s="13"/>
       <c r="G18" s="6"/>
     </row>
     <row r="19" spans="1:7" s="4" customFormat="1" x14ac:dyDescent="0.35">
-      <c r="A19" s="15"/>
-      <c r="B19" s="16"/>
-      <c r="C19" s="16"/>
-      <c r="D19" s="15"/>
-      <c r="E19" s="26"/>
-      <c r="F19" s="15"/>
+      <c r="A19" s="11"/>
+      <c r="B19" s="12"/>
+      <c r="C19" s="12"/>
+      <c r="D19" s="11"/>
+      <c r="E19" s="20"/>
+      <c r="F19" s="11"/>
       <c r="G19" s="7"/>
     </row>
     <row r="20" spans="1:7" s="3" customFormat="1" x14ac:dyDescent="0.35">
-      <c r="A20" s="17"/>
-      <c r="B20" s="18"/>
-      <c r="C20" s="18"/>
-      <c r="D20" s="17"/>
-      <c r="E20" s="27"/>
-      <c r="F20" s="17"/>
+      <c r="A20" s="13"/>
+      <c r="B20" s="14"/>
+      <c r="C20" s="14"/>
+      <c r="D20" s="13"/>
+      <c r="E20" s="21"/>
+      <c r="F20" s="13"/>
       <c r="G20" s="6"/>
     </row>
     <row r="21" spans="1:7" s="4" customFormat="1" x14ac:dyDescent="0.35">
-      <c r="A21" s="15"/>
-      <c r="B21" s="16"/>
-      <c r="C21" s="16"/>
-      <c r="D21" s="15"/>
-      <c r="E21" s="26"/>
-      <c r="F21" s="15"/>
+      <c r="A21" s="11"/>
+      <c r="B21" s="12"/>
+      <c r="C21" s="12"/>
+      <c r="D21" s="11"/>
+      <c r="E21" s="20"/>
+      <c r="F21" s="11"/>
       <c r="G21" s="7"/>
     </row>
-    <row r="22" spans="1:7" s="3" customFormat="1" x14ac:dyDescent="0.35">
-      <c r="A22" s="17" t="s">
+    <row r="22" spans="1:7" s="28" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="A22" s="24" t="s">
         <v>25</v>
       </c>
-      <c r="B22" s="18" t="s">
+      <c r="B22" s="25" t="s">
         <v>27</v>
       </c>
-      <c r="C22" s="18" t="s">
+      <c r="C22" s="25" t="s">
         <v>26</v>
       </c>
-      <c r="D22" s="17"/>
-      <c r="E22" s="27">
+      <c r="D22" s="24"/>
+      <c r="E22" s="26">
         <v>0.67</v>
       </c>
-      <c r="F22" s="17">
+      <c r="F22" s="24">
         <v>2</v>
       </c>
-      <c r="G22" s="6"/>
-    </row>
-    <row r="23" spans="1:7" s="4" customFormat="1" x14ac:dyDescent="0.35">
-      <c r="A23" s="15" t="s">
+      <c r="G22" s="27"/>
+    </row>
+    <row r="23" spans="1:7" s="38" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="A23" s="34" t="s">
         <v>28</v>
       </c>
-      <c r="B23" s="16" t="s">
+      <c r="B23" s="35" t="s">
         <v>27</v>
       </c>
-      <c r="C23" s="16" t="s">
+      <c r="C23" s="35" t="s">
         <v>29</v>
       </c>
-      <c r="D23" s="15"/>
-      <c r="E23" s="26">
+      <c r="D23" s="34"/>
+      <c r="E23" s="36">
         <v>0.74</v>
       </c>
-      <c r="F23" s="15">
+      <c r="F23" s="34">
         <v>2</v>
       </c>
-      <c r="G23" s="7"/>
-    </row>
-    <row r="24" spans="1:7" s="3" customFormat="1" x14ac:dyDescent="0.35">
-      <c r="A24" s="17" t="s">
+      <c r="G23" s="37"/>
+    </row>
+    <row r="24" spans="1:7" s="28" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="A24" s="24" t="s">
         <v>32</v>
       </c>
-      <c r="B24" s="18" t="s">
+      <c r="B24" s="25" t="s">
         <v>31</v>
       </c>
-      <c r="C24" s="18" t="s">
+      <c r="C24" s="25" t="s">
         <v>30</v>
       </c>
-      <c r="D24" s="17"/>
-      <c r="E24" s="27">
+      <c r="D24" s="24"/>
+      <c r="E24" s="26">
         <v>1.76</v>
       </c>
-      <c r="F24" s="17">
+      <c r="F24" s="24">
         <v>2</v>
       </c>
-      <c r="G24" s="6"/>
-    </row>
-    <row r="25" spans="1:7" s="4" customFormat="1" x14ac:dyDescent="0.35">
-      <c r="A25" s="15" t="s">
+      <c r="G24" s="27"/>
+    </row>
+    <row r="25" spans="1:7" s="38" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="A25" s="34" t="s">
         <v>33</v>
       </c>
-      <c r="B25" s="16" t="s">
+      <c r="B25" s="35" t="s">
         <v>34</v>
       </c>
-      <c r="C25" s="16" t="s">
+      <c r="C25" s="35" t="s">
         <v>35</v>
       </c>
-      <c r="D25" s="15"/>
-      <c r="E25" s="26">
+      <c r="D25" s="34"/>
+      <c r="E25" s="36">
         <v>0.7</v>
       </c>
-      <c r="F25" s="15">
+      <c r="F25" s="34">
         <v>2</v>
       </c>
-      <c r="G25" s="7"/>
-    </row>
-    <row r="26" spans="1:7" s="3" customFormat="1" x14ac:dyDescent="0.35">
-      <c r="A26" s="17" t="s">
+      <c r="G25" s="37"/>
+    </row>
+    <row r="26" spans="1:7" s="28" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="A26" s="24" t="s">
         <v>36</v>
       </c>
-      <c r="B26" s="18" t="s">
+      <c r="B26" s="25" t="s">
         <v>27</v>
       </c>
-      <c r="C26" s="18" t="s">
+      <c r="C26" s="25" t="s">
         <v>37</v>
       </c>
-      <c r="D26" s="17"/>
-      <c r="E26" s="27">
+      <c r="D26" s="24"/>
+      <c r="E26" s="26">
         <v>0.74</v>
       </c>
-      <c r="F26" s="17">
+      <c r="F26" s="24">
         <v>2</v>
       </c>
-      <c r="G26" s="6"/>
-    </row>
-    <row r="27" spans="1:7" s="4" customFormat="1" x14ac:dyDescent="0.35">
-      <c r="A27" s="15" t="s">
+      <c r="G26" s="27"/>
+    </row>
+    <row r="27" spans="1:7" s="38" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="A27" s="34" t="s">
         <v>38</v>
       </c>
-      <c r="B27" s="16" t="s">
+      <c r="B27" s="35" t="s">
         <v>39</v>
       </c>
-      <c r="C27" s="16" t="s">
+      <c r="C27" s="35" t="s">
         <v>40</v>
       </c>
-      <c r="D27" s="15"/>
-      <c r="E27" s="26">
+      <c r="D27" s="34"/>
+      <c r="E27" s="36">
         <v>0.73</v>
       </c>
-      <c r="F27" s="15">
+      <c r="F27" s="34">
         <v>2</v>
       </c>
-      <c r="G27" s="7"/>
+      <c r="G27" s="37"/>
     </row>
     <row r="28" spans="1:7" s="3" customFormat="1" x14ac:dyDescent="0.35">
-      <c r="A28" s="17"/>
-      <c r="B28" s="18"/>
-      <c r="C28" s="18"/>
-      <c r="D28" s="17"/>
-      <c r="E28" s="27"/>
-      <c r="F28" s="17"/>
+      <c r="A28" s="13"/>
+      <c r="B28" s="14"/>
+      <c r="C28" s="14"/>
+      <c r="D28" s="13"/>
+      <c r="E28" s="21"/>
+      <c r="F28" s="13"/>
       <c r="G28" s="6"/>
     </row>
     <row r="29" spans="1:7" s="4" customFormat="1" x14ac:dyDescent="0.35">
-      <c r="A29" s="15"/>
-      <c r="B29" s="16"/>
-      <c r="C29" s="16"/>
-      <c r="D29" s="15"/>
-      <c r="E29" s="26"/>
-      <c r="F29" s="15"/>
+      <c r="A29" s="11"/>
+      <c r="B29" s="12"/>
+      <c r="C29" s="12"/>
+      <c r="D29" s="11"/>
+      <c r="E29" s="20"/>
+      <c r="F29" s="11"/>
       <c r="G29" s="7"/>
     </row>
     <row r="30" spans="1:7" s="3" customFormat="1" x14ac:dyDescent="0.35">
-      <c r="A30" s="17"/>
-      <c r="B30" s="18"/>
-      <c r="C30" s="18"/>
-      <c r="D30" s="17"/>
-      <c r="E30" s="27"/>
-      <c r="F30" s="17"/>
+      <c r="A30" s="13"/>
+      <c r="B30" s="14"/>
+      <c r="C30" s="14"/>
+      <c r="D30" s="13"/>
+      <c r="E30" s="21"/>
+      <c r="F30" s="13"/>
       <c r="G30" s="6"/>
     </row>
     <row r="31" spans="1:7" s="4" customFormat="1" x14ac:dyDescent="0.35">
-      <c r="A31" s="15"/>
-      <c r="B31" s="16"/>
-      <c r="C31" s="16"/>
-      <c r="D31" s="15"/>
-      <c r="E31" s="26"/>
-      <c r="F31" s="15"/>
+      <c r="A31" s="11"/>
+      <c r="B31" s="12"/>
+      <c r="C31" s="12"/>
+      <c r="D31" s="11"/>
+      <c r="E31" s="20"/>
+      <c r="F31" s="11"/>
       <c r="G31" s="7"/>
     </row>
     <row r="32" spans="1:7" s="3" customFormat="1" x14ac:dyDescent="0.35">
-      <c r="A32" s="17"/>
-      <c r="B32" s="18"/>
-      <c r="C32" s="18"/>
-      <c r="D32" s="17"/>
-      <c r="E32" s="27"/>
-      <c r="F32" s="17"/>
+      <c r="A32" s="13"/>
+      <c r="B32" s="14"/>
+      <c r="C32" s="14"/>
+      <c r="D32" s="13"/>
+      <c r="E32" s="21"/>
+      <c r="F32" s="13"/>
       <c r="G32" s="6"/>
     </row>
     <row r="33" spans="1:7" s="4" customFormat="1" x14ac:dyDescent="0.35">
-      <c r="A33" s="15"/>
-      <c r="B33" s="16"/>
-      <c r="C33" s="16"/>
-      <c r="D33" s="15"/>
-      <c r="E33" s="26"/>
-      <c r="F33" s="15"/>
+      <c r="A33" s="11"/>
+      <c r="B33" s="12"/>
+      <c r="C33" s="12"/>
+      <c r="D33" s="11"/>
+      <c r="E33" s="20"/>
+      <c r="F33" s="11"/>
       <c r="G33" s="7"/>
     </row>
     <row r="34" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="E34" s="29"/>
+      <c r="E34" s="23"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/Hardware/UniversalConverter/BOM.xlsx
+++ b/Hardware/UniversalConverter/BOM.xlsx
@@ -3,9 +3,9 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="24430"/>
   <workbookPr filterPrivacy="1"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{FDC9D8F7-D0A8-4684-BB2E-854C6C15965C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8F2ECD65-A0B2-4277-BC32-D2AB224792C9}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="930" yWindow="5010" windowWidth="17600" windowHeight="15460" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-10540" yWindow="8030" windowWidth="17600" windowHeight="15460" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="70" uniqueCount="64">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="73" uniqueCount="66">
   <si>
     <t>Link</t>
   </si>
@@ -212,6 +212,12 @@
   </si>
   <si>
     <t>Microchip Technology</t>
+  </si>
+  <si>
+    <t>CAP ALUM 47UF 20% 80V SMD</t>
+  </si>
+  <si>
+    <t>10-EEE-FN1K470UVCT-ND</t>
   </si>
 </sst>
 </file>
@@ -221,7 +227,7 @@
   <numFmts count="1">
     <numFmt numFmtId="164" formatCode="&quot;$&quot;#,##0.00"/>
   </numFmts>
-  <fonts count="4" x14ac:knownFonts="1">
+  <fonts count="3" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -238,15 +244,6 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <u/>
-      <sz val="11"/>
-      <color theme="10"/>
-      <name val="Calibri"/>
-      <family val="2"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
       <u/>
       <sz val="11"/>
       <color theme="10"/>
@@ -474,7 +471,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="53">
+  <cellXfs count="39">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="4" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -514,7 +511,6 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="5" xfId="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="164" fontId="0" fillId="3" borderId="6" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -527,39 +523,6 @@
     <xf numFmtId="164" fontId="0" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="164" fontId="1" fillId="2" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="164" fontId="1" fillId="2" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="9" xfId="1" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="1" fillId="3" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="3" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="164" fontId="1" fillId="3" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="3" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="1" fillId="3" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -568,35 +531,35 @@
     </xf>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="6" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="6" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="3" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="7" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="7" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="3" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="2" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="9" xfId="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="5" xfId="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="2">
@@ -881,8 +844,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:G34"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A13" workbookViewId="0">
-      <selection activeCell="C11" sqref="C11"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="B14" sqref="B14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -920,77 +883,77 @@
         <v>0</v>
       </c>
     </row>
-    <row r="2" spans="1:7" s="33" customFormat="1" x14ac:dyDescent="0.35">
-      <c r="A2" s="29" t="s">
+    <row r="2" spans="1:7" s="35" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="A2" s="31" t="s">
         <v>7</v>
       </c>
-      <c r="B2" s="30" t="s">
+      <c r="B2" s="32" t="s">
         <v>8</v>
       </c>
-      <c r="C2" s="30" t="s">
+      <c r="C2" s="32" t="s">
         <v>9</v>
       </c>
-      <c r="D2" s="29"/>
-      <c r="E2" s="31">
+      <c r="D2" s="31"/>
+      <c r="E2" s="33">
         <v>1.26</v>
       </c>
-      <c r="F2" s="29">
+      <c r="F2" s="31">
         <v>10</v>
       </c>
-      <c r="G2" s="32" t="s">
+      <c r="G2" s="34" t="s">
         <v>10</v>
       </c>
     </row>
-    <row r="3" spans="1:7" s="4" customFormat="1" x14ac:dyDescent="0.35">
-      <c r="A3" s="43" t="s">
+    <row r="3" spans="1:7" s="5" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="A3" s="27" t="s">
         <v>11</v>
       </c>
-      <c r="B3" s="48" t="s">
+      <c r="B3" s="29" t="s">
         <v>12</v>
       </c>
-      <c r="C3" s="48" t="s">
+      <c r="C3" s="29" t="s">
         <v>13</v>
       </c>
-      <c r="D3" s="43"/>
-      <c r="E3" s="20">
+      <c r="D3" s="27"/>
+      <c r="E3" s="21">
         <v>0.48</v>
       </c>
-      <c r="F3" s="11">
+      <c r="F3" s="15">
         <v>4</v>
       </c>
-      <c r="G3" s="19"/>
-    </row>
-    <row r="4" spans="1:7" s="3" customFormat="1" x14ac:dyDescent="0.35">
-      <c r="A4" s="44" t="s">
+      <c r="G3" s="36"/>
+    </row>
+    <row r="4" spans="1:7" s="26" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="A4" s="28" t="s">
         <v>14</v>
       </c>
-      <c r="B4" s="49" t="s">
+      <c r="B4" s="30" t="s">
         <v>16</v>
       </c>
-      <c r="C4" s="49" t="s">
+      <c r="C4" s="30" t="s">
         <v>15</v>
       </c>
-      <c r="D4" s="44"/>
-      <c r="E4" s="21">
+      <c r="D4" s="28"/>
+      <c r="E4" s="24">
         <v>11.53</v>
       </c>
-      <c r="F4" s="13">
+      <c r="F4" s="23">
         <v>1</v>
       </c>
-      <c r="G4" s="6"/>
+      <c r="G4" s="25"/>
     </row>
     <row r="5" spans="1:7" s="5" customFormat="1" x14ac:dyDescent="0.35">
-      <c r="A5" s="45" t="s">
+      <c r="A5" s="27" t="s">
         <v>17</v>
       </c>
-      <c r="B5" s="50" t="s">
+      <c r="B5" s="29" t="s">
         <v>18</v>
       </c>
-      <c r="C5" s="50" t="s">
+      <c r="C5" s="29" t="s">
         <v>19</v>
       </c>
-      <c r="D5" s="45"/>
-      <c r="E5" s="22">
+      <c r="D5" s="27"/>
+      <c r="E5" s="21">
         <v>1.08</v>
       </c>
       <c r="F5" s="15">
@@ -998,376 +961,388 @@
       </c>
       <c r="G5" s="8"/>
     </row>
-    <row r="6" spans="1:7" s="42" customFormat="1" ht="14" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A6" s="46" t="s">
+    <row r="6" spans="1:7" s="26" customFormat="1" ht="14" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A6" s="28" t="s">
         <v>21</v>
       </c>
-      <c r="B6" s="51"/>
-      <c r="C6" s="51" t="s">
+      <c r="B6" s="30"/>
+      <c r="C6" s="30" t="s">
         <v>20</v>
       </c>
-      <c r="D6" s="46"/>
-      <c r="E6" s="40">
+      <c r="D6" s="28"/>
+      <c r="E6" s="24">
         <v>0.38</v>
       </c>
-      <c r="F6" s="39">
+      <c r="F6" s="23">
         <v>2</v>
       </c>
-      <c r="G6" s="41"/>
-    </row>
-    <row r="7" spans="1:7" s="38" customFormat="1" x14ac:dyDescent="0.35">
-      <c r="A7" s="47" t="s">
+      <c r="G6" s="25"/>
+    </row>
+    <row r="7" spans="1:7" s="5" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="A7" s="27" t="s">
         <v>22</v>
       </c>
-      <c r="B7" s="52" t="s">
+      <c r="B7" s="29" t="s">
         <v>23</v>
       </c>
-      <c r="C7" s="52" t="s">
+      <c r="C7" s="29" t="s">
         <v>24</v>
       </c>
-      <c r="D7" s="47"/>
-      <c r="E7" s="36">
+      <c r="D7" s="27"/>
+      <c r="E7" s="21">
         <v>5.53</v>
       </c>
-      <c r="F7" s="34">
+      <c r="F7" s="15">
         <v>1</v>
       </c>
-      <c r="G7" s="37"/>
-    </row>
-    <row r="8" spans="1:7" s="3" customFormat="1" x14ac:dyDescent="0.35">
-      <c r="A8" s="44" t="s">
+      <c r="G7" s="8"/>
+    </row>
+    <row r="8" spans="1:7" s="26" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="A8" s="28" t="s">
         <v>41</v>
       </c>
-      <c r="B8" s="49" t="s">
+      <c r="B8" s="30" t="s">
         <v>42</v>
       </c>
-      <c r="C8" s="49" t="s">
+      <c r="C8" s="30" t="s">
         <v>43</v>
       </c>
-      <c r="D8" s="44"/>
-      <c r="E8" s="21">
+      <c r="D8" s="28"/>
+      <c r="E8" s="24">
         <v>4.8899999999999997</v>
       </c>
-      <c r="F8" s="13">
+      <c r="F8" s="23">
         <v>1</v>
       </c>
-      <c r="G8" s="6"/>
-    </row>
-    <row r="9" spans="1:7" s="4" customFormat="1" x14ac:dyDescent="0.35">
-      <c r="A9" s="43" t="s">
+      <c r="G8" s="25"/>
+    </row>
+    <row r="9" spans="1:7" s="5" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="A9" s="27" t="s">
         <v>44</v>
       </c>
-      <c r="B9" s="48" t="s">
+      <c r="B9" s="29" t="s">
         <v>45</v>
       </c>
-      <c r="C9" s="48" t="s">
+      <c r="C9" s="29" t="s">
         <v>46</v>
       </c>
-      <c r="D9" s="43"/>
-      <c r="E9" s="20">
+      <c r="D9" s="27"/>
+      <c r="E9" s="21">
         <v>0.91</v>
       </c>
-      <c r="F9" s="11">
+      <c r="F9" s="15">
         <v>1</v>
       </c>
-      <c r="G9" s="7"/>
-    </row>
-    <row r="10" spans="1:7" s="3" customFormat="1" x14ac:dyDescent="0.35">
-      <c r="A10" s="44" t="s">
+      <c r="G9" s="8"/>
+    </row>
+    <row r="10" spans="1:7" s="26" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="A10" s="28" t="s">
         <v>48</v>
       </c>
-      <c r="B10" s="49" t="s">
+      <c r="B10" s="30" t="s">
         <v>23</v>
       </c>
-      <c r="C10" s="49" t="s">
+      <c r="C10" s="30" t="s">
         <v>47</v>
       </c>
-      <c r="D10" s="44"/>
-      <c r="E10" s="21">
+      <c r="D10" s="28"/>
+      <c r="E10" s="24">
         <v>2.19</v>
       </c>
-      <c r="F10" s="13">
+      <c r="F10" s="23">
         <v>1</v>
       </c>
-      <c r="G10" s="6"/>
-    </row>
-    <row r="11" spans="1:7" s="4" customFormat="1" x14ac:dyDescent="0.35">
-      <c r="A11" s="43" t="s">
+      <c r="G10" s="25"/>
+    </row>
+    <row r="11" spans="1:7" s="5" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="A11" s="27" t="s">
         <v>49</v>
       </c>
-      <c r="B11" s="48" t="s">
+      <c r="B11" s="29" t="s">
         <v>51</v>
       </c>
-      <c r="C11" s="48" t="s">
+      <c r="C11" s="29" t="s">
         <v>50</v>
       </c>
-      <c r="D11" s="43"/>
-      <c r="E11" s="20">
+      <c r="D11" s="27"/>
+      <c r="E11" s="21">
         <v>0.66</v>
       </c>
-      <c r="F11" s="11">
+      <c r="F11" s="15">
         <v>20</v>
       </c>
-      <c r="G11" s="7"/>
-    </row>
-    <row r="12" spans="1:7" s="3" customFormat="1" x14ac:dyDescent="0.35">
-      <c r="A12" s="44" t="s">
+      <c r="G11" s="8"/>
+    </row>
+    <row r="12" spans="1:7" s="26" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="A12" s="28" t="s">
         <v>53</v>
       </c>
-      <c r="B12" s="49" t="s">
+      <c r="B12" s="30" t="s">
         <v>42</v>
       </c>
-      <c r="C12" s="49" t="s">
+      <c r="C12" s="30" t="s">
         <v>52</v>
       </c>
-      <c r="D12" s="44"/>
-      <c r="E12" s="21">
+      <c r="D12" s="28"/>
+      <c r="E12" s="24">
         <v>4.49</v>
       </c>
-      <c r="F12" s="13">
+      <c r="F12" s="23">
         <v>1</v>
       </c>
-      <c r="G12" s="6"/>
-    </row>
-    <row r="13" spans="1:7" s="4" customFormat="1" x14ac:dyDescent="0.35">
-      <c r="A13" s="43" t="s">
+      <c r="G12" s="25"/>
+    </row>
+    <row r="13" spans="1:7" s="5" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="A13" s="27" t="s">
         <v>54</v>
       </c>
-      <c r="B13" s="48" t="s">
+      <c r="B13" s="29" t="s">
         <v>55</v>
       </c>
-      <c r="C13" s="48" t="s">
+      <c r="C13" s="29" t="s">
         <v>56</v>
       </c>
-      <c r="D13" s="43"/>
-      <c r="E13" s="20">
+      <c r="D13" s="27"/>
+      <c r="E13" s="21">
         <v>4.6100000000000003</v>
       </c>
-      <c r="F13" s="11">
+      <c r="F13" s="15">
         <v>2</v>
       </c>
-      <c r="G13" s="7"/>
-    </row>
-    <row r="14" spans="1:7" s="3" customFormat="1" x14ac:dyDescent="0.35">
-      <c r="A14" s="44" t="s">
+      <c r="G13" s="8"/>
+    </row>
+    <row r="14" spans="1:7" s="26" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="A14" s="28" t="s">
         <v>57</v>
       </c>
-      <c r="B14" s="49" t="s">
+      <c r="B14" s="30" t="s">
         <v>42</v>
       </c>
-      <c r="C14" s="49" t="s">
+      <c r="C14" s="30" t="s">
         <v>58</v>
       </c>
-      <c r="D14" s="44"/>
-      <c r="E14" s="21">
+      <c r="D14" s="28"/>
+      <c r="E14" s="24">
         <v>3.34</v>
       </c>
-      <c r="F14" s="13">
+      <c r="F14" s="23">
         <v>2</v>
       </c>
-      <c r="G14" s="6"/>
-    </row>
-    <row r="15" spans="1:7" s="4" customFormat="1" x14ac:dyDescent="0.35">
-      <c r="A15" s="43" t="s">
+      <c r="G14" s="25"/>
+    </row>
+    <row r="15" spans="1:7" s="5" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="A15" s="27" t="s">
         <v>59</v>
       </c>
-      <c r="B15" s="48" t="s">
+      <c r="B15" s="29" t="s">
         <v>27</v>
       </c>
-      <c r="C15" s="48" t="s">
+      <c r="C15" s="29" t="s">
         <v>60</v>
       </c>
-      <c r="D15" s="43"/>
-      <c r="E15" s="20">
+      <c r="D15" s="27"/>
+      <c r="E15" s="21">
         <v>0.67</v>
       </c>
-      <c r="F15" s="11">
+      <c r="F15" s="15">
         <v>2</v>
       </c>
-      <c r="G15" s="7"/>
-    </row>
-    <row r="16" spans="1:7" s="3" customFormat="1" x14ac:dyDescent="0.35">
-      <c r="A16" s="44" t="s">
+      <c r="G15" s="8"/>
+    </row>
+    <row r="16" spans="1:7" s="26" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="A16" s="28" t="s">
         <v>61</v>
       </c>
-      <c r="B16" s="49" t="s">
+      <c r="B16" s="30" t="s">
         <v>63</v>
       </c>
-      <c r="C16" s="49" t="s">
+      <c r="C16" s="30" t="s">
         <v>62</v>
       </c>
-      <c r="D16" s="44"/>
-      <c r="E16" s="21">
+      <c r="D16" s="28"/>
+      <c r="E16" s="24">
         <v>0.63</v>
       </c>
-      <c r="F16" s="13"/>
-      <c r="G16" s="6"/>
-    </row>
-    <row r="17" spans="1:7" s="4" customFormat="1" x14ac:dyDescent="0.35">
-      <c r="A17" s="11"/>
-      <c r="B17" s="12"/>
-      <c r="C17" s="12"/>
-      <c r="D17" s="11"/>
-      <c r="E17" s="20"/>
-      <c r="F17" s="11"/>
-      <c r="G17" s="7"/>
-    </row>
-    <row r="18" spans="1:7" s="3" customFormat="1" x14ac:dyDescent="0.35">
-      <c r="A18" s="13"/>
-      <c r="B18" s="14"/>
-      <c r="C18" s="14"/>
-      <c r="D18" s="13"/>
-      <c r="E18" s="21"/>
-      <c r="F18" s="13"/>
-      <c r="G18" s="6"/>
-    </row>
-    <row r="19" spans="1:7" s="4" customFormat="1" x14ac:dyDescent="0.35">
-      <c r="A19" s="11"/>
-      <c r="B19" s="12"/>
-      <c r="C19" s="12"/>
-      <c r="D19" s="11"/>
-      <c r="E19" s="20"/>
-      <c r="F19" s="11"/>
-      <c r="G19" s="7"/>
-    </row>
-    <row r="20" spans="1:7" s="3" customFormat="1" x14ac:dyDescent="0.35">
-      <c r="A20" s="13"/>
-      <c r="B20" s="14"/>
-      <c r="C20" s="14"/>
-      <c r="D20" s="13"/>
-      <c r="E20" s="21"/>
-      <c r="F20" s="13"/>
-      <c r="G20" s="6"/>
-    </row>
-    <row r="21" spans="1:7" s="4" customFormat="1" x14ac:dyDescent="0.35">
-      <c r="A21" s="11"/>
-      <c r="B21" s="12"/>
-      <c r="C21" s="12"/>
-      <c r="D21" s="11"/>
-      <c r="E21" s="20"/>
-      <c r="F21" s="11"/>
-      <c r="G21" s="7"/>
-    </row>
-    <row r="22" spans="1:7" s="28" customFormat="1" x14ac:dyDescent="0.35">
-      <c r="A22" s="24" t="s">
+      <c r="F16" s="23">
+        <v>2</v>
+      </c>
+      <c r="G16" s="25"/>
+    </row>
+    <row r="17" spans="1:7" s="5" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="A17" s="15" t="s">
+        <v>65</v>
+      </c>
+      <c r="B17" s="37" t="s">
+        <v>51</v>
+      </c>
+      <c r="C17" s="29" t="s">
+        <v>64</v>
+      </c>
+      <c r="D17" s="15"/>
+      <c r="E17" s="21">
+        <v>1.24</v>
+      </c>
+      <c r="F17" s="15">
+        <v>8</v>
+      </c>
+      <c r="G17" s="8"/>
+    </row>
+    <row r="18" spans="1:7" s="26" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="A18" s="23"/>
+      <c r="B18" s="38"/>
+      <c r="C18" s="38"/>
+      <c r="D18" s="23"/>
+      <c r="E18" s="24"/>
+      <c r="F18" s="23"/>
+      <c r="G18" s="25"/>
+    </row>
+    <row r="19" spans="1:7" s="5" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="A19" s="15"/>
+      <c r="B19" s="37"/>
+      <c r="C19" s="37"/>
+      <c r="D19" s="15"/>
+      <c r="E19" s="21"/>
+      <c r="F19" s="15"/>
+      <c r="G19" s="8"/>
+    </row>
+    <row r="20" spans="1:7" s="26" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="A20" s="23"/>
+      <c r="B20" s="38"/>
+      <c r="C20" s="38"/>
+      <c r="D20" s="23"/>
+      <c r="E20" s="24"/>
+      <c r="F20" s="23"/>
+      <c r="G20" s="25"/>
+    </row>
+    <row r="21" spans="1:7" s="5" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="A21" s="15"/>
+      <c r="B21" s="37"/>
+      <c r="C21" s="37"/>
+      <c r="D21" s="15"/>
+      <c r="E21" s="21"/>
+      <c r="F21" s="15"/>
+      <c r="G21" s="8"/>
+    </row>
+    <row r="22" spans="1:7" s="26" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="A22" s="23" t="s">
         <v>25</v>
       </c>
-      <c r="B22" s="25" t="s">
+      <c r="B22" s="38" t="s">
         <v>27</v>
       </c>
-      <c r="C22" s="25" t="s">
+      <c r="C22" s="38" t="s">
         <v>26</v>
       </c>
-      <c r="D22" s="24"/>
-      <c r="E22" s="26">
+      <c r="D22" s="23"/>
+      <c r="E22" s="24">
         <v>0.67</v>
       </c>
-      <c r="F22" s="24">
+      <c r="F22" s="23">
         <v>2</v>
       </c>
-      <c r="G22" s="27"/>
-    </row>
-    <row r="23" spans="1:7" s="38" customFormat="1" x14ac:dyDescent="0.35">
-      <c r="A23" s="34" t="s">
+      <c r="G22" s="25"/>
+    </row>
+    <row r="23" spans="1:7" s="5" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="A23" s="15" t="s">
         <v>28</v>
       </c>
-      <c r="B23" s="35" t="s">
+      <c r="B23" s="37" t="s">
         <v>27</v>
       </c>
-      <c r="C23" s="35" t="s">
+      <c r="C23" s="37" t="s">
         <v>29</v>
       </c>
-      <c r="D23" s="34"/>
-      <c r="E23" s="36">
+      <c r="D23" s="15"/>
+      <c r="E23" s="21">
         <v>0.74</v>
       </c>
-      <c r="F23" s="34">
+      <c r="F23" s="15">
         <v>2</v>
       </c>
-      <c r="G23" s="37"/>
-    </row>
-    <row r="24" spans="1:7" s="28" customFormat="1" x14ac:dyDescent="0.35">
-      <c r="A24" s="24" t="s">
+      <c r="G23" s="8"/>
+    </row>
+    <row r="24" spans="1:7" s="26" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="A24" s="23" t="s">
         <v>32</v>
       </c>
-      <c r="B24" s="25" t="s">
+      <c r="B24" s="38" t="s">
         <v>31</v>
       </c>
-      <c r="C24" s="25" t="s">
+      <c r="C24" s="38" t="s">
         <v>30</v>
       </c>
-      <c r="D24" s="24"/>
-      <c r="E24" s="26">
+      <c r="D24" s="23"/>
+      <c r="E24" s="24">
         <v>1.76</v>
       </c>
-      <c r="F24" s="24">
+      <c r="F24" s="23">
         <v>2</v>
       </c>
-      <c r="G24" s="27"/>
-    </row>
-    <row r="25" spans="1:7" s="38" customFormat="1" x14ac:dyDescent="0.35">
-      <c r="A25" s="34" t="s">
+      <c r="G24" s="25"/>
+    </row>
+    <row r="25" spans="1:7" s="5" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="A25" s="15" t="s">
         <v>33</v>
       </c>
-      <c r="B25" s="35" t="s">
+      <c r="B25" s="37" t="s">
         <v>34</v>
       </c>
-      <c r="C25" s="35" t="s">
+      <c r="C25" s="37" t="s">
         <v>35</v>
       </c>
-      <c r="D25" s="34"/>
-      <c r="E25" s="36">
+      <c r="D25" s="15"/>
+      <c r="E25" s="21">
         <v>0.7</v>
       </c>
-      <c r="F25" s="34">
+      <c r="F25" s="15">
         <v>2</v>
       </c>
-      <c r="G25" s="37"/>
-    </row>
-    <row r="26" spans="1:7" s="28" customFormat="1" x14ac:dyDescent="0.35">
-      <c r="A26" s="24" t="s">
+      <c r="G25" s="8"/>
+    </row>
+    <row r="26" spans="1:7" s="26" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="A26" s="23" t="s">
         <v>36</v>
       </c>
-      <c r="B26" s="25" t="s">
+      <c r="B26" s="38" t="s">
         <v>27</v>
       </c>
-      <c r="C26" s="25" t="s">
+      <c r="C26" s="38" t="s">
         <v>37</v>
       </c>
-      <c r="D26" s="24"/>
-      <c r="E26" s="26">
+      <c r="D26" s="23"/>
+      <c r="E26" s="24">
         <v>0.74</v>
       </c>
-      <c r="F26" s="24">
+      <c r="F26" s="23">
         <v>2</v>
       </c>
-      <c r="G26" s="27"/>
-    </row>
-    <row r="27" spans="1:7" s="38" customFormat="1" x14ac:dyDescent="0.35">
-      <c r="A27" s="34" t="s">
+      <c r="G26" s="25"/>
+    </row>
+    <row r="27" spans="1:7" s="5" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="A27" s="15" t="s">
         <v>38</v>
       </c>
-      <c r="B27" s="35" t="s">
+      <c r="B27" s="37" t="s">
         <v>39</v>
       </c>
-      <c r="C27" s="35" t="s">
+      <c r="C27" s="37" t="s">
         <v>40</v>
       </c>
-      <c r="D27" s="34"/>
-      <c r="E27" s="36">
+      <c r="D27" s="15"/>
+      <c r="E27" s="21">
         <v>0.73</v>
       </c>
-      <c r="F27" s="34">
+      <c r="F27" s="15">
         <v>2</v>
       </c>
-      <c r="G27" s="37"/>
+      <c r="G27" s="8"/>
     </row>
     <row r="28" spans="1:7" s="3" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A28" s="13"/>
       <c r="B28" s="14"/>
       <c r="C28" s="14"/>
       <c r="D28" s="13"/>
-      <c r="E28" s="21"/>
+      <c r="E28" s="20"/>
       <c r="F28" s="13"/>
       <c r="G28" s="6"/>
     </row>
@@ -1376,7 +1351,7 @@
       <c r="B29" s="12"/>
       <c r="C29" s="12"/>
       <c r="D29" s="11"/>
-      <c r="E29" s="20"/>
+      <c r="E29" s="19"/>
       <c r="F29" s="11"/>
       <c r="G29" s="7"/>
     </row>
@@ -1385,7 +1360,7 @@
       <c r="B30" s="14"/>
       <c r="C30" s="14"/>
       <c r="D30" s="13"/>
-      <c r="E30" s="21"/>
+      <c r="E30" s="20"/>
       <c r="F30" s="13"/>
       <c r="G30" s="6"/>
     </row>
@@ -1394,7 +1369,7 @@
       <c r="B31" s="12"/>
       <c r="C31" s="12"/>
       <c r="D31" s="11"/>
-      <c r="E31" s="20"/>
+      <c r="E31" s="19"/>
       <c r="F31" s="11"/>
       <c r="G31" s="7"/>
     </row>
@@ -1403,7 +1378,7 @@
       <c r="B32" s="14"/>
       <c r="C32" s="14"/>
       <c r="D32" s="13"/>
-      <c r="E32" s="21"/>
+      <c r="E32" s="20"/>
       <c r="F32" s="13"/>
       <c r="G32" s="6"/>
     </row>
@@ -1412,12 +1387,12 @@
       <c r="B33" s="12"/>
       <c r="C33" s="12"/>
       <c r="D33" s="11"/>
-      <c r="E33" s="20"/>
+      <c r="E33" s="19"/>
       <c r="F33" s="11"/>
       <c r="G33" s="7"/>
     </row>
     <row r="34" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="E34" s="23"/>
+      <c r="E34" s="22"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/Hardware/UniversalConverter/BOM.xlsx
+++ b/Hardware/UniversalConverter/BOM.xlsx
@@ -3,9 +3,9 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="24430"/>
   <workbookPr filterPrivacy="1"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8F2ECD65-A0B2-4277-BC32-D2AB224792C9}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{62AEF512-F91B-4704-BE42-900844DF5C5D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-10540" yWindow="8030" windowWidth="17600" windowHeight="15460" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="5540" windowWidth="17600" windowHeight="15460" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="73" uniqueCount="66">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="101" uniqueCount="90">
   <si>
     <t>Link</t>
   </si>
@@ -37,9 +37,6 @@
     <t>Price</t>
   </si>
   <si>
-    <t>Quantity</t>
-  </si>
-  <si>
     <t>Manufacturer</t>
   </si>
   <si>
@@ -218,6 +215,81 @@
   </si>
   <si>
     <t>10-EEE-FN1K470UVCT-ND</t>
+  </si>
+  <si>
+    <t>FSM6JSMATR</t>
+  </si>
+  <si>
+    <t>TE Connectivity</t>
+  </si>
+  <si>
+    <t>SWITCH TACTILE SPST-NO 0.05A 24V</t>
+  </si>
+  <si>
+    <t>NEED</t>
+  </si>
+  <si>
+    <t>STOCK</t>
+  </si>
+  <si>
+    <t>10118194-0001LF</t>
+  </si>
+  <si>
+    <t>CONN RCPT USB2.0 MICRO B SMD R/A</t>
+  </si>
+  <si>
+    <t>Amphenol ICC (FCI)</t>
+  </si>
+  <si>
+    <t>RCLAMP0854P.TCTCT-ND</t>
+  </si>
+  <si>
+    <t>Semtech Corporation</t>
+  </si>
+  <si>
+    <t>TVS DIODE 5.5VWM 30VC SLP1616P6</t>
+  </si>
+  <si>
+    <t>296-15227-1-ND</t>
+  </si>
+  <si>
+    <t>IC DAC 12BIT V-OUT 10VSSOP</t>
+  </si>
+  <si>
+    <t>PEC12R-4025F-S0024</t>
+  </si>
+  <si>
+    <t>ROTARY ENCODER MECHANICAL 24PPR</t>
+  </si>
+  <si>
+    <t>497-4941-1-ND</t>
+  </si>
+  <si>
+    <t>STMicroelectronics</t>
+  </si>
+  <si>
+    <t>IC OPAMP GP 1 CIRCUIT SOT23-5</t>
+  </si>
+  <si>
+    <t>SK58L-TPMSCT-ND</t>
+  </si>
+  <si>
+    <t>XC1846CT-ND</t>
+  </si>
+  <si>
+    <t>CRYSTAL 32.0000MHZ 8PF SMD</t>
+  </si>
+  <si>
+    <t>ECS Inc.</t>
+  </si>
+  <si>
+    <t>300-8814-2-ND</t>
+  </si>
+  <si>
+    <t>Citizen Finedevice Co Ltd</t>
+  </si>
+  <si>
+    <t>CRYSTAL 32.7680KHZ 12.5PF SMD</t>
   </si>
 </sst>
 </file>
@@ -278,7 +350,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="15">
+  <borders count="17">
     <border>
       <left/>
       <right/>
@@ -466,12 +538,36 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="39">
+  <cellXfs count="63">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="4" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -520,9 +616,6 @@
     <xf numFmtId="164" fontId="0" fillId="3" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -559,6 +652,77 @@
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="8" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="8" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="8" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="6" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="8" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="6" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="7" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="7" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="2" borderId="3" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="3" borderId="3" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="15" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="16" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="2" borderId="15" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="16" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="15" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
   </cellXfs>
@@ -842,10 +1006,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:G34"/>
+  <dimension ref="A1:H40"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B14" sqref="B14"/>
+    <sheetView tabSelected="1" topLeftCell="A16" workbookViewId="0">
+      <selection activeCell="G32" sqref="G32"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -855,17 +1019,18 @@
     <col min="3" max="3" width="37.81640625" style="17" customWidth="1"/>
     <col min="4" max="4" width="10.36328125" style="18" customWidth="1"/>
     <col min="5" max="5" width="12.54296875" style="16" customWidth="1"/>
-    <col min="6" max="6" width="10.36328125" style="16" customWidth="1"/>
-    <col min="7" max="7" width="103.81640625" customWidth="1"/>
-    <col min="8" max="8" width="9.6328125" customWidth="1"/>
+    <col min="6" max="6" width="10.36328125" style="17" customWidth="1"/>
+    <col min="7" max="7" width="10.36328125" style="16" customWidth="1"/>
+    <col min="8" max="8" width="103.81640625" customWidth="1"/>
+    <col min="9" max="9" width="9.6328125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:7" s="10" customFormat="1" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="1" spans="1:8" s="10" customFormat="1" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A1" s="2" t="s">
         <v>1</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="C1" s="1" t="s">
         <v>2</v>
@@ -876,523 +1041,711 @@
       <c r="E1" s="2" t="s">
         <v>4</v>
       </c>
-      <c r="F1" s="2" t="s">
-        <v>5</v>
-      </c>
-      <c r="G1" s="9" t="s">
+      <c r="F1" s="1" t="s">
+        <v>68</v>
+      </c>
+      <c r="G1" s="2" t="s">
+        <v>69</v>
+      </c>
+      <c r="H1" s="9" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="2" spans="1:7" s="35" customFormat="1" x14ac:dyDescent="0.35">
-      <c r="A2" s="31" t="s">
+    <row r="2" spans="1:8" s="34" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="A2" s="30" t="s">
+        <v>6</v>
+      </c>
+      <c r="B2" s="31" t="s">
         <v>7</v>
       </c>
-      <c r="B2" s="32" t="s">
+      <c r="C2" s="31" t="s">
         <v>8</v>
       </c>
-      <c r="C2" s="32" t="s">
-        <v>9</v>
-      </c>
-      <c r="D2" s="31"/>
-      <c r="E2" s="33">
+      <c r="D2" s="30"/>
+      <c r="E2" s="32">
         <v>1.26</v>
       </c>
       <c r="F2" s="31">
         <v>10</v>
       </c>
-      <c r="G2" s="34" t="s">
+      <c r="G2" s="30"/>
+      <c r="H2" s="33" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="3" spans="1:8" s="5" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="A3" s="26" t="s">
         <v>10</v>
       </c>
-    </row>
-    <row r="3" spans="1:7" s="5" customFormat="1" x14ac:dyDescent="0.35">
-      <c r="A3" s="27" t="s">
+      <c r="B3" s="28" t="s">
         <v>11</v>
       </c>
-      <c r="B3" s="29" t="s">
+      <c r="C3" s="28" t="s">
         <v>12</v>
       </c>
-      <c r="C3" s="29" t="s">
-        <v>13</v>
-      </c>
-      <c r="D3" s="27"/>
+      <c r="D3" s="26"/>
       <c r="E3" s="21">
         <v>0.48</v>
       </c>
-      <c r="F3" s="15">
+      <c r="F3" s="36">
         <v>4</v>
       </c>
-      <c r="G3" s="36"/>
-    </row>
-    <row r="4" spans="1:7" s="26" customFormat="1" x14ac:dyDescent="0.35">
-      <c r="A4" s="28" t="s">
+      <c r="G3" s="15"/>
+      <c r="H3" s="35"/>
+    </row>
+    <row r="4" spans="1:8" s="25" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="A4" s="27" t="s">
+        <v>13</v>
+      </c>
+      <c r="B4" s="29" t="s">
+        <v>15</v>
+      </c>
+      <c r="C4" s="29" t="s">
         <v>14</v>
       </c>
-      <c r="B4" s="30" t="s">
+      <c r="D4" s="27"/>
+      <c r="E4" s="23">
+        <v>11.53</v>
+      </c>
+      <c r="F4" s="37">
+        <v>1</v>
+      </c>
+      <c r="G4" s="22"/>
+      <c r="H4" s="24"/>
+    </row>
+    <row r="5" spans="1:8" s="5" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="A5" s="26" t="s">
         <v>16</v>
       </c>
-      <c r="C4" s="30" t="s">
-        <v>15</v>
-      </c>
-      <c r="D4" s="28"/>
-      <c r="E4" s="24">
-        <v>11.53</v>
-      </c>
-      <c r="F4" s="23">
-        <v>1</v>
-      </c>
-      <c r="G4" s="25"/>
-    </row>
-    <row r="5" spans="1:7" s="5" customFormat="1" x14ac:dyDescent="0.35">
-      <c r="A5" s="27" t="s">
+      <c r="B5" s="28" t="s">
         <v>17</v>
       </c>
-      <c r="B5" s="29" t="s">
+      <c r="C5" s="28" t="s">
         <v>18</v>
       </c>
-      <c r="C5" s="29" t="s">
-        <v>19</v>
-      </c>
-      <c r="D5" s="27"/>
+      <c r="D5" s="26"/>
       <c r="E5" s="21">
         <v>1.08</v>
       </c>
-      <c r="F5" s="15">
+      <c r="F5" s="36">
         <v>10</v>
       </c>
-      <c r="G5" s="8"/>
-    </row>
-    <row r="6" spans="1:7" s="26" customFormat="1" ht="14" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A6" s="28" t="s">
+      <c r="G5" s="15"/>
+      <c r="H5" s="8"/>
+    </row>
+    <row r="6" spans="1:8" s="25" customFormat="1" ht="14" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A6" s="27" t="s">
+        <v>20</v>
+      </c>
+      <c r="B6" s="29"/>
+      <c r="C6" s="29" t="s">
+        <v>19</v>
+      </c>
+      <c r="D6" s="27"/>
+      <c r="E6" s="23">
+        <v>0.38</v>
+      </c>
+      <c r="F6" s="37">
+        <v>2</v>
+      </c>
+      <c r="G6" s="22"/>
+      <c r="H6" s="24"/>
+    </row>
+    <row r="7" spans="1:8" s="5" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="A7" s="26" t="s">
         <v>21</v>
       </c>
-      <c r="B6" s="30"/>
-      <c r="C6" s="30" t="s">
-        <v>20</v>
-      </c>
-      <c r="D6" s="28"/>
-      <c r="E6" s="24">
-        <v>0.38</v>
-      </c>
-      <c r="F6" s="23">
-        <v>2</v>
-      </c>
-      <c r="G6" s="25"/>
-    </row>
-    <row r="7" spans="1:7" s="5" customFormat="1" x14ac:dyDescent="0.35">
-      <c r="A7" s="27" t="s">
+      <c r="B7" s="28" t="s">
         <v>22</v>
       </c>
-      <c r="B7" s="29" t="s">
+      <c r="C7" s="28" t="s">
         <v>23</v>
       </c>
-      <c r="C7" s="29" t="s">
-        <v>24</v>
-      </c>
-      <c r="D7" s="27"/>
+      <c r="D7" s="26"/>
       <c r="E7" s="21">
         <v>5.53</v>
       </c>
-      <c r="F7" s="15">
+      <c r="F7" s="36">
         <v>1</v>
       </c>
-      <c r="G7" s="8"/>
-    </row>
-    <row r="8" spans="1:7" s="26" customFormat="1" x14ac:dyDescent="0.35">
-      <c r="A8" s="28" t="s">
+      <c r="G7" s="15"/>
+      <c r="H7" s="8"/>
+    </row>
+    <row r="8" spans="1:8" s="25" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="A8" s="27" t="s">
+        <v>40</v>
+      </c>
+      <c r="B8" s="29" t="s">
         <v>41</v>
       </c>
-      <c r="B8" s="30" t="s">
+      <c r="C8" s="29" t="s">
         <v>42</v>
       </c>
-      <c r="C8" s="30" t="s">
+      <c r="D8" s="27"/>
+      <c r="E8" s="23">
+        <v>4.8899999999999997</v>
+      </c>
+      <c r="F8" s="37">
+        <v>1</v>
+      </c>
+      <c r="G8" s="22"/>
+      <c r="H8" s="24"/>
+    </row>
+    <row r="9" spans="1:8" s="5" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="A9" s="26" t="s">
         <v>43</v>
       </c>
-      <c r="D8" s="28"/>
-      <c r="E8" s="24">
-        <v>4.8899999999999997</v>
-      </c>
-      <c r="F8" s="23">
-        <v>1</v>
-      </c>
-      <c r="G8" s="25"/>
-    </row>
-    <row r="9" spans="1:7" s="5" customFormat="1" x14ac:dyDescent="0.35">
-      <c r="A9" s="27" t="s">
+      <c r="B9" s="28" t="s">
         <v>44</v>
       </c>
-      <c r="B9" s="29" t="s">
+      <c r="C9" s="28" t="s">
         <v>45</v>
       </c>
-      <c r="C9" s="29" t="s">
-        <v>46</v>
-      </c>
-      <c r="D9" s="27"/>
+      <c r="D9" s="26"/>
       <c r="E9" s="21">
         <v>0.91</v>
       </c>
-      <c r="F9" s="15">
+      <c r="F9" s="36">
         <v>1</v>
       </c>
-      <c r="G9" s="8"/>
-    </row>
-    <row r="10" spans="1:7" s="26" customFormat="1" x14ac:dyDescent="0.35">
-      <c r="A10" s="28" t="s">
+      <c r="G9" s="15"/>
+      <c r="H9" s="8"/>
+    </row>
+    <row r="10" spans="1:8" s="25" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="A10" s="27" t="s">
+        <v>47</v>
+      </c>
+      <c r="B10" s="29" t="s">
+        <v>22</v>
+      </c>
+      <c r="C10" s="29" t="s">
+        <v>46</v>
+      </c>
+      <c r="D10" s="27"/>
+      <c r="E10" s="23">
+        <v>2.19</v>
+      </c>
+      <c r="F10" s="37">
+        <v>1</v>
+      </c>
+      <c r="G10" s="22"/>
+      <c r="H10" s="24"/>
+    </row>
+    <row r="11" spans="1:8" s="5" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="A11" s="26" t="s">
         <v>48</v>
       </c>
-      <c r="B10" s="30" t="s">
-        <v>23</v>
-      </c>
-      <c r="C10" s="30" t="s">
-        <v>47</v>
-      </c>
-      <c r="D10" s="28"/>
-      <c r="E10" s="24">
-        <v>2.19</v>
-      </c>
-      <c r="F10" s="23">
-        <v>1</v>
-      </c>
-      <c r="G10" s="25"/>
-    </row>
-    <row r="11" spans="1:7" s="5" customFormat="1" x14ac:dyDescent="0.35">
-      <c r="A11" s="27" t="s">
+      <c r="B11" s="28" t="s">
+        <v>50</v>
+      </c>
+      <c r="C11" s="28" t="s">
         <v>49</v>
       </c>
-      <c r="B11" s="29" t="s">
-        <v>51</v>
-      </c>
-      <c r="C11" s="29" t="s">
-        <v>50</v>
-      </c>
-      <c r="D11" s="27"/>
+      <c r="D11" s="26"/>
       <c r="E11" s="21">
         <v>0.66</v>
       </c>
-      <c r="F11" s="15">
+      <c r="F11" s="36">
         <v>20</v>
       </c>
-      <c r="G11" s="8"/>
-    </row>
-    <row r="12" spans="1:7" s="26" customFormat="1" x14ac:dyDescent="0.35">
-      <c r="A12" s="28" t="s">
+      <c r="G11" s="15"/>
+      <c r="H11" s="8"/>
+    </row>
+    <row r="12" spans="1:8" s="25" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="A12" s="27" t="s">
+        <v>52</v>
+      </c>
+      <c r="B12" s="29" t="s">
+        <v>41</v>
+      </c>
+      <c r="C12" s="29" t="s">
+        <v>51</v>
+      </c>
+      <c r="D12" s="27"/>
+      <c r="E12" s="23">
+        <v>4.49</v>
+      </c>
+      <c r="F12" s="37">
+        <v>1</v>
+      </c>
+      <c r="G12" s="22"/>
+      <c r="H12" s="24"/>
+    </row>
+    <row r="13" spans="1:8" s="5" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="A13" s="26" t="s">
         <v>53</v>
       </c>
-      <c r="B12" s="30" t="s">
-        <v>42</v>
-      </c>
-      <c r="C12" s="30" t="s">
-        <v>52</v>
-      </c>
-      <c r="D12" s="28"/>
-      <c r="E12" s="24">
-        <v>4.49</v>
-      </c>
-      <c r="F12" s="23">
-        <v>1</v>
-      </c>
-      <c r="G12" s="25"/>
-    </row>
-    <row r="13" spans="1:7" s="5" customFormat="1" x14ac:dyDescent="0.35">
-      <c r="A13" s="27" t="s">
+      <c r="B13" s="28" t="s">
         <v>54</v>
       </c>
-      <c r="B13" s="29" t="s">
+      <c r="C13" s="28" t="s">
         <v>55</v>
       </c>
-      <c r="C13" s="29" t="s">
-        <v>56</v>
-      </c>
-      <c r="D13" s="27"/>
+      <c r="D13" s="26"/>
       <c r="E13" s="21">
         <v>4.6100000000000003</v>
       </c>
-      <c r="F13" s="15">
+      <c r="F13" s="36">
         <v>2</v>
       </c>
-      <c r="G13" s="8"/>
-    </row>
-    <row r="14" spans="1:7" s="26" customFormat="1" x14ac:dyDescent="0.35">
-      <c r="A14" s="28" t="s">
+      <c r="G13" s="15"/>
+      <c r="H13" s="8"/>
+    </row>
+    <row r="14" spans="1:8" s="25" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="A14" s="27" t="s">
+        <v>56</v>
+      </c>
+      <c r="B14" s="29" t="s">
+        <v>41</v>
+      </c>
+      <c r="C14" s="29" t="s">
         <v>57</v>
       </c>
-      <c r="B14" s="30" t="s">
-        <v>42</v>
-      </c>
-      <c r="C14" s="30" t="s">
+      <c r="D14" s="27"/>
+      <c r="E14" s="23">
+        <v>3.34</v>
+      </c>
+      <c r="F14" s="37">
+        <v>3</v>
+      </c>
+      <c r="G14" s="22"/>
+      <c r="H14" s="24"/>
+    </row>
+    <row r="15" spans="1:8" s="5" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="A15" s="26" t="s">
         <v>58</v>
       </c>
-      <c r="D14" s="28"/>
-      <c r="E14" s="24">
-        <v>3.34</v>
-      </c>
-      <c r="F14" s="23">
-        <v>2</v>
-      </c>
-      <c r="G14" s="25"/>
-    </row>
-    <row r="15" spans="1:7" s="5" customFormat="1" x14ac:dyDescent="0.35">
-      <c r="A15" s="27" t="s">
+      <c r="B15" s="28" t="s">
+        <v>26</v>
+      </c>
+      <c r="C15" s="28" t="s">
         <v>59</v>
       </c>
-      <c r="B15" s="29" t="s">
-        <v>27</v>
-      </c>
-      <c r="C15" s="29" t="s">
-        <v>60</v>
-      </c>
-      <c r="D15" s="27"/>
+      <c r="D15" s="26"/>
       <c r="E15" s="21">
         <v>0.67</v>
       </c>
-      <c r="F15" s="15">
+      <c r="F15" s="36">
         <v>2</v>
       </c>
-      <c r="G15" s="8"/>
-    </row>
-    <row r="16" spans="1:7" s="26" customFormat="1" x14ac:dyDescent="0.35">
-      <c r="A16" s="28" t="s">
+      <c r="G15" s="15"/>
+      <c r="H15" s="8"/>
+    </row>
+    <row r="16" spans="1:8" s="25" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="A16" s="27" t="s">
+        <v>60</v>
+      </c>
+      <c r="B16" s="29" t="s">
+        <v>62</v>
+      </c>
+      <c r="C16" s="29" t="s">
         <v>61</v>
       </c>
-      <c r="B16" s="30" t="s">
+      <c r="D16" s="27"/>
+      <c r="E16" s="23">
+        <v>0.63</v>
+      </c>
+      <c r="F16" s="37">
+        <v>2</v>
+      </c>
+      <c r="G16" s="22"/>
+      <c r="H16" s="24"/>
+    </row>
+    <row r="17" spans="1:8" s="5" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="A17" s="26" t="s">
+        <v>64</v>
+      </c>
+      <c r="B17" s="36" t="s">
+        <v>50</v>
+      </c>
+      <c r="C17" s="28" t="s">
         <v>63</v>
-      </c>
-      <c r="C16" s="30" t="s">
-        <v>62</v>
-      </c>
-      <c r="D16" s="28"/>
-      <c r="E16" s="24">
-        <v>0.63</v>
-      </c>
-      <c r="F16" s="23">
-        <v>2</v>
-      </c>
-      <c r="G16" s="25"/>
-    </row>
-    <row r="17" spans="1:7" s="5" customFormat="1" x14ac:dyDescent="0.35">
-      <c r="A17" s="15" t="s">
-        <v>65</v>
-      </c>
-      <c r="B17" s="37" t="s">
-        <v>51</v>
-      </c>
-      <c r="C17" s="29" t="s">
-        <v>64</v>
       </c>
       <c r="D17" s="15"/>
       <c r="E17" s="21">
         <v>1.24</v>
       </c>
-      <c r="F17" s="15">
+      <c r="F17" s="36">
         <v>8</v>
       </c>
-      <c r="G17" s="8"/>
-    </row>
-    <row r="18" spans="1:7" s="26" customFormat="1" x14ac:dyDescent="0.35">
-      <c r="A18" s="23"/>
-      <c r="B18" s="38"/>
-      <c r="C18" s="38"/>
-      <c r="D18" s="23"/>
-      <c r="E18" s="24"/>
-      <c r="F18" s="23"/>
-      <c r="G18" s="25"/>
-    </row>
-    <row r="19" spans="1:7" s="5" customFormat="1" x14ac:dyDescent="0.35">
-      <c r="A19" s="15"/>
-      <c r="B19" s="37"/>
-      <c r="C19" s="37"/>
-      <c r="D19" s="15"/>
-      <c r="E19" s="21"/>
-      <c r="F19" s="15"/>
-      <c r="G19" s="8"/>
-    </row>
-    <row r="20" spans="1:7" s="26" customFormat="1" x14ac:dyDescent="0.35">
-      <c r="A20" s="23"/>
-      <c r="B20" s="38"/>
-      <c r="C20" s="38"/>
-      <c r="D20" s="23"/>
-      <c r="E20" s="24"/>
-      <c r="F20" s="23"/>
-      <c r="G20" s="25"/>
-    </row>
-    <row r="21" spans="1:7" s="5" customFormat="1" x14ac:dyDescent="0.35">
-      <c r="A21" s="15"/>
-      <c r="B21" s="37"/>
-      <c r="C21" s="37"/>
-      <c r="D21" s="15"/>
-      <c r="E21" s="21"/>
-      <c r="F21" s="15"/>
-      <c r="G21" s="8"/>
-    </row>
-    <row r="22" spans="1:7" s="26" customFormat="1" x14ac:dyDescent="0.35">
-      <c r="A22" s="23" t="s">
+      <c r="G17" s="15"/>
+      <c r="H17" s="8"/>
+    </row>
+    <row r="18" spans="1:8" s="39" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="A18" s="27" t="s">
+        <v>24</v>
+      </c>
+      <c r="B18" s="29" t="s">
+        <v>26</v>
+      </c>
+      <c r="C18" s="29" t="s">
         <v>25</v>
       </c>
-      <c r="B22" s="38" t="s">
+      <c r="D18" s="27"/>
+      <c r="E18" s="23">
+        <v>0.67</v>
+      </c>
+      <c r="F18" s="37">
+        <v>2</v>
+      </c>
+      <c r="G18" s="27"/>
+      <c r="H18" s="38"/>
+    </row>
+    <row r="19" spans="1:8" s="41" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="A19" s="26" t="s">
         <v>27</v>
       </c>
-      <c r="C22" s="38" t="s">
+      <c r="B19" s="28" t="s">
         <v>26</v>
       </c>
-      <c r="D22" s="23"/>
-      <c r="E22" s="24">
-        <v>0.67</v>
-      </c>
-      <c r="F22" s="23">
+      <c r="C19" s="28" t="s">
+        <v>28</v>
+      </c>
+      <c r="D19" s="26"/>
+      <c r="E19" s="21">
+        <v>0.74</v>
+      </c>
+      <c r="F19" s="36">
         <v>2</v>
       </c>
-      <c r="G22" s="25"/>
-    </row>
-    <row r="23" spans="1:7" s="5" customFormat="1" x14ac:dyDescent="0.35">
-      <c r="A23" s="15" t="s">
-        <v>28</v>
-      </c>
-      <c r="B23" s="37" t="s">
-        <v>27</v>
-      </c>
-      <c r="C23" s="37" t="s">
+      <c r="G19" s="26"/>
+      <c r="H19" s="40"/>
+    </row>
+    <row r="20" spans="1:8" s="39" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="A20" s="27" t="s">
+        <v>31</v>
+      </c>
+      <c r="B20" s="29" t="s">
+        <v>30</v>
+      </c>
+      <c r="C20" s="29" t="s">
         <v>29</v>
       </c>
-      <c r="D23" s="15"/>
+      <c r="D20" s="27"/>
+      <c r="E20" s="23">
+        <v>1.76</v>
+      </c>
+      <c r="F20" s="37">
+        <v>2</v>
+      </c>
+      <c r="G20" s="27"/>
+      <c r="H20" s="38"/>
+    </row>
+    <row r="21" spans="1:8" s="41" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="A21" s="26" t="s">
+        <v>32</v>
+      </c>
+      <c r="B21" s="28" t="s">
+        <v>33</v>
+      </c>
+      <c r="C21" s="28" t="s">
+        <v>34</v>
+      </c>
+      <c r="D21" s="26"/>
+      <c r="E21" s="21">
+        <v>0.7</v>
+      </c>
+      <c r="F21" s="36">
+        <v>2</v>
+      </c>
+      <c r="G21" s="26"/>
+      <c r="H21" s="40"/>
+    </row>
+    <row r="22" spans="1:8" s="39" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="A22" s="27" t="s">
+        <v>35</v>
+      </c>
+      <c r="B22" s="29" t="s">
+        <v>26</v>
+      </c>
+      <c r="C22" s="29" t="s">
+        <v>36</v>
+      </c>
+      <c r="D22" s="27"/>
+      <c r="E22" s="23">
+        <v>0.74</v>
+      </c>
+      <c r="F22" s="37">
+        <v>2</v>
+      </c>
+      <c r="G22" s="27"/>
+      <c r="H22" s="38"/>
+    </row>
+    <row r="23" spans="1:8" s="41" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="A23" s="26" t="s">
+        <v>37</v>
+      </c>
+      <c r="B23" s="28" t="s">
+        <v>38</v>
+      </c>
+      <c r="C23" s="28" t="s">
+        <v>39</v>
+      </c>
+      <c r="D23" s="26"/>
       <c r="E23" s="21">
-        <v>0.74</v>
-      </c>
-      <c r="F23" s="15">
+        <v>0.73</v>
+      </c>
+      <c r="F23" s="36">
         <v>2</v>
       </c>
-      <c r="G23" s="8"/>
-    </row>
-    <row r="24" spans="1:7" s="26" customFormat="1" x14ac:dyDescent="0.35">
-      <c r="A24" s="23" t="s">
-        <v>32</v>
-      </c>
-      <c r="B24" s="38" t="s">
-        <v>31</v>
-      </c>
-      <c r="C24" s="38" t="s">
-        <v>30</v>
-      </c>
-      <c r="D24" s="23"/>
-      <c r="E24" s="24">
-        <v>1.76</v>
-      </c>
-      <c r="F24" s="23">
+      <c r="G23" s="26"/>
+      <c r="H23" s="40"/>
+    </row>
+    <row r="24" spans="1:8" s="44" customFormat="1" ht="19.5" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A24" s="58" t="s">
+        <v>65</v>
+      </c>
+      <c r="B24" s="59" t="s">
+        <v>66</v>
+      </c>
+      <c r="C24" s="59" t="s">
+        <v>67</v>
+      </c>
+      <c r="D24" s="50"/>
+      <c r="E24" s="60">
+        <v>0.41</v>
+      </c>
+      <c r="F24" s="61">
+        <v>4</v>
+      </c>
+      <c r="G24" s="62"/>
+    </row>
+    <row r="25" spans="1:8" s="47" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="A25" s="51" t="s">
+        <v>70</v>
+      </c>
+      <c r="B25" s="52" t="s">
+        <v>72</v>
+      </c>
+      <c r="C25" s="52" t="s">
+        <v>71</v>
+      </c>
+      <c r="D25" s="53"/>
+      <c r="E25" s="57">
+        <v>0.45</v>
+      </c>
+      <c r="F25" s="46">
+        <v>1</v>
+      </c>
+      <c r="G25" s="45"/>
+    </row>
+    <row r="26" spans="1:8" s="44" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="A26" s="48" t="s">
+        <v>73</v>
+      </c>
+      <c r="B26" s="49" t="s">
+        <v>74</v>
+      </c>
+      <c r="C26" s="49" t="s">
+        <v>75</v>
+      </c>
+      <c r="D26" s="50"/>
+      <c r="E26" s="56">
+        <v>0.94</v>
+      </c>
+      <c r="F26" s="43">
+        <v>1</v>
+      </c>
+      <c r="G26" s="42"/>
+    </row>
+    <row r="27" spans="1:8" s="47" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="A27" s="51" t="s">
+        <v>76</v>
+      </c>
+      <c r="B27" s="52" t="s">
+        <v>41</v>
+      </c>
+      <c r="C27" s="52" t="s">
+        <v>77</v>
+      </c>
+      <c r="D27" s="53"/>
+      <c r="E27" s="57">
+        <v>8.3000000000000007</v>
+      </c>
+      <c r="F27" s="46">
+        <v>1</v>
+      </c>
+      <c r="G27" s="45"/>
+    </row>
+    <row r="28" spans="1:8" s="3" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="A28" s="50" t="s">
+        <v>78</v>
+      </c>
+      <c r="B28" s="54" t="s">
+        <v>26</v>
+      </c>
+      <c r="C28" s="54" t="s">
+        <v>79</v>
+      </c>
+      <c r="D28" s="50"/>
+      <c r="E28" s="20">
+        <v>1.31</v>
+      </c>
+      <c r="F28" s="14">
+        <v>1</v>
+      </c>
+      <c r="G28" s="13"/>
+      <c r="H28" s="6"/>
+    </row>
+    <row r="29" spans="1:8" s="4" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="A29" s="53" t="s">
+        <v>80</v>
+      </c>
+      <c r="B29" s="55" t="s">
+        <v>81</v>
+      </c>
+      <c r="C29" s="55" t="s">
+        <v>82</v>
+      </c>
+      <c r="D29" s="53"/>
+      <c r="E29" s="19">
+        <v>0.63</v>
+      </c>
+      <c r="F29" s="12">
         <v>2</v>
       </c>
-      <c r="G24" s="25"/>
-    </row>
-    <row r="25" spans="1:7" s="5" customFormat="1" x14ac:dyDescent="0.35">
-      <c r="A25" s="15" t="s">
-        <v>33</v>
-      </c>
-      <c r="B25" s="37" t="s">
-        <v>34</v>
-      </c>
-      <c r="C25" s="37" t="s">
-        <v>35</v>
-      </c>
-      <c r="D25" s="15"/>
-      <c r="E25" s="21">
-        <v>0.7</v>
-      </c>
-      <c r="F25" s="15">
-        <v>2</v>
-      </c>
-      <c r="G25" s="8"/>
-    </row>
-    <row r="26" spans="1:7" s="26" customFormat="1" x14ac:dyDescent="0.35">
-      <c r="A26" s="23" t="s">
-        <v>36</v>
-      </c>
-      <c r="B26" s="38" t="s">
-        <v>27</v>
-      </c>
-      <c r="C26" s="38" t="s">
-        <v>37</v>
-      </c>
-      <c r="D26" s="23"/>
-      <c r="E26" s="24">
-        <v>0.74</v>
-      </c>
-      <c r="F26" s="23">
-        <v>2</v>
-      </c>
-      <c r="G26" s="25"/>
-    </row>
-    <row r="27" spans="1:7" s="5" customFormat="1" x14ac:dyDescent="0.35">
-      <c r="A27" s="15" t="s">
-        <v>38</v>
-      </c>
-      <c r="B27" s="37" t="s">
-        <v>39</v>
-      </c>
-      <c r="C27" s="37" t="s">
-        <v>40</v>
-      </c>
-      <c r="D27" s="15"/>
-      <c r="E27" s="21">
-        <v>0.73</v>
-      </c>
-      <c r="F27" s="15">
-        <v>2</v>
-      </c>
-      <c r="G27" s="8"/>
-    </row>
-    <row r="28" spans="1:7" s="3" customFormat="1" x14ac:dyDescent="0.35">
-      <c r="A28" s="13"/>
-      <c r="B28" s="14"/>
-      <c r="C28" s="14"/>
-      <c r="D28" s="13"/>
-      <c r="E28" s="20"/>
-      <c r="F28" s="13"/>
-      <c r="G28" s="6"/>
-    </row>
-    <row r="29" spans="1:7" s="4" customFormat="1" x14ac:dyDescent="0.35">
-      <c r="A29" s="11"/>
-      <c r="B29" s="12"/>
-      <c r="C29" s="12"/>
-      <c r="D29" s="11"/>
-      <c r="E29" s="19"/>
-      <c r="F29" s="11"/>
-      <c r="G29" s="7"/>
-    </row>
-    <row r="30" spans="1:7" s="3" customFormat="1" x14ac:dyDescent="0.35">
-      <c r="A30" s="13"/>
-      <c r="B30" s="14"/>
-      <c r="C30" s="14"/>
-      <c r="D30" s="13"/>
-      <c r="E30" s="20"/>
-      <c r="F30" s="13"/>
-      <c r="G30" s="6"/>
-    </row>
-    <row r="31" spans="1:7" s="4" customFormat="1" x14ac:dyDescent="0.35">
-      <c r="A31" s="11"/>
-      <c r="B31" s="12"/>
-      <c r="C31" s="12"/>
+      <c r="G29" s="11"/>
+      <c r="H29" s="7"/>
+    </row>
+    <row r="30" spans="1:8" s="3" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="A30" s="50" t="s">
+        <v>83</v>
+      </c>
+      <c r="B30" s="54" t="s">
+        <v>11</v>
+      </c>
+      <c r="C30" s="54" t="s">
+        <v>12</v>
+      </c>
+      <c r="D30" s="50"/>
+      <c r="E30" s="20">
+        <v>0.48</v>
+      </c>
+      <c r="F30" s="14">
+        <v>4</v>
+      </c>
+      <c r="G30" s="13"/>
+      <c r="H30" s="6"/>
+    </row>
+    <row r="31" spans="1:8" s="4" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="A31" s="11" t="s">
+        <v>84</v>
+      </c>
+      <c r="B31" s="12" t="s">
+        <v>86</v>
+      </c>
+      <c r="C31" s="12" t="s">
+        <v>85</v>
+      </c>
       <c r="D31" s="11"/>
-      <c r="E31" s="19"/>
-      <c r="F31" s="11"/>
-      <c r="G31" s="7"/>
-    </row>
-    <row r="32" spans="1:7" s="3" customFormat="1" x14ac:dyDescent="0.35">
-      <c r="A32" s="13"/>
-      <c r="B32" s="14"/>
-      <c r="C32" s="14"/>
+      <c r="E31" s="19">
+        <v>1.01</v>
+      </c>
+      <c r="F31" s="12">
+        <v>1</v>
+      </c>
+      <c r="G31" s="11"/>
+      <c r="H31" s="7"/>
+    </row>
+    <row r="32" spans="1:8" s="3" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A32" s="13" t="s">
+        <v>87</v>
+      </c>
+      <c r="B32" s="14" t="s">
+        <v>88</v>
+      </c>
+      <c r="C32" s="14" t="s">
+        <v>89</v>
+      </c>
       <c r="D32" s="13"/>
-      <c r="E32" s="20"/>
-      <c r="F32" s="13"/>
-      <c r="G32" s="6"/>
-    </row>
-    <row r="33" spans="1:7" s="4" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="E32" s="20">
+        <v>0.72</v>
+      </c>
+      <c r="F32" s="14">
+        <v>1</v>
+      </c>
+      <c r="G32" s="13"/>
+      <c r="H32" s="6"/>
+    </row>
+    <row r="33" spans="1:8" s="4" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A33" s="11"/>
       <c r="B33" s="12"/>
       <c r="C33" s="12"/>
       <c r="D33" s="11"/>
       <c r="E33" s="19"/>
-      <c r="F33" s="11"/>
-      <c r="G33" s="7"/>
-    </row>
-    <row r="34" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="E34" s="22"/>
+      <c r="F33" s="12"/>
+      <c r="G33" s="11"/>
+      <c r="H33" s="7"/>
+    </row>
+    <row r="34" spans="1:8" s="3" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A34" s="13"/>
+      <c r="B34" s="14"/>
+      <c r="C34" s="14"/>
+      <c r="D34" s="13"/>
+      <c r="E34" s="20"/>
+      <c r="F34" s="14"/>
+      <c r="G34" s="13"/>
+      <c r="H34" s="6"/>
+    </row>
+    <row r="35" spans="1:8" s="4" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="A35" s="11"/>
+      <c r="B35" s="12"/>
+      <c r="C35" s="12"/>
+      <c r="D35" s="11"/>
+      <c r="E35" s="19"/>
+      <c r="F35" s="12"/>
+      <c r="G35" s="11"/>
+      <c r="H35" s="7"/>
+    </row>
+    <row r="36" spans="1:8" s="3" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A36" s="13"/>
+      <c r="B36" s="14"/>
+      <c r="C36" s="14"/>
+      <c r="D36" s="13"/>
+      <c r="E36" s="20"/>
+      <c r="F36" s="14"/>
+      <c r="G36" s="13"/>
+      <c r="H36" s="6"/>
+    </row>
+    <row r="37" spans="1:8" s="4" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="A37" s="11"/>
+      <c r="B37" s="12"/>
+      <c r="C37" s="12"/>
+      <c r="D37" s="11"/>
+      <c r="E37" s="19"/>
+      <c r="F37" s="12"/>
+      <c r="G37" s="11"/>
+      <c r="H37" s="7"/>
+    </row>
+    <row r="38" spans="1:8" s="3" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A38" s="13"/>
+      <c r="B38" s="14"/>
+      <c r="C38" s="14"/>
+      <c r="D38" s="13"/>
+      <c r="E38" s="20"/>
+      <c r="F38" s="14"/>
+      <c r="G38" s="13"/>
+      <c r="H38" s="6"/>
+    </row>
+    <row r="39" spans="1:8" s="4" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="A39" s="11"/>
+      <c r="B39" s="12"/>
+      <c r="C39" s="12"/>
+      <c r="D39" s="11"/>
+      <c r="E39" s="19"/>
+      <c r="F39" s="12"/>
+      <c r="G39" s="11"/>
+      <c r="H39" s="7"/>
+    </row>
+    <row r="40" spans="1:8" s="3" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A40" s="13"/>
+      <c r="B40" s="14"/>
+      <c r="C40" s="14"/>
+      <c r="D40" s="13"/>
+      <c r="E40" s="20"/>
+      <c r="F40" s="14"/>
+      <c r="G40" s="13"/>
+      <c r="H40" s="6"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/Hardware/UniversalConverter/BOM.xlsx
+++ b/Hardware/UniversalConverter/BOM.xlsx
@@ -1,11 +1,11 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="24430"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="24527"/>
   <workbookPr filterPrivacy="1"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{62AEF512-F91B-4704-BE42-900844DF5C5D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2081E070-3B07-4F71-BED4-0939300B0E1F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="5540" windowWidth="17600" windowHeight="15460" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-8580" yWindow="3170" windowWidth="17600" windowHeight="15460" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="101" uniqueCount="90">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="119" uniqueCount="103">
   <si>
     <t>Link</t>
   </si>
@@ -290,6 +290,45 @@
   </si>
   <si>
     <t>CRYSTAL 32.7680KHZ 12.5PF SMD</t>
+  </si>
+  <si>
+    <t>EG5468CT-ND</t>
+  </si>
+  <si>
+    <t>E-Switch</t>
+  </si>
+  <si>
+    <t>SWITCH TACTILE SPST-NO 0.05A 12V</t>
+  </si>
+  <si>
+    <t>NHD-2.7-12864WDW3</t>
+  </si>
+  <si>
+    <t>LCD OLED GRAPHIC 128X64 WHT</t>
+  </si>
+  <si>
+    <t>Newhaven Display Intl</t>
+  </si>
+  <si>
+    <t>497-17515-ND</t>
+  </si>
+  <si>
+    <t>IC MCU 32BIT 128KB FLASH 48LQFP</t>
+  </si>
+  <si>
+    <t>111-0703-001</t>
+  </si>
+  <si>
+    <t>CONN BIND POST KNURLED BLACK</t>
+  </si>
+  <si>
+    <t>Cinch Connectivity</t>
+  </si>
+  <si>
+    <t>CONN BIND POST KNURLED RED</t>
+  </si>
+  <si>
+    <t>111-0702-001</t>
   </si>
 </sst>
 </file>
@@ -567,7 +606,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="63">
+  <cellXfs count="62">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="4" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -680,18 +719,12 @@
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1"/>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="8" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="6" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="8" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
@@ -710,20 +743,23 @@
     <xf numFmtId="164" fontId="0" fillId="3" borderId="3" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="164" fontId="0" fillId="2" borderId="15" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="16" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="15" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="15" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="16" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="164" fontId="0" fillId="2" borderId="15" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="16" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="15" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
+      <alignment horizontal="left" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="2">
@@ -1008,8 +1044,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:H40"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A16" workbookViewId="0">
-      <selection activeCell="G32" sqref="G32"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="D23" sqref="D23"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -1055,10 +1091,10 @@
       <c r="A2" s="30" t="s">
         <v>6</v>
       </c>
-      <c r="B2" s="31" t="s">
+      <c r="B2" s="59" t="s">
         <v>7</v>
       </c>
-      <c r="C2" s="31" t="s">
+      <c r="C2" s="59" t="s">
         <v>8</v>
       </c>
       <c r="D2" s="30"/>
@@ -1068,13 +1104,15 @@
       <c r="F2" s="31">
         <v>10</v>
       </c>
-      <c r="G2" s="30"/>
+      <c r="G2" s="30">
+        <v>10</v>
+      </c>
       <c r="H2" s="33" t="s">
         <v>9</v>
       </c>
     </row>
     <row r="3" spans="1:8" s="5" customFormat="1" x14ac:dyDescent="0.35">
-      <c r="A3" s="26" t="s">
+      <c r="A3" s="15" t="s">
         <v>10</v>
       </c>
       <c r="B3" s="28" t="s">
@@ -1090,11 +1128,13 @@
       <c r="F3" s="36">
         <v>4</v>
       </c>
-      <c r="G3" s="15"/>
+      <c r="G3" s="15">
+        <v>5</v>
+      </c>
       <c r="H3" s="35"/>
     </row>
     <row r="4" spans="1:8" s="25" customFormat="1" x14ac:dyDescent="0.35">
-      <c r="A4" s="27" t="s">
+      <c r="A4" s="22" t="s">
         <v>13</v>
       </c>
       <c r="B4" s="29" t="s">
@@ -1110,11 +1150,13 @@
       <c r="F4" s="37">
         <v>1</v>
       </c>
-      <c r="G4" s="22"/>
+      <c r="G4" s="22">
+        <v>3</v>
+      </c>
       <c r="H4" s="24"/>
     </row>
     <row r="5" spans="1:8" s="5" customFormat="1" x14ac:dyDescent="0.35">
-      <c r="A5" s="26" t="s">
+      <c r="A5" s="15" t="s">
         <v>16</v>
       </c>
       <c r="B5" s="28" t="s">
@@ -1130,11 +1172,13 @@
       <c r="F5" s="36">
         <v>10</v>
       </c>
-      <c r="G5" s="15"/>
+      <c r="G5" s="15">
+        <v>12</v>
+      </c>
       <c r="H5" s="8"/>
     </row>
     <row r="6" spans="1:8" s="25" customFormat="1" ht="14" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A6" s="27" t="s">
+      <c r="A6" s="22" t="s">
         <v>20</v>
       </c>
       <c r="B6" s="29"/>
@@ -1148,11 +1192,13 @@
       <c r="F6" s="37">
         <v>2</v>
       </c>
-      <c r="G6" s="22"/>
+      <c r="G6" s="22">
+        <v>3</v>
+      </c>
       <c r="H6" s="24"/>
     </row>
     <row r="7" spans="1:8" s="5" customFormat="1" x14ac:dyDescent="0.35">
-      <c r="A7" s="26" t="s">
+      <c r="A7" s="15" t="s">
         <v>21</v>
       </c>
       <c r="B7" s="28" t="s">
@@ -1168,11 +1214,13 @@
       <c r="F7" s="36">
         <v>1</v>
       </c>
-      <c r="G7" s="15"/>
+      <c r="G7" s="15">
+        <v>2</v>
+      </c>
       <c r="H7" s="8"/>
     </row>
     <row r="8" spans="1:8" s="25" customFormat="1" x14ac:dyDescent="0.35">
-      <c r="A8" s="27" t="s">
+      <c r="A8" s="22" t="s">
         <v>40</v>
       </c>
       <c r="B8" s="29" t="s">
@@ -1188,11 +1236,13 @@
       <c r="F8" s="37">
         <v>1</v>
       </c>
-      <c r="G8" s="22"/>
+      <c r="G8" s="22">
+        <v>10</v>
+      </c>
       <c r="H8" s="24"/>
     </row>
     <row r="9" spans="1:8" s="5" customFormat="1" x14ac:dyDescent="0.35">
-      <c r="A9" s="26" t="s">
+      <c r="A9" s="15" t="s">
         <v>43</v>
       </c>
       <c r="B9" s="28" t="s">
@@ -1208,11 +1258,13 @@
       <c r="F9" s="36">
         <v>1</v>
       </c>
-      <c r="G9" s="15"/>
+      <c r="G9" s="15">
+        <v>2</v>
+      </c>
       <c r="H9" s="8"/>
     </row>
     <row r="10" spans="1:8" s="25" customFormat="1" x14ac:dyDescent="0.35">
-      <c r="A10" s="27" t="s">
+      <c r="A10" s="22" t="s">
         <v>47</v>
       </c>
       <c r="B10" s="29" t="s">
@@ -1228,11 +1280,13 @@
       <c r="F10" s="37">
         <v>1</v>
       </c>
-      <c r="G10" s="22"/>
+      <c r="G10" s="22">
+        <v>2</v>
+      </c>
       <c r="H10" s="24"/>
     </row>
     <row r="11" spans="1:8" s="5" customFormat="1" x14ac:dyDescent="0.35">
-      <c r="A11" s="26" t="s">
+      <c r="A11" s="15" t="s">
         <v>48</v>
       </c>
       <c r="B11" s="28" t="s">
@@ -1248,11 +1302,13 @@
       <c r="F11" s="36">
         <v>20</v>
       </c>
-      <c r="G11" s="15"/>
+      <c r="G11" s="15">
+        <v>32</v>
+      </c>
       <c r="H11" s="8"/>
     </row>
     <row r="12" spans="1:8" s="25" customFormat="1" x14ac:dyDescent="0.35">
-      <c r="A12" s="27" t="s">
+      <c r="A12" s="22" t="s">
         <v>52</v>
       </c>
       <c r="B12" s="29" t="s">
@@ -1268,11 +1324,13 @@
       <c r="F12" s="37">
         <v>1</v>
       </c>
-      <c r="G12" s="22"/>
+      <c r="G12" s="22">
+        <v>5</v>
+      </c>
       <c r="H12" s="24"/>
     </row>
     <row r="13" spans="1:8" s="5" customFormat="1" x14ac:dyDescent="0.35">
-      <c r="A13" s="26" t="s">
+      <c r="A13" s="15" t="s">
         <v>53</v>
       </c>
       <c r="B13" s="28" t="s">
@@ -1286,13 +1344,15 @@
         <v>4.6100000000000003</v>
       </c>
       <c r="F13" s="36">
-        <v>2</v>
-      </c>
-      <c r="G13" s="15"/>
+        <v>3</v>
+      </c>
+      <c r="G13" s="15">
+        <v>3</v>
+      </c>
       <c r="H13" s="8"/>
     </row>
     <row r="14" spans="1:8" s="25" customFormat="1" x14ac:dyDescent="0.35">
-      <c r="A14" s="27" t="s">
+      <c r="A14" s="22" t="s">
         <v>56</v>
       </c>
       <c r="B14" s="29" t="s">
@@ -1308,11 +1368,13 @@
       <c r="F14" s="37">
         <v>3</v>
       </c>
-      <c r="G14" s="22"/>
+      <c r="G14" s="22">
+        <v>6</v>
+      </c>
       <c r="H14" s="24"/>
     </row>
     <row r="15" spans="1:8" s="5" customFormat="1" x14ac:dyDescent="0.35">
-      <c r="A15" s="26" t="s">
+      <c r="A15" s="15" t="s">
         <v>58</v>
       </c>
       <c r="B15" s="28" t="s">
@@ -1328,11 +1390,13 @@
       <c r="F15" s="36">
         <v>2</v>
       </c>
-      <c r="G15" s="15"/>
+      <c r="G15" s="15">
+        <v>3</v>
+      </c>
       <c r="H15" s="8"/>
     </row>
     <row r="16" spans="1:8" s="25" customFormat="1" x14ac:dyDescent="0.35">
-      <c r="A16" s="27" t="s">
+      <c r="A16" s="22" t="s">
         <v>60</v>
       </c>
       <c r="B16" s="29" t="s">
@@ -1348,14 +1412,16 @@
       <c r="F16" s="37">
         <v>2</v>
       </c>
-      <c r="G16" s="22"/>
+      <c r="G16" s="22">
+        <v>5</v>
+      </c>
       <c r="H16" s="24"/>
     </row>
     <row r="17" spans="1:8" s="5" customFormat="1" x14ac:dyDescent="0.35">
-      <c r="A17" s="26" t="s">
+      <c r="A17" s="15" t="s">
         <v>64</v>
       </c>
-      <c r="B17" s="36" t="s">
+      <c r="B17" s="28" t="s">
         <v>50</v>
       </c>
       <c r="C17" s="28" t="s">
@@ -1368,11 +1434,13 @@
       <c r="F17" s="36">
         <v>8</v>
       </c>
-      <c r="G17" s="15"/>
+      <c r="G17" s="15">
+        <v>10</v>
+      </c>
       <c r="H17" s="8"/>
     </row>
     <row r="18" spans="1:8" s="39" customFormat="1" x14ac:dyDescent="0.35">
-      <c r="A18" s="27" t="s">
+      <c r="A18" s="22" t="s">
         <v>24</v>
       </c>
       <c r="B18" s="29" t="s">
@@ -1388,11 +1456,13 @@
       <c r="F18" s="37">
         <v>2</v>
       </c>
-      <c r="G18" s="27"/>
+      <c r="G18" s="22">
+        <v>2</v>
+      </c>
       <c r="H18" s="38"/>
     </row>
     <row r="19" spans="1:8" s="41" customFormat="1" x14ac:dyDescent="0.35">
-      <c r="A19" s="26" t="s">
+      <c r="A19" s="15" t="s">
         <v>27</v>
       </c>
       <c r="B19" s="28" t="s">
@@ -1408,11 +1478,13 @@
       <c r="F19" s="36">
         <v>2</v>
       </c>
-      <c r="G19" s="26"/>
+      <c r="G19" s="15">
+        <v>2</v>
+      </c>
       <c r="H19" s="40"/>
     </row>
     <row r="20" spans="1:8" s="39" customFormat="1" x14ac:dyDescent="0.35">
-      <c r="A20" s="27" t="s">
+      <c r="A20" s="22" t="s">
         <v>31</v>
       </c>
       <c r="B20" s="29" t="s">
@@ -1428,11 +1500,13 @@
       <c r="F20" s="37">
         <v>2</v>
       </c>
-      <c r="G20" s="27"/>
+      <c r="G20" s="22">
+        <v>2</v>
+      </c>
       <c r="H20" s="38"/>
     </row>
     <row r="21" spans="1:8" s="41" customFormat="1" x14ac:dyDescent="0.35">
-      <c r="A21" s="26" t="s">
+      <c r="A21" s="15" t="s">
         <v>32</v>
       </c>
       <c r="B21" s="28" t="s">
@@ -1448,11 +1522,13 @@
       <c r="F21" s="36">
         <v>2</v>
       </c>
-      <c r="G21" s="26"/>
+      <c r="G21" s="15">
+        <v>2</v>
+      </c>
       <c r="H21" s="40"/>
     </row>
     <row r="22" spans="1:8" s="39" customFormat="1" x14ac:dyDescent="0.35">
-      <c r="A22" s="27" t="s">
+      <c r="A22" s="22" t="s">
         <v>35</v>
       </c>
       <c r="B22" s="29" t="s">
@@ -1468,11 +1544,13 @@
       <c r="F22" s="37">
         <v>2</v>
       </c>
-      <c r="G22" s="27"/>
+      <c r="G22" s="22">
+        <v>2</v>
+      </c>
       <c r="H22" s="38"/>
     </row>
     <row r="23" spans="1:8" s="41" customFormat="1" x14ac:dyDescent="0.35">
-      <c r="A23" s="26" t="s">
+      <c r="A23" s="15" t="s">
         <v>37</v>
       </c>
       <c r="B23" s="28" t="s">
@@ -1488,40 +1566,42 @@
       <c r="F23" s="36">
         <v>2</v>
       </c>
-      <c r="G23" s="26"/>
+      <c r="G23" s="15">
+        <v>2</v>
+      </c>
       <c r="H23" s="40"/>
     </row>
     <row r="24" spans="1:8" s="44" customFormat="1" ht="19.5" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A24" s="58" t="s">
+      <c r="A24" s="60" t="s">
         <v>65</v>
       </c>
-      <c r="B24" s="59" t="s">
+      <c r="B24" s="61" t="s">
         <v>66</v>
       </c>
-      <c r="C24" s="59" t="s">
+      <c r="C24" s="61" t="s">
         <v>67</v>
       </c>
-      <c r="D24" s="50"/>
-      <c r="E24" s="60">
+      <c r="D24" s="49"/>
+      <c r="E24" s="56">
         <v>0.41</v>
       </c>
-      <c r="F24" s="61">
+      <c r="F24" s="57">
         <v>4</v>
       </c>
-      <c r="G24" s="62"/>
+      <c r="G24" s="58"/>
     </row>
     <row r="25" spans="1:8" s="47" customFormat="1" x14ac:dyDescent="0.35">
-      <c r="A25" s="51" t="s">
+      <c r="A25" s="45" t="s">
         <v>70</v>
       </c>
-      <c r="B25" s="52" t="s">
+      <c r="B25" s="50" t="s">
         <v>72</v>
       </c>
-      <c r="C25" s="52" t="s">
+      <c r="C25" s="50" t="s">
         <v>71</v>
       </c>
-      <c r="D25" s="53"/>
-      <c r="E25" s="57">
+      <c r="D25" s="51"/>
+      <c r="E25" s="55">
         <v>0.45</v>
       </c>
       <c r="F25" s="46">
@@ -1530,17 +1610,17 @@
       <c r="G25" s="45"/>
     </row>
     <row r="26" spans="1:8" s="44" customFormat="1" x14ac:dyDescent="0.35">
-      <c r="A26" s="48" t="s">
+      <c r="A26" s="42" t="s">
         <v>73</v>
       </c>
-      <c r="B26" s="49" t="s">
+      <c r="B26" s="48" t="s">
         <v>74</v>
       </c>
-      <c r="C26" s="49" t="s">
+      <c r="C26" s="48" t="s">
         <v>75</v>
       </c>
-      <c r="D26" s="50"/>
-      <c r="E26" s="56">
+      <c r="D26" s="49"/>
+      <c r="E26" s="54">
         <v>0.94</v>
       </c>
       <c r="F26" s="43">
@@ -1549,17 +1629,17 @@
       <c r="G26" s="42"/>
     </row>
     <row r="27" spans="1:8" s="47" customFormat="1" x14ac:dyDescent="0.35">
-      <c r="A27" s="51" t="s">
+      <c r="A27" s="45" t="s">
         <v>76</v>
       </c>
-      <c r="B27" s="52" t="s">
+      <c r="B27" s="50" t="s">
         <v>41</v>
       </c>
-      <c r="C27" s="52" t="s">
+      <c r="C27" s="50" t="s">
         <v>77</v>
       </c>
-      <c r="D27" s="53"/>
-      <c r="E27" s="57">
+      <c r="D27" s="51"/>
+      <c r="E27" s="55">
         <v>8.3000000000000007</v>
       </c>
       <c r="F27" s="46">
@@ -1568,16 +1648,16 @@
       <c r="G27" s="45"/>
     </row>
     <row r="28" spans="1:8" s="3" customFormat="1" x14ac:dyDescent="0.35">
-      <c r="A28" s="50" t="s">
+      <c r="A28" s="13" t="s">
         <v>78</v>
       </c>
-      <c r="B28" s="54" t="s">
+      <c r="B28" s="52" t="s">
         <v>26</v>
       </c>
-      <c r="C28" s="54" t="s">
+      <c r="C28" s="52" t="s">
         <v>79</v>
       </c>
-      <c r="D28" s="50"/>
+      <c r="D28" s="49"/>
       <c r="E28" s="20">
         <v>1.31</v>
       </c>
@@ -1588,16 +1668,16 @@
       <c r="H28" s="6"/>
     </row>
     <row r="29" spans="1:8" s="4" customFormat="1" x14ac:dyDescent="0.35">
-      <c r="A29" s="53" t="s">
+      <c r="A29" s="11" t="s">
         <v>80</v>
       </c>
-      <c r="B29" s="55" t="s">
+      <c r="B29" s="53" t="s">
         <v>81</v>
       </c>
-      <c r="C29" s="55" t="s">
+      <c r="C29" s="53" t="s">
         <v>82</v>
       </c>
-      <c r="D29" s="53"/>
+      <c r="D29" s="51"/>
       <c r="E29" s="19">
         <v>0.63</v>
       </c>
@@ -1608,16 +1688,16 @@
       <c r="H29" s="7"/>
     </row>
     <row r="30" spans="1:8" s="3" customFormat="1" x14ac:dyDescent="0.35">
-      <c r="A30" s="50" t="s">
+      <c r="A30" s="13" t="s">
         <v>83</v>
       </c>
-      <c r="B30" s="54" t="s">
+      <c r="B30" s="52" t="s">
         <v>11</v>
       </c>
-      <c r="C30" s="54" t="s">
+      <c r="C30" s="52" t="s">
         <v>12</v>
       </c>
-      <c r="D30" s="50"/>
+      <c r="D30" s="49"/>
       <c r="E30" s="20">
         <v>0.48</v>
       </c>
@@ -1631,10 +1711,10 @@
       <c r="A31" s="11" t="s">
         <v>84</v>
       </c>
-      <c r="B31" s="12" t="s">
+      <c r="B31" s="53" t="s">
         <v>86</v>
       </c>
-      <c r="C31" s="12" t="s">
+      <c r="C31" s="53" t="s">
         <v>85</v>
       </c>
       <c r="D31" s="11"/>
@@ -1651,10 +1731,10 @@
       <c r="A32" s="13" t="s">
         <v>87</v>
       </c>
-      <c r="B32" s="14" t="s">
+      <c r="B32" s="52" t="s">
         <v>88</v>
       </c>
-      <c r="C32" s="14" t="s">
+      <c r="C32" s="52" t="s">
         <v>89</v>
       </c>
       <c r="D32" s="13"/>
@@ -1668,62 +1748,124 @@
       <c r="H32" s="6"/>
     </row>
     <row r="33" spans="1:8" s="4" customFormat="1" x14ac:dyDescent="0.35">
-      <c r="A33" s="11"/>
-      <c r="B33" s="12"/>
-      <c r="C33" s="12"/>
+      <c r="A33" s="11" t="s">
+        <v>90</v>
+      </c>
+      <c r="B33" s="12" t="s">
+        <v>91</v>
+      </c>
+      <c r="C33" s="12" t="s">
+        <v>92</v>
+      </c>
       <c r="D33" s="11"/>
-      <c r="E33" s="19"/>
-      <c r="F33" s="12"/>
+      <c r="E33" s="19">
+        <v>0.46</v>
+      </c>
+      <c r="F33" s="12">
+        <v>4</v>
+      </c>
       <c r="G33" s="11"/>
       <c r="H33" s="7"/>
     </row>
     <row r="34" spans="1:8" s="3" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A34" s="13"/>
-      <c r="B34" s="14"/>
-      <c r="C34" s="14"/>
+      <c r="A34" s="13" t="s">
+        <v>93</v>
+      </c>
+      <c r="B34" s="14" t="s">
+        <v>95</v>
+      </c>
+      <c r="C34" s="14" t="s">
+        <v>94</v>
+      </c>
       <c r="D34" s="13"/>
-      <c r="E34" s="20"/>
-      <c r="F34" s="14"/>
+      <c r="E34" s="20">
+        <v>42.58</v>
+      </c>
+      <c r="F34" s="14">
+        <v>1</v>
+      </c>
       <c r="G34" s="13"/>
       <c r="H34" s="6"/>
     </row>
     <row r="35" spans="1:8" s="4" customFormat="1" x14ac:dyDescent="0.35">
-      <c r="A35" s="11"/>
-      <c r="B35" s="12"/>
-      <c r="C35" s="12"/>
+      <c r="A35" s="11" t="s">
+        <v>76</v>
+      </c>
+      <c r="B35" s="12" t="s">
+        <v>41</v>
+      </c>
+      <c r="C35" s="12" t="s">
+        <v>77</v>
+      </c>
       <c r="D35" s="11"/>
-      <c r="E35" s="19"/>
-      <c r="F35" s="12"/>
+      <c r="E35" s="19">
+        <v>8.3000000000000007</v>
+      </c>
+      <c r="F35" s="12">
+        <v>1</v>
+      </c>
       <c r="G35" s="11"/>
       <c r="H35" s="7"/>
     </row>
     <row r="36" spans="1:8" s="3" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A36" s="13"/>
-      <c r="B36" s="14"/>
-      <c r="C36" s="14"/>
+      <c r="A36" s="13" t="s">
+        <v>96</v>
+      </c>
+      <c r="B36" s="14" t="s">
+        <v>81</v>
+      </c>
+      <c r="C36" s="14" t="s">
+        <v>97</v>
+      </c>
       <c r="D36" s="13"/>
-      <c r="E36" s="20"/>
-      <c r="F36" s="14"/>
-      <c r="G36" s="13"/>
+      <c r="E36" s="20">
+        <v>6.32</v>
+      </c>
+      <c r="F36" s="14">
+        <v>1</v>
+      </c>
+      <c r="G36" s="13">
+        <v>4</v>
+      </c>
       <c r="H36" s="6"/>
     </row>
     <row r="37" spans="1:8" s="4" customFormat="1" x14ac:dyDescent="0.35">
-      <c r="A37" s="11"/>
-      <c r="B37" s="12"/>
-      <c r="C37" s="12"/>
+      <c r="A37" s="11" t="s">
+        <v>98</v>
+      </c>
+      <c r="B37" s="12" t="s">
+        <v>100</v>
+      </c>
+      <c r="C37" s="12" t="s">
+        <v>99</v>
+      </c>
       <c r="D37" s="11"/>
-      <c r="E37" s="19"/>
-      <c r="F37" s="12"/>
+      <c r="E37" s="19">
+        <v>3.09</v>
+      </c>
+      <c r="F37" s="12">
+        <v>3</v>
+      </c>
       <c r="G37" s="11"/>
       <c r="H37" s="7"/>
     </row>
     <row r="38" spans="1:8" s="3" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A38" s="13"/>
-      <c r="B38" s="14"/>
-      <c r="C38" s="14"/>
+      <c r="A38" s="13" t="s">
+        <v>102</v>
+      </c>
+      <c r="B38" s="14" t="s">
+        <v>100</v>
+      </c>
+      <c r="C38" s="14" t="s">
+        <v>101</v>
+      </c>
       <c r="D38" s="13"/>
-      <c r="E38" s="20"/>
-      <c r="F38" s="14"/>
+      <c r="E38" s="20">
+        <v>3.09</v>
+      </c>
+      <c r="F38" s="14">
+        <v>3</v>
+      </c>
       <c r="G38" s="13"/>
       <c r="H38" s="6"/>
     </row>

--- a/Hardware/UniversalConverter/BOM.xlsx
+++ b/Hardware/UniversalConverter/BOM.xlsx
@@ -3,9 +3,9 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="24527"/>
   <workbookPr filterPrivacy="1"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2081E070-3B07-4F71-BED4-0939300B0E1F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{293E6E7F-718D-41E6-86CF-79A40E295E35}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-8580" yWindow="3170" windowWidth="17600" windowHeight="15460" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-1960" yWindow="580" windowWidth="21550" windowHeight="18260" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="119" uniqueCount="103">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="137" uniqueCount="118">
   <si>
     <t>Link</t>
   </si>
@@ -226,9 +226,6 @@
     <t>SWITCH TACTILE SPST-NO 0.05A 24V</t>
   </si>
   <si>
-    <t>NEED</t>
-  </si>
-  <si>
     <t>STOCK</t>
   </si>
   <si>
@@ -329,6 +326,54 @@
   </si>
   <si>
     <t>111-0702-001</t>
+  </si>
+  <si>
+    <t>per board</t>
+  </si>
+  <si>
+    <t>541-0.0GCT-ND</t>
+  </si>
+  <si>
+    <t>RES SMD 0 OHM JUMPER 1/10W 0603</t>
+  </si>
+  <si>
+    <t>RMCF0603FT10K0CT-ND</t>
+  </si>
+  <si>
+    <t>RES 10K OHM 1% 1/10W 0603</t>
+  </si>
+  <si>
+    <t>Stackpole Electronics Inc</t>
+  </si>
+  <si>
+    <t>P200KGCT-ND</t>
+  </si>
+  <si>
+    <t>RES SMD 200K OHM 5% 1/10W 0603</t>
+  </si>
+  <si>
+    <t>445-5663-1-ND</t>
+  </si>
+  <si>
+    <t>TDK Corporation</t>
+  </si>
+  <si>
+    <t>CAP CER 0.022UF 50V X7R 0603</t>
+  </si>
+  <si>
+    <t>1276-CL10B104KB8NNNLCT-ND</t>
+  </si>
+  <si>
+    <t>Samsung Electro-Mechanics</t>
+  </si>
+  <si>
+    <t>CAP CER 0.1UF 50V X7R 0603</t>
+  </si>
+  <si>
+    <t>13-RE0603FRE071KLCT-ND</t>
+  </si>
+  <si>
+    <t>RES SMD 1K OHM 1% 1/10W 0603</t>
   </si>
 </sst>
 </file>
@@ -338,7 +383,7 @@
   <numFmts count="1">
     <numFmt numFmtId="164" formatCode="&quot;$&quot;#,##0.00"/>
   </numFmts>
-  <fonts count="3" x14ac:knownFonts="1">
+  <fonts count="4" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -358,6 +403,12 @@
       <u/>
       <sz val="11"/>
       <color theme="10"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="8"/>
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
@@ -389,7 +440,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="17">
+  <borders count="11">
     <border>
       <left/>
       <right/>
@@ -404,19 +455,6 @@
       <right style="medium">
         <color indexed="64"/>
       </right>
-      <top style="medium">
-        <color indexed="64"/>
-      </top>
-      <bottom style="medium">
-        <color indexed="64"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="medium">
-        <color indexed="64"/>
-      </left>
-      <right/>
       <top style="medium">
         <color indexed="64"/>
       </top>
@@ -480,28 +518,6 @@
       <diagonal/>
     </border>
     <border>
-      <left style="medium">
-        <color indexed="64"/>
-      </left>
-      <right/>
-      <top style="thin">
-        <color indexed="64"/>
-      </top>
-      <bottom style="thin">
-        <color indexed="64"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="medium">
-        <color indexed="64"/>
-      </left>
-      <right/>
-      <top/>
-      <bottom/>
-      <diagonal/>
-    </border>
-    <border>
       <left/>
       <right style="thin">
         <color indexed="64"/>
@@ -519,17 +535,6 @@
       <right style="medium">
         <color indexed="64"/>
       </right>
-      <top/>
-      <bottom style="thin">
-        <color indexed="64"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="medium">
-        <color indexed="64"/>
-      </left>
-      <right/>
       <top/>
       <bottom style="thin">
         <color indexed="64"/>
@@ -577,190 +582,102 @@
       </bottom>
       <diagonal/>
     </border>
-    <border>
-      <left style="medium">
-        <color indexed="64"/>
-      </left>
-      <right style="medium">
-        <color indexed="64"/>
-      </right>
-      <top style="thin">
-        <color indexed="64"/>
-      </top>
-      <bottom/>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="medium">
-        <color indexed="64"/>
-      </left>
-      <right/>
-      <top style="thin">
-        <color indexed="64"/>
-      </top>
-      <bottom/>
-      <diagonal/>
-    </border>
   </borders>
   <cellStyleXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="62">
+  <cellXfs count="44">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="1" fillId="4" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
     <xf numFmtId="0" fontId="1" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="3" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="3" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="4" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="4" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="5" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="5" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="1" fillId="4" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="6" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="5" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="7" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="5" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="6" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="7" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="164" fontId="0" fillId="3" borderId="5" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="164" fontId="0" fillId="2" borderId="5" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="164" fontId="0" fillId="3" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="164" fontId="0" fillId="3" borderId="6" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="164" fontId="0" fillId="2" borderId="6" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="164" fontId="0" fillId="2" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="164" fontId="0" fillId="3" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="164" fontId="0" fillId="2" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="164" fontId="0" fillId="2" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="5" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="5" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="164" fontId="0" fillId="2" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="9" xfId="1" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="5" xfId="1" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="8" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="8" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1"/>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="8" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="6" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="8" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="6" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="7" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="7" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="164" fontId="0" fillId="2" borderId="3" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="164" fontId="0" fillId="3" borderId="3" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="164" fontId="0" fillId="2" borderId="15" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="16" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="15" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="15" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="16" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="5" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="7" xfId="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="5" xfId="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="5" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="5" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Hyperlink" xfId="1" builtinId="8"/>
@@ -1042,27 +959,25 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:H40"/>
+  <dimension ref="A1:I241"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D23" sqref="D23"/>
+      <selection activeCell="D29" sqref="D29"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
-    <col min="1" max="1" width="29.90625" style="16" customWidth="1"/>
-    <col min="2" max="2" width="29.90625" style="17" customWidth="1"/>
-    <col min="3" max="3" width="37.81640625" style="17" customWidth="1"/>
-    <col min="4" max="4" width="10.36328125" style="18" customWidth="1"/>
-    <col min="5" max="5" width="12.54296875" style="16" customWidth="1"/>
-    <col min="6" max="6" width="10.36328125" style="17" customWidth="1"/>
-    <col min="7" max="7" width="10.36328125" style="16" customWidth="1"/>
-    <col min="8" max="8" width="103.81640625" customWidth="1"/>
+    <col min="1" max="2" width="29.90625" style="12" customWidth="1"/>
+    <col min="3" max="3" width="37.81640625" style="12" customWidth="1"/>
+    <col min="4" max="4" width="10.36328125" style="13" customWidth="1"/>
+    <col min="5" max="5" width="12.54296875" style="12" customWidth="1"/>
+    <col min="6" max="7" width="10.36328125" style="12" customWidth="1"/>
+    <col min="8" max="8" width="103.81640625" style="43" customWidth="1"/>
     <col min="9" max="9" width="9.6328125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:8" s="10" customFormat="1" ht="15" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A1" s="2" t="s">
+    <row r="1" spans="1:9" s="8" customFormat="1" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="A1" s="1" t="s">
         <v>1</v>
       </c>
       <c r="B1" s="1" t="s">
@@ -1071,825 +986,3141 @@
       <c r="C1" s="1" t="s">
         <v>2</v>
       </c>
-      <c r="D1" s="2" t="s">
+      <c r="D1" s="1" t="s">
         <v>3</v>
       </c>
-      <c r="E1" s="2" t="s">
+      <c r="E1" s="1" t="s">
         <v>4</v>
       </c>
       <c r="F1" s="1" t="s">
+        <v>102</v>
+      </c>
+      <c r="G1" s="1" t="s">
         <v>68</v>
       </c>
-      <c r="G1" s="2" t="s">
-        <v>69</v>
-      </c>
-      <c r="H1" s="9" t="s">
+      <c r="H1" s="36" t="s">
         <v>0</v>
       </c>
-    </row>
-    <row r="2" spans="1:8" s="34" customFormat="1" x14ac:dyDescent="0.35">
-      <c r="A2" s="30" t="s">
+      <c r="I1" s="34"/>
+    </row>
+    <row r="2" spans="1:9" s="25" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="A2" s="32" t="s">
         <v>6</v>
       </c>
-      <c r="B2" s="59" t="s">
+      <c r="B2" s="32" t="s">
         <v>7</v>
       </c>
-      <c r="C2" s="59" t="s">
+      <c r="C2" s="32" t="s">
         <v>8</v>
       </c>
-      <c r="D2" s="30"/>
-      <c r="E2" s="32">
+      <c r="D2" s="32"/>
+      <c r="E2" s="24">
         <v>1.26</v>
       </c>
-      <c r="F2" s="31">
+      <c r="F2" s="23">
+        <v>11</v>
+      </c>
+      <c r="G2" s="23">
         <v>10</v>
       </c>
-      <c r="G2" s="30">
+      <c r="H2" s="37" t="s">
+        <v>9</v>
+      </c>
+      <c r="I2" s="35"/>
+    </row>
+    <row r="3" spans="1:9" s="4" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="A3" s="21" t="s">
         <v>10</v>
       </c>
-      <c r="H2" s="33" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="3" spans="1:8" s="5" customFormat="1" x14ac:dyDescent="0.35">
-      <c r="A3" s="15" t="s">
-        <v>10</v>
-      </c>
-      <c r="B3" s="28" t="s">
+      <c r="B3" s="21" t="s">
         <v>11</v>
       </c>
-      <c r="C3" s="28" t="s">
+      <c r="C3" s="21" t="s">
         <v>12</v>
       </c>
-      <c r="D3" s="26"/>
-      <c r="E3" s="21">
+      <c r="D3" s="21"/>
+      <c r="E3" s="16">
         <v>0.48</v>
       </c>
-      <c r="F3" s="36">
+      <c r="F3" s="11">
         <v>4</v>
       </c>
-      <c r="G3" s="15">
+      <c r="G3" s="11">
         <v>5</v>
       </c>
-      <c r="H3" s="35"/>
-    </row>
-    <row r="4" spans="1:8" s="25" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="H3" s="38"/>
+      <c r="I3" s="7"/>
+    </row>
+    <row r="4" spans="1:9" s="20" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A4" s="22" t="s">
         <v>13</v>
       </c>
-      <c r="B4" s="29" t="s">
+      <c r="B4" s="22" t="s">
         <v>15</v>
       </c>
-      <c r="C4" s="29" t="s">
+      <c r="C4" s="22" t="s">
         <v>14</v>
       </c>
-      <c r="D4" s="27"/>
-      <c r="E4" s="23">
+      <c r="D4" s="22"/>
+      <c r="E4" s="18">
         <v>11.53</v>
       </c>
-      <c r="F4" s="37">
-        <v>1</v>
-      </c>
-      <c r="G4" s="22">
+      <c r="F4" s="17">
+        <v>2</v>
+      </c>
+      <c r="G4" s="17">
         <v>3</v>
       </c>
-      <c r="H4" s="24"/>
-    </row>
-    <row r="5" spans="1:8" s="5" customFormat="1" x14ac:dyDescent="0.35">
-      <c r="A5" s="15" t="s">
+      <c r="H4" s="39"/>
+      <c r="I4" s="19"/>
+    </row>
+    <row r="5" spans="1:9" s="4" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="A5" s="21" t="s">
         <v>16</v>
       </c>
-      <c r="B5" s="28" t="s">
+      <c r="B5" s="21" t="s">
         <v>17</v>
       </c>
-      <c r="C5" s="28" t="s">
+      <c r="C5" s="21" t="s">
         <v>18</v>
       </c>
-      <c r="D5" s="26"/>
-      <c r="E5" s="21">
+      <c r="D5" s="21"/>
+      <c r="E5" s="16">
         <v>1.08</v>
       </c>
-      <c r="F5" s="36">
-        <v>10</v>
-      </c>
-      <c r="G5" s="15">
+      <c r="F5" s="11">
+        <v>30</v>
+      </c>
+      <c r="G5" s="11">
         <v>12</v>
       </c>
-      <c r="H5" s="8"/>
-    </row>
-    <row r="6" spans="1:8" s="25" customFormat="1" ht="14" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="H5" s="40"/>
+      <c r="I5" s="7"/>
+    </row>
+    <row r="6" spans="1:9" s="20" customFormat="1" ht="14" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A6" s="22" t="s">
         <v>20</v>
       </c>
-      <c r="B6" s="29"/>
-      <c r="C6" s="29" t="s">
+      <c r="B6" s="22"/>
+      <c r="C6" s="22" t="s">
         <v>19</v>
       </c>
-      <c r="D6" s="27"/>
-      <c r="E6" s="23">
+      <c r="D6" s="22"/>
+      <c r="E6" s="18">
         <v>0.38</v>
       </c>
-      <c r="F6" s="37">
+      <c r="F6" s="17">
+        <v>4</v>
+      </c>
+      <c r="G6" s="17">
+        <v>3</v>
+      </c>
+      <c r="H6" s="39"/>
+      <c r="I6" s="19"/>
+    </row>
+    <row r="7" spans="1:9" s="4" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="A7" s="21" t="s">
+        <v>21</v>
+      </c>
+      <c r="B7" s="21" t="s">
+        <v>22</v>
+      </c>
+      <c r="C7" s="21" t="s">
+        <v>23</v>
+      </c>
+      <c r="D7" s="21"/>
+      <c r="E7" s="16">
+        <v>5.53</v>
+      </c>
+      <c r="F7" s="11">
         <v>2</v>
       </c>
-      <c r="G6" s="22">
-        <v>3</v>
-      </c>
-      <c r="H6" s="24"/>
-    </row>
-    <row r="7" spans="1:8" s="5" customFormat="1" x14ac:dyDescent="0.35">
-      <c r="A7" s="15" t="s">
-        <v>21</v>
-      </c>
-      <c r="B7" s="28" t="s">
-        <v>22</v>
-      </c>
-      <c r="C7" s="28" t="s">
-        <v>23</v>
-      </c>
-      <c r="D7" s="26"/>
-      <c r="E7" s="21">
-        <v>5.53</v>
-      </c>
-      <c r="F7" s="36">
-        <v>1</v>
-      </c>
-      <c r="G7" s="15">
+      <c r="G7" s="11">
         <v>2</v>
       </c>
-      <c r="H7" s="8"/>
-    </row>
-    <row r="8" spans="1:8" s="25" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="H7" s="40"/>
+      <c r="I7" s="7"/>
+    </row>
+    <row r="8" spans="1:9" s="20" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A8" s="22" t="s">
         <v>40</v>
       </c>
-      <c r="B8" s="29" t="s">
+      <c r="B8" s="22" t="s">
         <v>41</v>
       </c>
-      <c r="C8" s="29" t="s">
+      <c r="C8" s="22" t="s">
         <v>42</v>
       </c>
-      <c r="D8" s="27"/>
-      <c r="E8" s="23">
+      <c r="D8" s="22"/>
+      <c r="E8" s="18">
         <v>4.8899999999999997</v>
       </c>
-      <c r="F8" s="37">
+      <c r="F8" s="17">
         <v>1</v>
       </c>
-      <c r="G8" s="22">
+      <c r="G8" s="17">
         <v>10</v>
       </c>
-      <c r="H8" s="24"/>
-    </row>
-    <row r="9" spans="1:8" s="5" customFormat="1" x14ac:dyDescent="0.35">
-      <c r="A9" s="15" t="s">
+      <c r="H8" s="39"/>
+      <c r="I8" s="19"/>
+    </row>
+    <row r="9" spans="1:9" s="4" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="A9" s="21" t="s">
         <v>43</v>
       </c>
-      <c r="B9" s="28" t="s">
+      <c r="B9" s="21" t="s">
         <v>44</v>
       </c>
-      <c r="C9" s="28" t="s">
+      <c r="C9" s="21" t="s">
         <v>45</v>
       </c>
-      <c r="D9" s="26"/>
-      <c r="E9" s="21">
+      <c r="D9" s="21"/>
+      <c r="E9" s="16">
         <v>0.91</v>
       </c>
-      <c r="F9" s="36">
+      <c r="F9" s="11">
         <v>1</v>
       </c>
-      <c r="G9" s="15">
+      <c r="G9" s="11">
         <v>2</v>
       </c>
-      <c r="H9" s="8"/>
-    </row>
-    <row r="10" spans="1:8" s="25" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="H9" s="40"/>
+      <c r="I9" s="7"/>
+    </row>
+    <row r="10" spans="1:9" s="20" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A10" s="22" t="s">
         <v>47</v>
       </c>
-      <c r="B10" s="29" t="s">
+      <c r="B10" s="22" t="s">
         <v>22</v>
       </c>
-      <c r="C10" s="29" t="s">
+      <c r="C10" s="22" t="s">
         <v>46</v>
       </c>
-      <c r="D10" s="27"/>
-      <c r="E10" s="23">
+      <c r="D10" s="22"/>
+      <c r="E10" s="18">
         <v>2.19</v>
       </c>
-      <c r="F10" s="37">
+      <c r="F10" s="17">
         <v>1</v>
       </c>
-      <c r="G10" s="22">
+      <c r="G10" s="17">
         <v>2</v>
       </c>
-      <c r="H10" s="24"/>
-    </row>
-    <row r="11" spans="1:8" s="5" customFormat="1" x14ac:dyDescent="0.35">
-      <c r="A11" s="15" t="s">
+      <c r="H10" s="39"/>
+      <c r="I10" s="19"/>
+    </row>
+    <row r="11" spans="1:9" s="4" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="A11" s="21" t="s">
         <v>48</v>
       </c>
-      <c r="B11" s="28" t="s">
+      <c r="B11" s="21" t="s">
         <v>50</v>
       </c>
-      <c r="C11" s="28" t="s">
+      <c r="C11" s="21" t="s">
         <v>49</v>
       </c>
-      <c r="D11" s="26"/>
-      <c r="E11" s="21">
+      <c r="D11" s="21"/>
+      <c r="E11" s="16">
         <v>0.66</v>
       </c>
-      <c r="F11" s="36">
-        <v>20</v>
-      </c>
-      <c r="G11" s="15">
+      <c r="F11" s="11">
+        <v>11</v>
+      </c>
+      <c r="G11" s="11">
         <v>32</v>
       </c>
-      <c r="H11" s="8"/>
-    </row>
-    <row r="12" spans="1:8" s="25" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="H11" s="40"/>
+      <c r="I11" s="7"/>
+    </row>
+    <row r="12" spans="1:9" s="20" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A12" s="22" t="s">
         <v>52</v>
       </c>
-      <c r="B12" s="29" t="s">
+      <c r="B12" s="22" t="s">
         <v>41</v>
       </c>
-      <c r="C12" s="29" t="s">
+      <c r="C12" s="22" t="s">
         <v>51</v>
       </c>
-      <c r="D12" s="27"/>
-      <c r="E12" s="23">
+      <c r="D12" s="22"/>
+      <c r="E12" s="18">
         <v>4.49</v>
       </c>
-      <c r="F12" s="37">
+      <c r="F12" s="17">
         <v>1</v>
       </c>
-      <c r="G12" s="22">
+      <c r="G12" s="17">
         <v>5</v>
       </c>
-      <c r="H12" s="24"/>
-    </row>
-    <row r="13" spans="1:8" s="5" customFormat="1" x14ac:dyDescent="0.35">
-      <c r="A13" s="15" t="s">
+      <c r="H12" s="39"/>
+      <c r="I12" s="19"/>
+    </row>
+    <row r="13" spans="1:9" s="4" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="A13" s="21" t="s">
         <v>53</v>
       </c>
-      <c r="B13" s="28" t="s">
+      <c r="B13" s="21" t="s">
         <v>54</v>
       </c>
-      <c r="C13" s="28" t="s">
+      <c r="C13" s="21" t="s">
         <v>55</v>
       </c>
-      <c r="D13" s="26"/>
-      <c r="E13" s="21">
+      <c r="D13" s="21"/>
+      <c r="E13" s="16">
         <v>4.6100000000000003</v>
       </c>
-      <c r="F13" s="36">
+      <c r="F13" s="11">
+        <v>4</v>
+      </c>
+      <c r="G13" s="11">
         <v>3</v>
       </c>
-      <c r="G13" s="15">
-        <v>3</v>
-      </c>
-      <c r="H13" s="8"/>
-    </row>
-    <row r="14" spans="1:8" s="25" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="H13" s="40"/>
+      <c r="I13" s="7"/>
+    </row>
+    <row r="14" spans="1:9" s="20" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A14" s="22" t="s">
         <v>56</v>
       </c>
-      <c r="B14" s="29" t="s">
+      <c r="B14" s="22" t="s">
         <v>41</v>
       </c>
-      <c r="C14" s="29" t="s">
+      <c r="C14" s="22" t="s">
         <v>57</v>
       </c>
-      <c r="D14" s="27"/>
-      <c r="E14" s="23">
+      <c r="D14" s="22"/>
+      <c r="E14" s="18">
         <v>3.34</v>
       </c>
-      <c r="F14" s="37">
+      <c r="F14" s="17">
         <v>3</v>
       </c>
-      <c r="G14" s="22">
+      <c r="G14" s="17">
         <v>6</v>
       </c>
-      <c r="H14" s="24"/>
-    </row>
-    <row r="15" spans="1:8" s="5" customFormat="1" x14ac:dyDescent="0.35">
-      <c r="A15" s="15" t="s">
+      <c r="H14" s="39"/>
+      <c r="I14" s="19"/>
+    </row>
+    <row r="15" spans="1:9" s="4" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="A15" s="21" t="s">
         <v>58</v>
       </c>
-      <c r="B15" s="28" t="s">
+      <c r="B15" s="21" t="s">
         <v>26</v>
       </c>
-      <c r="C15" s="28" t="s">
+      <c r="C15" s="21" t="s">
         <v>59</v>
       </c>
-      <c r="D15" s="26"/>
-      <c r="E15" s="21">
+      <c r="D15" s="21"/>
+      <c r="E15" s="16">
         <v>0.67</v>
       </c>
-      <c r="F15" s="36">
-        <v>2</v>
-      </c>
-      <c r="G15" s="15">
+      <c r="F15" s="11">
         <v>3</v>
       </c>
-      <c r="H15" s="8"/>
-    </row>
-    <row r="16" spans="1:8" s="25" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="G15" s="11">
+        <v>3</v>
+      </c>
+      <c r="H15" s="40"/>
+      <c r="I15" s="7"/>
+    </row>
+    <row r="16" spans="1:9" s="20" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A16" s="22" t="s">
         <v>60</v>
       </c>
-      <c r="B16" s="29" t="s">
+      <c r="B16" s="22" t="s">
         <v>62</v>
       </c>
-      <c r="C16" s="29" t="s">
+      <c r="C16" s="22" t="s">
         <v>61</v>
       </c>
-      <c r="D16" s="27"/>
-      <c r="E16" s="23">
+      <c r="D16" s="22"/>
+      <c r="E16" s="18">
         <v>0.63</v>
       </c>
-      <c r="F16" s="37">
+      <c r="F16" s="17">
         <v>2</v>
       </c>
-      <c r="G16" s="22">
+      <c r="G16" s="17">
         <v>5</v>
       </c>
-      <c r="H16" s="24"/>
-    </row>
-    <row r="17" spans="1:8" s="5" customFormat="1" x14ac:dyDescent="0.35">
-      <c r="A17" s="15" t="s">
+      <c r="H16" s="39"/>
+      <c r="I16" s="19"/>
+    </row>
+    <row r="17" spans="1:9" s="4" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="A17" s="21" t="s">
         <v>64</v>
       </c>
-      <c r="B17" s="28" t="s">
+      <c r="B17" s="21" t="s">
         <v>50</v>
       </c>
-      <c r="C17" s="28" t="s">
+      <c r="C17" s="21" t="s">
         <v>63</v>
       </c>
-      <c r="D17" s="15"/>
-      <c r="E17" s="21">
+      <c r="D17" s="21"/>
+      <c r="E17" s="16">
         <v>1.24</v>
       </c>
-      <c r="F17" s="36">
-        <v>8</v>
-      </c>
-      <c r="G17" s="15">
+      <c r="F17" s="11">
         <v>10</v>
       </c>
-      <c r="H17" s="8"/>
-    </row>
-    <row r="18" spans="1:8" s="39" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="G17" s="11">
+        <v>10</v>
+      </c>
+      <c r="H17" s="40"/>
+      <c r="I17" s="7"/>
+    </row>
+    <row r="18" spans="1:9" s="27" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A18" s="22" t="s">
         <v>24</v>
       </c>
-      <c r="B18" s="29" t="s">
+      <c r="B18" s="22" t="s">
         <v>26</v>
       </c>
-      <c r="C18" s="29" t="s">
+      <c r="C18" s="22" t="s">
         <v>25</v>
       </c>
-      <c r="D18" s="27"/>
-      <c r="E18" s="23">
+      <c r="D18" s="22"/>
+      <c r="E18" s="18">
         <v>0.67</v>
       </c>
-      <c r="F18" s="37">
+      <c r="F18" s="17">
         <v>2</v>
       </c>
-      <c r="G18" s="22">
+      <c r="G18" s="17">
         <v>2</v>
       </c>
-      <c r="H18" s="38"/>
-    </row>
-    <row r="19" spans="1:8" s="41" customFormat="1" x14ac:dyDescent="0.35">
-      <c r="A19" s="15" t="s">
+      <c r="H18" s="22"/>
+      <c r="I18" s="26"/>
+    </row>
+    <row r="19" spans="1:9" s="29" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="A19" s="21" t="s">
         <v>27</v>
       </c>
-      <c r="B19" s="28" t="s">
+      <c r="B19" s="21" t="s">
         <v>26</v>
       </c>
-      <c r="C19" s="28" t="s">
+      <c r="C19" s="21" t="s">
         <v>28</v>
       </c>
-      <c r="D19" s="26"/>
-      <c r="E19" s="21">
+      <c r="D19" s="21"/>
+      <c r="E19" s="16">
         <v>0.74</v>
       </c>
-      <c r="F19" s="36">
+      <c r="F19" s="11">
         <v>2</v>
       </c>
-      <c r="G19" s="15">
+      <c r="G19" s="11">
         <v>2</v>
       </c>
-      <c r="H19" s="40"/>
-    </row>
-    <row r="20" spans="1:8" s="39" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="H19" s="21"/>
+      <c r="I19" s="28"/>
+    </row>
+    <row r="20" spans="1:9" s="27" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A20" s="22" t="s">
         <v>31</v>
       </c>
-      <c r="B20" s="29" t="s">
+      <c r="B20" s="22" t="s">
         <v>30</v>
       </c>
-      <c r="C20" s="29" t="s">
+      <c r="C20" s="22" t="s">
         <v>29</v>
       </c>
-      <c r="D20" s="27"/>
-      <c r="E20" s="23">
+      <c r="D20" s="22"/>
+      <c r="E20" s="18">
         <v>1.76</v>
       </c>
-      <c r="F20" s="37">
+      <c r="F20" s="17">
         <v>2</v>
       </c>
-      <c r="G20" s="22">
+      <c r="G20" s="17">
         <v>2</v>
       </c>
-      <c r="H20" s="38"/>
-    </row>
-    <row r="21" spans="1:8" s="41" customFormat="1" x14ac:dyDescent="0.35">
-      <c r="A21" s="15" t="s">
+      <c r="H20" s="22"/>
+      <c r="I20" s="26"/>
+    </row>
+    <row r="21" spans="1:9" s="29" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="A21" s="21" t="s">
         <v>32</v>
       </c>
-      <c r="B21" s="28" t="s">
+      <c r="B21" s="21" t="s">
         <v>33</v>
       </c>
-      <c r="C21" s="28" t="s">
+      <c r="C21" s="21" t="s">
         <v>34</v>
       </c>
-      <c r="D21" s="26"/>
-      <c r="E21" s="21">
+      <c r="D21" s="21"/>
+      <c r="E21" s="16">
         <v>0.7</v>
       </c>
-      <c r="F21" s="36">
+      <c r="F21" s="11">
         <v>2</v>
       </c>
-      <c r="G21" s="15">
+      <c r="G21" s="11">
         <v>2</v>
       </c>
-      <c r="H21" s="40"/>
-    </row>
-    <row r="22" spans="1:8" s="39" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="H21" s="21"/>
+      <c r="I21" s="28"/>
+    </row>
+    <row r="22" spans="1:9" s="27" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A22" s="22" t="s">
         <v>35</v>
       </c>
-      <c r="B22" s="29" t="s">
+      <c r="B22" s="22" t="s">
         <v>26</v>
       </c>
-      <c r="C22" s="29" t="s">
+      <c r="C22" s="22" t="s">
         <v>36</v>
       </c>
-      <c r="D22" s="27"/>
-      <c r="E22" s="23">
+      <c r="D22" s="22"/>
+      <c r="E22" s="18">
         <v>0.74</v>
       </c>
-      <c r="F22" s="37">
+      <c r="F22" s="17">
         <v>2</v>
       </c>
-      <c r="G22" s="22">
+      <c r="G22" s="17">
         <v>2</v>
       </c>
-      <c r="H22" s="38"/>
-    </row>
-    <row r="23" spans="1:8" s="41" customFormat="1" x14ac:dyDescent="0.35">
-      <c r="A23" s="15" t="s">
+      <c r="H22" s="22"/>
+      <c r="I22" s="26"/>
+    </row>
+    <row r="23" spans="1:9" s="29" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="A23" s="21" t="s">
         <v>37</v>
       </c>
-      <c r="B23" s="28" t="s">
+      <c r="B23" s="21" t="s">
         <v>38</v>
       </c>
-      <c r="C23" s="28" t="s">
+      <c r="C23" s="21" t="s">
         <v>39</v>
       </c>
-      <c r="D23" s="26"/>
-      <c r="E23" s="21">
+      <c r="D23" s="21"/>
+      <c r="E23" s="16">
         <v>0.73</v>
       </c>
-      <c r="F23" s="36">
+      <c r="F23" s="11">
         <v>2</v>
       </c>
-      <c r="G23" s="15">
+      <c r="G23" s="11">
         <v>2</v>
       </c>
-      <c r="H23" s="40"/>
-    </row>
-    <row r="24" spans="1:8" s="44" customFormat="1" ht="19.5" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A24" s="60" t="s">
+      <c r="H23" s="21"/>
+      <c r="I23" s="28"/>
+    </row>
+    <row r="24" spans="1:9" s="2" customFormat="1" ht="14.5" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A24" s="33" t="s">
         <v>65</v>
       </c>
-      <c r="B24" s="61" t="s">
+      <c r="B24" s="33" t="s">
         <v>66</v>
       </c>
-      <c r="C24" s="61" t="s">
+      <c r="C24" s="33" t="s">
         <v>67</v>
       </c>
-      <c r="D24" s="49"/>
-      <c r="E24" s="56">
+      <c r="D24" s="30"/>
+      <c r="E24" s="15">
         <v>0.41</v>
       </c>
-      <c r="F24" s="57">
+      <c r="F24" s="10">
         <v>4</v>
       </c>
-      <c r="G24" s="58"/>
-    </row>
-    <row r="25" spans="1:8" s="47" customFormat="1" x14ac:dyDescent="0.35">
-      <c r="A25" s="45" t="s">
+      <c r="G24" s="10"/>
+      <c r="H24" s="41"/>
+      <c r="I24" s="5"/>
+    </row>
+    <row r="25" spans="1:9" s="3" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="A25" s="31" t="s">
+        <v>69</v>
+      </c>
+      <c r="B25" s="31" t="s">
+        <v>71</v>
+      </c>
+      <c r="C25" s="31" t="s">
         <v>70</v>
       </c>
-      <c r="B25" s="50" t="s">
+      <c r="D25" s="31"/>
+      <c r="E25" s="14">
+        <v>0.45</v>
+      </c>
+      <c r="F25" s="9">
+        <v>1</v>
+      </c>
+      <c r="G25" s="9"/>
+      <c r="H25" s="42"/>
+      <c r="I25" s="6"/>
+    </row>
+    <row r="26" spans="1:9" s="2" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="A26" s="30" t="s">
         <v>72</v>
       </c>
-      <c r="C25" s="50" t="s">
-        <v>71</v>
-      </c>
-      <c r="D25" s="51"/>
-      <c r="E25" s="55">
-        <v>0.45</v>
-      </c>
-      <c r="F25" s="46">
+      <c r="B26" s="30" t="s">
+        <v>73</v>
+      </c>
+      <c r="C26" s="30" t="s">
+        <v>74</v>
+      </c>
+      <c r="D26" s="30"/>
+      <c r="E26" s="15">
+        <v>0.94</v>
+      </c>
+      <c r="F26" s="10">
         <v>1</v>
       </c>
-      <c r="G25" s="45"/>
-    </row>
-    <row r="26" spans="1:8" s="44" customFormat="1" x14ac:dyDescent="0.35">
-      <c r="A26" s="42" t="s">
-        <v>73</v>
-      </c>
-      <c r="B26" s="48" t="s">
-        <v>74</v>
-      </c>
-      <c r="C26" s="48" t="s">
+      <c r="G26" s="10"/>
+      <c r="H26" s="41"/>
+      <c r="I26" s="5"/>
+    </row>
+    <row r="27" spans="1:9" s="3" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="A27" s="31" t="s">
         <v>75</v>
       </c>
-      <c r="D26" s="49"/>
-      <c r="E26" s="54">
-        <v>0.94</v>
-      </c>
-      <c r="F26" s="43">
+      <c r="B27" s="31" t="s">
+        <v>41</v>
+      </c>
+      <c r="C27" s="31" t="s">
+        <v>76</v>
+      </c>
+      <c r="D27" s="31"/>
+      <c r="E27" s="14">
+        <v>8.3000000000000007</v>
+      </c>
+      <c r="F27" s="9">
         <v>1</v>
       </c>
-      <c r="G26" s="42"/>
-    </row>
-    <row r="27" spans="1:8" s="47" customFormat="1" x14ac:dyDescent="0.35">
-      <c r="A27" s="45" t="s">
+      <c r="G27" s="9"/>
+      <c r="H27" s="42"/>
+      <c r="I27" s="6"/>
+    </row>
+    <row r="28" spans="1:9" s="2" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="A28" s="30" t="s">
+        <v>77</v>
+      </c>
+      <c r="B28" s="30" t="s">
+        <v>26</v>
+      </c>
+      <c r="C28" s="30" t="s">
+        <v>78</v>
+      </c>
+      <c r="D28" s="30"/>
+      <c r="E28" s="15">
+        <v>1.31</v>
+      </c>
+      <c r="F28" s="10">
+        <v>1</v>
+      </c>
+      <c r="G28" s="10"/>
+      <c r="H28" s="41"/>
+      <c r="I28" s="5"/>
+    </row>
+    <row r="29" spans="1:9" s="3" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="A29" s="31" t="s">
+        <v>79</v>
+      </c>
+      <c r="B29" s="31" t="s">
+        <v>80</v>
+      </c>
+      <c r="C29" s="31" t="s">
+        <v>81</v>
+      </c>
+      <c r="D29" s="31"/>
+      <c r="E29" s="14">
+        <v>0.63</v>
+      </c>
+      <c r="F29" s="9">
+        <v>2</v>
+      </c>
+      <c r="G29" s="9"/>
+      <c r="H29" s="42"/>
+      <c r="I29" s="6"/>
+    </row>
+    <row r="30" spans="1:9" s="2" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="A30" s="30" t="s">
+        <v>82</v>
+      </c>
+      <c r="B30" s="30" t="s">
+        <v>11</v>
+      </c>
+      <c r="C30" s="30" t="s">
+        <v>12</v>
+      </c>
+      <c r="D30" s="30"/>
+      <c r="E30" s="15">
+        <v>0.48</v>
+      </c>
+      <c r="F30" s="10">
+        <v>5</v>
+      </c>
+      <c r="G30" s="10"/>
+      <c r="H30" s="41"/>
+      <c r="I30" s="5"/>
+    </row>
+    <row r="31" spans="1:9" s="3" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="A31" s="31" t="s">
+        <v>83</v>
+      </c>
+      <c r="B31" s="31" t="s">
+        <v>85</v>
+      </c>
+      <c r="C31" s="31" t="s">
+        <v>84</v>
+      </c>
+      <c r="D31" s="31"/>
+      <c r="E31" s="14">
+        <v>1.01</v>
+      </c>
+      <c r="F31" s="9">
+        <v>1</v>
+      </c>
+      <c r="G31" s="9"/>
+      <c r="H31" s="42"/>
+      <c r="I31" s="6"/>
+    </row>
+    <row r="32" spans="1:9" s="2" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A32" s="30" t="s">
+        <v>86</v>
+      </c>
+      <c r="B32" s="30" t="s">
+        <v>87</v>
+      </c>
+      <c r="C32" s="30" t="s">
+        <v>88</v>
+      </c>
+      <c r="D32" s="30"/>
+      <c r="E32" s="15">
+        <v>0.72</v>
+      </c>
+      <c r="F32" s="10">
+        <v>1</v>
+      </c>
+      <c r="G32" s="10"/>
+      <c r="H32" s="41"/>
+      <c r="I32" s="5"/>
+    </row>
+    <row r="33" spans="1:9" s="3" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="A33" s="31" t="s">
+        <v>89</v>
+      </c>
+      <c r="B33" s="31" t="s">
+        <v>90</v>
+      </c>
+      <c r="C33" s="31" t="s">
+        <v>91</v>
+      </c>
+      <c r="D33" s="31"/>
+      <c r="E33" s="14">
+        <v>0.46</v>
+      </c>
+      <c r="F33" s="9">
+        <v>4</v>
+      </c>
+      <c r="G33" s="9"/>
+      <c r="H33" s="42"/>
+      <c r="I33" s="6"/>
+    </row>
+    <row r="34" spans="1:9" s="2" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A34" s="30" t="s">
+        <v>92</v>
+      </c>
+      <c r="B34" s="30" t="s">
+        <v>94</v>
+      </c>
+      <c r="C34" s="30" t="s">
+        <v>93</v>
+      </c>
+      <c r="D34" s="30"/>
+      <c r="E34" s="15">
+        <v>42.58</v>
+      </c>
+      <c r="F34" s="10">
+        <v>1</v>
+      </c>
+      <c r="G34" s="10"/>
+      <c r="H34" s="41"/>
+      <c r="I34" s="5"/>
+    </row>
+    <row r="35" spans="1:9" s="3" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="A35" s="31" t="s">
+        <v>75</v>
+      </c>
+      <c r="B35" s="31" t="s">
+        <v>41</v>
+      </c>
+      <c r="C35" s="31" t="s">
         <v>76</v>
       </c>
-      <c r="B27" s="50" t="s">
-        <v>41</v>
-      </c>
-      <c r="C27" s="50" t="s">
-        <v>77</v>
-      </c>
-      <c r="D27" s="51"/>
-      <c r="E27" s="55">
+      <c r="D35" s="31"/>
+      <c r="E35" s="14">
         <v>8.3000000000000007</v>
       </c>
-      <c r="F27" s="46">
+      <c r="F35" s="9">
         <v>1</v>
       </c>
-      <c r="G27" s="45"/>
-    </row>
-    <row r="28" spans="1:8" s="3" customFormat="1" x14ac:dyDescent="0.35">
-      <c r="A28" s="13" t="s">
-        <v>78</v>
-      </c>
-      <c r="B28" s="52" t="s">
-        <v>26</v>
-      </c>
-      <c r="C28" s="52" t="s">
-        <v>79</v>
-      </c>
-      <c r="D28" s="49"/>
-      <c r="E28" s="20">
-        <v>1.31</v>
-      </c>
-      <c r="F28" s="14">
+      <c r="G35" s="9"/>
+      <c r="H35" s="42"/>
+      <c r="I35" s="6"/>
+    </row>
+    <row r="36" spans="1:9" s="2" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A36" s="30" t="s">
+        <v>95</v>
+      </c>
+      <c r="B36" s="30" t="s">
+        <v>80</v>
+      </c>
+      <c r="C36" s="30" t="s">
+        <v>96</v>
+      </c>
+      <c r="D36" s="30"/>
+      <c r="E36" s="15">
+        <v>6.32</v>
+      </c>
+      <c r="F36" s="10">
         <v>1</v>
       </c>
-      <c r="G28" s="13"/>
-      <c r="H28" s="6"/>
-    </row>
-    <row r="29" spans="1:8" s="4" customFormat="1" x14ac:dyDescent="0.35">
-      <c r="A29" s="11" t="s">
-        <v>80</v>
-      </c>
-      <c r="B29" s="53" t="s">
-        <v>81</v>
-      </c>
-      <c r="C29" s="53" t="s">
-        <v>82</v>
-      </c>
-      <c r="D29" s="51"/>
-      <c r="E29" s="19">
-        <v>0.63</v>
-      </c>
-      <c r="F29" s="12">
-        <v>2</v>
-      </c>
-      <c r="G29" s="11"/>
-      <c r="H29" s="7"/>
-    </row>
-    <row r="30" spans="1:8" s="3" customFormat="1" x14ac:dyDescent="0.35">
-      <c r="A30" s="13" t="s">
-        <v>83</v>
-      </c>
-      <c r="B30" s="52" t="s">
-        <v>11</v>
-      </c>
-      <c r="C30" s="52" t="s">
-        <v>12</v>
-      </c>
-      <c r="D30" s="49"/>
-      <c r="E30" s="20">
-        <v>0.48</v>
-      </c>
-      <c r="F30" s="14">
+      <c r="G36" s="10">
         <v>4</v>
       </c>
-      <c r="G30" s="13"/>
-      <c r="H30" s="6"/>
-    </row>
-    <row r="31" spans="1:8" s="4" customFormat="1" x14ac:dyDescent="0.35">
-      <c r="A31" s="11" t="s">
-        <v>84</v>
-      </c>
-      <c r="B31" s="53" t="s">
-        <v>86</v>
-      </c>
-      <c r="C31" s="53" t="s">
-        <v>85</v>
-      </c>
-      <c r="D31" s="11"/>
-      <c r="E31" s="19">
-        <v>1.01</v>
-      </c>
-      <c r="F31" s="12">
-        <v>1</v>
-      </c>
-      <c r="G31" s="11"/>
-      <c r="H31" s="7"/>
-    </row>
-    <row r="32" spans="1:8" s="3" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A32" s="13" t="s">
-        <v>87</v>
-      </c>
-      <c r="B32" s="52" t="s">
-        <v>88</v>
-      </c>
-      <c r="C32" s="52" t="s">
-        <v>89</v>
-      </c>
-      <c r="D32" s="13"/>
-      <c r="E32" s="20">
-        <v>0.72</v>
-      </c>
-      <c r="F32" s="14">
-        <v>1</v>
-      </c>
-      <c r="G32" s="13"/>
-      <c r="H32" s="6"/>
-    </row>
-    <row r="33" spans="1:8" s="4" customFormat="1" x14ac:dyDescent="0.35">
-      <c r="A33" s="11" t="s">
-        <v>90</v>
-      </c>
-      <c r="B33" s="12" t="s">
-        <v>91</v>
-      </c>
-      <c r="C33" s="12" t="s">
-        <v>92</v>
-      </c>
-      <c r="D33" s="11"/>
-      <c r="E33" s="19">
-        <v>0.46</v>
-      </c>
-      <c r="F33" s="12">
-        <v>4</v>
-      </c>
-      <c r="G33" s="11"/>
-      <c r="H33" s="7"/>
-    </row>
-    <row r="34" spans="1:8" s="3" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A34" s="13" t="s">
-        <v>93</v>
-      </c>
-      <c r="B34" s="14" t="s">
-        <v>95</v>
-      </c>
-      <c r="C34" s="14" t="s">
-        <v>94</v>
-      </c>
-      <c r="D34" s="13"/>
-      <c r="E34" s="20">
-        <v>42.58</v>
-      </c>
-      <c r="F34" s="14">
-        <v>1</v>
-      </c>
-      <c r="G34" s="13"/>
-      <c r="H34" s="6"/>
-    </row>
-    <row r="35" spans="1:8" s="4" customFormat="1" x14ac:dyDescent="0.35">
-      <c r="A35" s="11" t="s">
-        <v>76</v>
-      </c>
-      <c r="B35" s="12" t="s">
-        <v>41</v>
-      </c>
-      <c r="C35" s="12" t="s">
-        <v>77</v>
-      </c>
-      <c r="D35" s="11"/>
-      <c r="E35" s="19">
-        <v>8.3000000000000007</v>
-      </c>
-      <c r="F35" s="12">
-        <v>1</v>
-      </c>
-      <c r="G35" s="11"/>
-      <c r="H35" s="7"/>
-    </row>
-    <row r="36" spans="1:8" s="3" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A36" s="13" t="s">
-        <v>96</v>
-      </c>
-      <c r="B36" s="14" t="s">
-        <v>81</v>
-      </c>
-      <c r="C36" s="14" t="s">
+      <c r="H36" s="41"/>
+      <c r="I36" s="5"/>
+    </row>
+    <row r="37" spans="1:9" s="3" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="A37" s="31" t="s">
         <v>97</v>
       </c>
-      <c r="D36" s="13"/>
-      <c r="E36" s="20">
-        <v>6.32</v>
-      </c>
-      <c r="F36" s="14">
-        <v>1</v>
-      </c>
-      <c r="G36" s="13">
-        <v>4</v>
-      </c>
-      <c r="H36" s="6"/>
-    </row>
-    <row r="37" spans="1:8" s="4" customFormat="1" x14ac:dyDescent="0.35">
-      <c r="A37" s="11" t="s">
+      <c r="B37" s="31" t="s">
+        <v>99</v>
+      </c>
+      <c r="C37" s="31" t="s">
         <v>98</v>
       </c>
-      <c r="B37" s="12" t="s">
+      <c r="D37" s="31"/>
+      <c r="E37" s="14">
+        <v>3.09</v>
+      </c>
+      <c r="F37" s="9">
+        <v>3</v>
+      </c>
+      <c r="G37" s="9"/>
+      <c r="H37" s="42"/>
+      <c r="I37" s="6"/>
+    </row>
+    <row r="38" spans="1:9" s="2" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A38" s="30" t="s">
+        <v>101</v>
+      </c>
+      <c r="B38" s="30" t="s">
+        <v>99</v>
+      </c>
+      <c r="C38" s="30" t="s">
         <v>100</v>
       </c>
-      <c r="C37" s="12" t="s">
-        <v>99</v>
-      </c>
-      <c r="D37" s="11"/>
-      <c r="E37" s="19">
+      <c r="D38" s="30"/>
+      <c r="E38" s="15">
         <v>3.09</v>
       </c>
-      <c r="F37" s="12">
+      <c r="F38" s="10">
         <v>3</v>
       </c>
-      <c r="G37" s="11"/>
-      <c r="H37" s="7"/>
-    </row>
-    <row r="38" spans="1:8" s="3" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A38" s="13" t="s">
-        <v>102</v>
-      </c>
-      <c r="B38" s="14" t="s">
-        <v>100</v>
-      </c>
-      <c r="C38" s="14" t="s">
-        <v>101</v>
-      </c>
-      <c r="D38" s="13"/>
-      <c r="E38" s="20">
-        <v>3.09</v>
-      </c>
-      <c r="F38" s="14">
-        <v>3</v>
-      </c>
-      <c r="G38" s="13"/>
-      <c r="H38" s="6"/>
-    </row>
-    <row r="39" spans="1:8" s="4" customFormat="1" x14ac:dyDescent="0.35">
-      <c r="A39" s="11"/>
-      <c r="B39" s="12"/>
-      <c r="C39" s="12"/>
-      <c r="D39" s="11"/>
-      <c r="E39" s="19"/>
-      <c r="F39" s="12"/>
-      <c r="G39" s="11"/>
-      <c r="H39" s="7"/>
-    </row>
-    <row r="40" spans="1:8" s="3" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A40" s="13"/>
-      <c r="B40" s="14"/>
-      <c r="C40" s="14"/>
-      <c r="D40" s="13"/>
-      <c r="E40" s="20"/>
-      <c r="F40" s="14"/>
-      <c r="G40" s="13"/>
-      <c r="H40" s="6"/>
+      <c r="G38" s="10"/>
+      <c r="H38" s="41"/>
+      <c r="I38" s="5"/>
+    </row>
+    <row r="39" spans="1:9" s="3" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="A39" s="31" t="s">
+        <v>103</v>
+      </c>
+      <c r="B39" s="31" t="s">
+        <v>30</v>
+      </c>
+      <c r="C39" s="31" t="s">
+        <v>104</v>
+      </c>
+      <c r="D39" s="9"/>
+      <c r="E39" s="14">
+        <v>0.1</v>
+      </c>
+      <c r="F39" s="9">
+        <v>10</v>
+      </c>
+      <c r="G39" s="9"/>
+      <c r="H39" s="42"/>
+      <c r="I39" s="6"/>
+    </row>
+    <row r="40" spans="1:9" s="2" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A40" s="30" t="s">
+        <v>105</v>
+      </c>
+      <c r="B40" s="30" t="s">
+        <v>107</v>
+      </c>
+      <c r="C40" s="30" t="s">
+        <v>106</v>
+      </c>
+      <c r="D40" s="10"/>
+      <c r="E40" s="15">
+        <v>0.1</v>
+      </c>
+      <c r="F40" s="10">
+        <v>10</v>
+      </c>
+      <c r="G40" s="10"/>
+      <c r="H40" s="41"/>
+      <c r="I40" s="5"/>
+    </row>
+    <row r="41" spans="1:9" s="3" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="A41" s="31" t="s">
+        <v>108</v>
+      </c>
+      <c r="B41" s="31" t="s">
+        <v>50</v>
+      </c>
+      <c r="C41" s="31" t="s">
+        <v>109</v>
+      </c>
+      <c r="D41" s="9"/>
+      <c r="E41" s="14">
+        <v>0.1</v>
+      </c>
+      <c r="F41" s="9">
+        <v>10</v>
+      </c>
+      <c r="G41" s="9"/>
+      <c r="H41" s="42"/>
+      <c r="I41" s="6"/>
+    </row>
+    <row r="42" spans="1:9" s="2" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A42" s="30" t="s">
+        <v>110</v>
+      </c>
+      <c r="B42" s="30" t="s">
+        <v>111</v>
+      </c>
+      <c r="C42" s="30" t="s">
+        <v>112</v>
+      </c>
+      <c r="D42" s="10"/>
+      <c r="E42" s="15">
+        <v>0.1</v>
+      </c>
+      <c r="F42" s="10">
+        <v>5</v>
+      </c>
+      <c r="G42" s="10"/>
+      <c r="H42" s="41"/>
+      <c r="I42" s="5"/>
+    </row>
+    <row r="43" spans="1:9" s="3" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="A43" s="31" t="s">
+        <v>113</v>
+      </c>
+      <c r="B43" s="31" t="s">
+        <v>114</v>
+      </c>
+      <c r="C43" s="31" t="s">
+        <v>115</v>
+      </c>
+      <c r="D43" s="9"/>
+      <c r="E43" s="14">
+        <v>0.1</v>
+      </c>
+      <c r="F43" s="9">
+        <v>15</v>
+      </c>
+      <c r="G43" s="9"/>
+      <c r="H43" s="42"/>
+      <c r="I43" s="6"/>
+    </row>
+    <row r="44" spans="1:9" s="2" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A44" s="30" t="s">
+        <v>116</v>
+      </c>
+      <c r="B44" s="30" t="s">
+        <v>38</v>
+      </c>
+      <c r="C44" s="30" t="s">
+        <v>117</v>
+      </c>
+      <c r="D44" s="10"/>
+      <c r="E44" s="15">
+        <v>0.1</v>
+      </c>
+      <c r="F44" s="10">
+        <v>5</v>
+      </c>
+      <c r="G44" s="10"/>
+      <c r="H44" s="41"/>
+      <c r="I44" s="5"/>
+    </row>
+    <row r="45" spans="1:9" s="3" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="A45" s="31"/>
+      <c r="B45" s="9"/>
+      <c r="C45" s="9"/>
+      <c r="D45" s="9"/>
+      <c r="E45" s="14"/>
+      <c r="F45" s="9"/>
+      <c r="G45" s="9"/>
+      <c r="H45" s="42"/>
+      <c r="I45" s="6"/>
+    </row>
+    <row r="46" spans="1:9" s="2" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A46" s="10"/>
+      <c r="B46" s="10"/>
+      <c r="C46" s="10"/>
+      <c r="D46" s="10"/>
+      <c r="E46" s="15"/>
+      <c r="F46" s="10"/>
+      <c r="G46" s="10"/>
+      <c r="H46" s="41"/>
+      <c r="I46" s="5"/>
+    </row>
+    <row r="47" spans="1:9" s="3" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="A47" s="31"/>
+      <c r="B47" s="9"/>
+      <c r="C47" s="9"/>
+      <c r="D47" s="9"/>
+      <c r="E47" s="14"/>
+      <c r="F47" s="9"/>
+      <c r="G47" s="9"/>
+      <c r="H47" s="42"/>
+      <c r="I47" s="6"/>
+    </row>
+    <row r="48" spans="1:9" s="2" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A48" s="10"/>
+      <c r="B48" s="10"/>
+      <c r="C48" s="10"/>
+      <c r="D48" s="10"/>
+      <c r="E48" s="15"/>
+      <c r="F48" s="10"/>
+      <c r="G48" s="10"/>
+      <c r="H48" s="41"/>
+      <c r="I48" s="5"/>
+    </row>
+    <row r="49" spans="1:9" s="3" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="A49" s="31"/>
+      <c r="B49" s="9"/>
+      <c r="C49" s="9"/>
+      <c r="D49" s="9"/>
+      <c r="E49" s="14"/>
+      <c r="F49" s="9"/>
+      <c r="G49" s="9"/>
+      <c r="H49" s="42"/>
+      <c r="I49" s="6"/>
+    </row>
+    <row r="50" spans="1:9" s="2" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A50" s="10"/>
+      <c r="B50" s="10"/>
+      <c r="C50" s="10"/>
+      <c r="D50" s="10"/>
+      <c r="E50" s="15"/>
+      <c r="F50" s="10"/>
+      <c r="G50" s="10"/>
+      <c r="H50" s="41"/>
+      <c r="I50" s="5"/>
+    </row>
+    <row r="51" spans="1:9" s="3" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="A51" s="31"/>
+      <c r="B51" s="9"/>
+      <c r="C51" s="9"/>
+      <c r="D51" s="9"/>
+      <c r="E51" s="14"/>
+      <c r="F51" s="9"/>
+      <c r="G51" s="9"/>
+      <c r="H51" s="42"/>
+      <c r="I51" s="6"/>
+    </row>
+    <row r="52" spans="1:9" s="2" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A52" s="10"/>
+      <c r="B52" s="10"/>
+      <c r="C52" s="10"/>
+      <c r="D52" s="10"/>
+      <c r="E52" s="15"/>
+      <c r="F52" s="10"/>
+      <c r="G52" s="10"/>
+      <c r="H52" s="41"/>
+      <c r="I52" s="5"/>
+    </row>
+    <row r="53" spans="1:9" s="3" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="A53" s="31"/>
+      <c r="B53" s="9"/>
+      <c r="C53" s="9"/>
+      <c r="D53" s="9"/>
+      <c r="E53" s="14"/>
+      <c r="F53" s="9"/>
+      <c r="G53" s="9"/>
+      <c r="H53" s="42"/>
+      <c r="I53" s="6"/>
+    </row>
+    <row r="54" spans="1:9" s="2" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A54" s="10"/>
+      <c r="B54" s="10"/>
+      <c r="C54" s="10"/>
+      <c r="D54" s="10"/>
+      <c r="E54" s="15"/>
+      <c r="F54" s="10"/>
+      <c r="G54" s="10"/>
+      <c r="H54" s="41"/>
+      <c r="I54" s="5"/>
+    </row>
+    <row r="55" spans="1:9" s="3" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="A55" s="31"/>
+      <c r="B55" s="9"/>
+      <c r="C55" s="9"/>
+      <c r="D55" s="9"/>
+      <c r="E55" s="14"/>
+      <c r="F55" s="9"/>
+      <c r="G55" s="9"/>
+      <c r="H55" s="42"/>
+      <c r="I55" s="6"/>
+    </row>
+    <row r="56" spans="1:9" s="2" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A56" s="10"/>
+      <c r="B56" s="10"/>
+      <c r="C56" s="10"/>
+      <c r="D56" s="10"/>
+      <c r="E56" s="15"/>
+      <c r="F56" s="10"/>
+      <c r="G56" s="10"/>
+      <c r="H56" s="41"/>
+      <c r="I56" s="5"/>
+    </row>
+    <row r="57" spans="1:9" s="3" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="A57" s="31"/>
+      <c r="B57" s="9"/>
+      <c r="C57" s="9"/>
+      <c r="D57" s="9"/>
+      <c r="E57" s="14"/>
+      <c r="F57" s="9"/>
+      <c r="G57" s="9"/>
+      <c r="H57" s="42"/>
+      <c r="I57" s="6"/>
+    </row>
+    <row r="58" spans="1:9" s="2" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A58" s="10"/>
+      <c r="B58" s="10"/>
+      <c r="C58" s="10"/>
+      <c r="D58" s="10"/>
+      <c r="E58" s="15"/>
+      <c r="F58" s="10"/>
+      <c r="G58" s="10"/>
+      <c r="H58" s="41"/>
+      <c r="I58" s="5"/>
+    </row>
+    <row r="59" spans="1:9" s="3" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="A59" s="31"/>
+      <c r="B59" s="9"/>
+      <c r="C59" s="9"/>
+      <c r="D59" s="9"/>
+      <c r="E59" s="14"/>
+      <c r="F59" s="9"/>
+      <c r="G59" s="9"/>
+      <c r="H59" s="42"/>
+      <c r="I59" s="6"/>
+    </row>
+    <row r="60" spans="1:9" s="2" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A60" s="10"/>
+      <c r="B60" s="10"/>
+      <c r="C60" s="10"/>
+      <c r="D60" s="10"/>
+      <c r="E60" s="15"/>
+      <c r="F60" s="10"/>
+      <c r="G60" s="10"/>
+      <c r="H60" s="41"/>
+      <c r="I60" s="5"/>
+    </row>
+    <row r="61" spans="1:9" s="3" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="A61" s="31"/>
+      <c r="B61" s="9"/>
+      <c r="C61" s="9"/>
+      <c r="D61" s="9"/>
+      <c r="E61" s="14"/>
+      <c r="F61" s="9"/>
+      <c r="G61" s="9"/>
+      <c r="H61" s="42"/>
+      <c r="I61" s="6"/>
+    </row>
+    <row r="62" spans="1:9" s="2" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A62" s="10"/>
+      <c r="B62" s="10"/>
+      <c r="C62" s="10"/>
+      <c r="D62" s="10"/>
+      <c r="E62" s="15"/>
+      <c r="F62" s="10"/>
+      <c r="G62" s="10"/>
+      <c r="H62" s="41"/>
+      <c r="I62" s="5"/>
+    </row>
+    <row r="63" spans="1:9" s="3" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="A63" s="31"/>
+      <c r="B63" s="9"/>
+      <c r="C63" s="9"/>
+      <c r="D63" s="9"/>
+      <c r="E63" s="14"/>
+      <c r="F63" s="9"/>
+      <c r="G63" s="9"/>
+      <c r="H63" s="42"/>
+      <c r="I63" s="6"/>
+    </row>
+    <row r="64" spans="1:9" s="2" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A64" s="10"/>
+      <c r="B64" s="10"/>
+      <c r="C64" s="10"/>
+      <c r="D64" s="10"/>
+      <c r="E64" s="15"/>
+      <c r="F64" s="10"/>
+      <c r="G64" s="10"/>
+      <c r="H64" s="41"/>
+      <c r="I64" s="5"/>
+    </row>
+    <row r="65" spans="1:9" s="3" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="A65" s="31"/>
+      <c r="B65" s="9"/>
+      <c r="C65" s="9"/>
+      <c r="D65" s="9"/>
+      <c r="E65" s="14"/>
+      <c r="F65" s="9"/>
+      <c r="G65" s="9"/>
+      <c r="H65" s="42"/>
+      <c r="I65" s="6"/>
+    </row>
+    <row r="66" spans="1:9" s="2" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A66" s="10"/>
+      <c r="B66" s="10"/>
+      <c r="C66" s="10"/>
+      <c r="D66" s="10"/>
+      <c r="E66" s="15"/>
+      <c r="F66" s="10"/>
+      <c r="G66" s="10"/>
+      <c r="H66" s="41"/>
+      <c r="I66" s="5"/>
+    </row>
+    <row r="67" spans="1:9" s="3" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="A67" s="31"/>
+      <c r="B67" s="9"/>
+      <c r="C67" s="9"/>
+      <c r="D67" s="9"/>
+      <c r="E67" s="14"/>
+      <c r="F67" s="9"/>
+      <c r="G67" s="9"/>
+      <c r="H67" s="42"/>
+      <c r="I67" s="6"/>
+    </row>
+    <row r="68" spans="1:9" s="2" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A68" s="10"/>
+      <c r="B68" s="10"/>
+      <c r="C68" s="10"/>
+      <c r="D68" s="10"/>
+      <c r="E68" s="15"/>
+      <c r="F68" s="10"/>
+      <c r="G68" s="10"/>
+      <c r="H68" s="41"/>
+      <c r="I68" s="5"/>
+    </row>
+    <row r="69" spans="1:9" s="3" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="A69" s="31"/>
+      <c r="B69" s="9"/>
+      <c r="C69" s="9"/>
+      <c r="D69" s="9"/>
+      <c r="E69" s="14"/>
+      <c r="F69" s="9"/>
+      <c r="G69" s="9"/>
+      <c r="H69" s="42"/>
+      <c r="I69" s="6"/>
+    </row>
+    <row r="70" spans="1:9" s="2" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A70" s="10"/>
+      <c r="B70" s="10"/>
+      <c r="C70" s="10"/>
+      <c r="D70" s="10"/>
+      <c r="E70" s="15"/>
+      <c r="F70" s="10"/>
+      <c r="G70" s="10"/>
+      <c r="H70" s="41"/>
+      <c r="I70" s="5"/>
+    </row>
+    <row r="71" spans="1:9" s="3" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="A71" s="31"/>
+      <c r="B71" s="9"/>
+      <c r="C71" s="9"/>
+      <c r="D71" s="9"/>
+      <c r="E71" s="14"/>
+      <c r="F71" s="9"/>
+      <c r="G71" s="9"/>
+      <c r="H71" s="42"/>
+      <c r="I71" s="6"/>
+    </row>
+    <row r="72" spans="1:9" s="2" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A72" s="10"/>
+      <c r="B72" s="10"/>
+      <c r="C72" s="10"/>
+      <c r="D72" s="10"/>
+      <c r="E72" s="15"/>
+      <c r="F72" s="10"/>
+      <c r="G72" s="10"/>
+      <c r="H72" s="41"/>
+      <c r="I72" s="5"/>
+    </row>
+    <row r="73" spans="1:9" s="3" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="A73" s="31"/>
+      <c r="B73" s="9"/>
+      <c r="C73" s="9"/>
+      <c r="D73" s="9"/>
+      <c r="E73" s="14"/>
+      <c r="F73" s="9"/>
+      <c r="G73" s="9"/>
+      <c r="H73" s="42"/>
+      <c r="I73" s="6"/>
+    </row>
+    <row r="74" spans="1:9" s="2" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A74" s="10"/>
+      <c r="B74" s="10"/>
+      <c r="C74" s="10"/>
+      <c r="D74" s="10"/>
+      <c r="E74" s="15"/>
+      <c r="F74" s="10"/>
+      <c r="G74" s="10"/>
+      <c r="H74" s="41"/>
+      <c r="I74" s="5"/>
+    </row>
+    <row r="75" spans="1:9" s="3" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="A75" s="31"/>
+      <c r="B75" s="9"/>
+      <c r="C75" s="9"/>
+      <c r="D75" s="9"/>
+      <c r="E75" s="14"/>
+      <c r="F75" s="9"/>
+      <c r="G75" s="9"/>
+      <c r="H75" s="42"/>
+      <c r="I75" s="6"/>
+    </row>
+    <row r="76" spans="1:9" s="2" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A76" s="10"/>
+      <c r="B76" s="10"/>
+      <c r="C76" s="10"/>
+      <c r="D76" s="10"/>
+      <c r="E76" s="15"/>
+      <c r="F76" s="10"/>
+      <c r="G76" s="10"/>
+      <c r="H76" s="41"/>
+      <c r="I76" s="5"/>
+    </row>
+    <row r="77" spans="1:9" s="3" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="A77" s="31"/>
+      <c r="B77" s="9"/>
+      <c r="C77" s="9"/>
+      <c r="D77" s="9"/>
+      <c r="E77" s="14"/>
+      <c r="F77" s="9"/>
+      <c r="G77" s="9"/>
+      <c r="H77" s="42"/>
+      <c r="I77" s="6"/>
+    </row>
+    <row r="78" spans="1:9" s="2" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A78" s="10"/>
+      <c r="B78" s="10"/>
+      <c r="C78" s="10"/>
+      <c r="D78" s="10"/>
+      <c r="E78" s="15"/>
+      <c r="F78" s="10"/>
+      <c r="G78" s="10"/>
+      <c r="H78" s="41"/>
+      <c r="I78" s="5"/>
+    </row>
+    <row r="79" spans="1:9" s="3" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="A79" s="31"/>
+      <c r="B79" s="9"/>
+      <c r="C79" s="9"/>
+      <c r="D79" s="9"/>
+      <c r="E79" s="14"/>
+      <c r="F79" s="9"/>
+      <c r="G79" s="9"/>
+      <c r="H79" s="42"/>
+      <c r="I79" s="6"/>
+    </row>
+    <row r="80" spans="1:9" s="2" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A80" s="10"/>
+      <c r="B80" s="10"/>
+      <c r="C80" s="10"/>
+      <c r="D80" s="10"/>
+      <c r="E80" s="15"/>
+      <c r="F80" s="10"/>
+      <c r="G80" s="10"/>
+      <c r="H80" s="41"/>
+      <c r="I80" s="5"/>
+    </row>
+    <row r="81" spans="1:9" s="3" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="A81" s="31"/>
+      <c r="B81" s="9"/>
+      <c r="C81" s="9"/>
+      <c r="D81" s="9"/>
+      <c r="E81" s="14"/>
+      <c r="F81" s="9"/>
+      <c r="G81" s="9"/>
+      <c r="H81" s="42"/>
+      <c r="I81" s="6"/>
+    </row>
+    <row r="82" spans="1:9" s="2" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A82" s="10"/>
+      <c r="B82" s="10"/>
+      <c r="C82" s="10"/>
+      <c r="D82" s="10"/>
+      <c r="E82" s="15"/>
+      <c r="F82" s="10"/>
+      <c r="G82" s="10"/>
+      <c r="H82" s="41"/>
+      <c r="I82" s="5"/>
+    </row>
+    <row r="83" spans="1:9" s="3" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="A83" s="31"/>
+      <c r="B83" s="9"/>
+      <c r="C83" s="9"/>
+      <c r="D83" s="9"/>
+      <c r="E83" s="14"/>
+      <c r="F83" s="9"/>
+      <c r="G83" s="9"/>
+      <c r="H83" s="42"/>
+      <c r="I83" s="6"/>
+    </row>
+    <row r="84" spans="1:9" s="2" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A84" s="10"/>
+      <c r="B84" s="10"/>
+      <c r="C84" s="10"/>
+      <c r="D84" s="10"/>
+      <c r="E84" s="15"/>
+      <c r="F84" s="10"/>
+      <c r="G84" s="10"/>
+      <c r="H84" s="41"/>
+      <c r="I84" s="5"/>
+    </row>
+    <row r="85" spans="1:9" s="3" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="A85" s="31"/>
+      <c r="B85" s="9"/>
+      <c r="C85" s="9"/>
+      <c r="D85" s="9"/>
+      <c r="E85" s="14"/>
+      <c r="F85" s="9"/>
+      <c r="G85" s="9"/>
+      <c r="H85" s="42"/>
+      <c r="I85" s="6"/>
+    </row>
+    <row r="86" spans="1:9" s="2" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A86" s="10"/>
+      <c r="B86" s="10"/>
+      <c r="C86" s="10"/>
+      <c r="D86" s="10"/>
+      <c r="E86" s="15"/>
+      <c r="F86" s="10"/>
+      <c r="G86" s="10"/>
+      <c r="H86" s="41"/>
+      <c r="I86" s="5"/>
+    </row>
+    <row r="87" spans="1:9" s="3" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="A87" s="31"/>
+      <c r="B87" s="9"/>
+      <c r="C87" s="9"/>
+      <c r="D87" s="9"/>
+      <c r="E87" s="14"/>
+      <c r="F87" s="9"/>
+      <c r="G87" s="9"/>
+      <c r="H87" s="42"/>
+      <c r="I87" s="6"/>
+    </row>
+    <row r="88" spans="1:9" s="2" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A88" s="10"/>
+      <c r="B88" s="10"/>
+      <c r="C88" s="10"/>
+      <c r="D88" s="10"/>
+      <c r="E88" s="15"/>
+      <c r="F88" s="10"/>
+      <c r="G88" s="10"/>
+      <c r="H88" s="41"/>
+      <c r="I88" s="5"/>
+    </row>
+    <row r="89" spans="1:9" s="3" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="A89" s="31"/>
+      <c r="B89" s="9"/>
+      <c r="C89" s="9"/>
+      <c r="D89" s="9"/>
+      <c r="E89" s="14"/>
+      <c r="F89" s="9"/>
+      <c r="G89" s="9"/>
+      <c r="H89" s="42"/>
+      <c r="I89" s="6"/>
+    </row>
+    <row r="90" spans="1:9" s="2" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A90" s="10"/>
+      <c r="B90" s="10"/>
+      <c r="C90" s="10"/>
+      <c r="D90" s="10"/>
+      <c r="E90" s="15"/>
+      <c r="F90" s="10"/>
+      <c r="G90" s="10"/>
+      <c r="H90" s="41"/>
+      <c r="I90" s="5"/>
+    </row>
+    <row r="91" spans="1:9" s="3" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="A91" s="31"/>
+      <c r="B91" s="9"/>
+      <c r="C91" s="9"/>
+      <c r="D91" s="9"/>
+      <c r="E91" s="14"/>
+      <c r="F91" s="9"/>
+      <c r="G91" s="9"/>
+      <c r="H91" s="42"/>
+      <c r="I91" s="6"/>
+    </row>
+    <row r="92" spans="1:9" s="2" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A92" s="10"/>
+      <c r="B92" s="10"/>
+      <c r="C92" s="10"/>
+      <c r="D92" s="10"/>
+      <c r="E92" s="15"/>
+      <c r="F92" s="10"/>
+      <c r="G92" s="10"/>
+      <c r="H92" s="41"/>
+      <c r="I92" s="5"/>
+    </row>
+    <row r="93" spans="1:9" s="3" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="A93" s="31"/>
+      <c r="B93" s="9"/>
+      <c r="C93" s="9"/>
+      <c r="D93" s="9"/>
+      <c r="E93" s="14"/>
+      <c r="F93" s="9"/>
+      <c r="G93" s="9"/>
+      <c r="H93" s="42"/>
+      <c r="I93" s="6"/>
+    </row>
+    <row r="94" spans="1:9" s="2" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A94" s="10"/>
+      <c r="B94" s="10"/>
+      <c r="C94" s="10"/>
+      <c r="D94" s="10"/>
+      <c r="E94" s="15"/>
+      <c r="F94" s="10"/>
+      <c r="G94" s="10"/>
+      <c r="H94" s="41"/>
+      <c r="I94" s="5"/>
+    </row>
+    <row r="95" spans="1:9" s="3" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="A95" s="31"/>
+      <c r="B95" s="9"/>
+      <c r="C95" s="9"/>
+      <c r="D95" s="9"/>
+      <c r="E95" s="14"/>
+      <c r="F95" s="9"/>
+      <c r="G95" s="9"/>
+      <c r="H95" s="42"/>
+      <c r="I95" s="6"/>
+    </row>
+    <row r="96" spans="1:9" s="2" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A96" s="10"/>
+      <c r="B96" s="10"/>
+      <c r="C96" s="10"/>
+      <c r="D96" s="10"/>
+      <c r="E96" s="15"/>
+      <c r="F96" s="10"/>
+      <c r="G96" s="10"/>
+      <c r="H96" s="41"/>
+      <c r="I96" s="5"/>
+    </row>
+    <row r="97" spans="1:9" s="3" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="A97" s="31"/>
+      <c r="B97" s="9"/>
+      <c r="C97" s="9"/>
+      <c r="D97" s="9"/>
+      <c r="E97" s="14"/>
+      <c r="F97" s="9"/>
+      <c r="G97" s="9"/>
+      <c r="H97" s="42"/>
+      <c r="I97" s="6"/>
+    </row>
+    <row r="98" spans="1:9" s="2" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A98" s="10"/>
+      <c r="B98" s="10"/>
+      <c r="C98" s="10"/>
+      <c r="D98" s="10"/>
+      <c r="E98" s="15"/>
+      <c r="F98" s="10"/>
+      <c r="G98" s="10"/>
+      <c r="H98" s="41"/>
+      <c r="I98" s="5"/>
+    </row>
+    <row r="99" spans="1:9" s="3" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="A99" s="31"/>
+      <c r="B99" s="9"/>
+      <c r="C99" s="9"/>
+      <c r="D99" s="9"/>
+      <c r="E99" s="14"/>
+      <c r="F99" s="9"/>
+      <c r="G99" s="9"/>
+      <c r="H99" s="42"/>
+      <c r="I99" s="6"/>
+    </row>
+    <row r="100" spans="1:9" s="2" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A100" s="10"/>
+      <c r="B100" s="10"/>
+      <c r="C100" s="10"/>
+      <c r="D100" s="10"/>
+      <c r="E100" s="15"/>
+      <c r="F100" s="10"/>
+      <c r="G100" s="10"/>
+      <c r="H100" s="41"/>
+      <c r="I100" s="5"/>
+    </row>
+    <row r="101" spans="1:9" s="3" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="A101" s="31"/>
+      <c r="B101" s="9"/>
+      <c r="C101" s="9"/>
+      <c r="D101" s="9"/>
+      <c r="E101" s="14"/>
+      <c r="F101" s="9"/>
+      <c r="G101" s="9"/>
+      <c r="H101" s="42"/>
+      <c r="I101" s="6"/>
+    </row>
+    <row r="102" spans="1:9" s="2" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A102" s="10"/>
+      <c r="B102" s="10"/>
+      <c r="C102" s="10"/>
+      <c r="D102" s="10"/>
+      <c r="E102" s="15"/>
+      <c r="F102" s="10"/>
+      <c r="G102" s="10"/>
+      <c r="H102" s="41"/>
+      <c r="I102" s="5"/>
+    </row>
+    <row r="103" spans="1:9" s="3" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="A103" s="31"/>
+      <c r="B103" s="9"/>
+      <c r="C103" s="9"/>
+      <c r="D103" s="9"/>
+      <c r="E103" s="14"/>
+      <c r="F103" s="9"/>
+      <c r="G103" s="9"/>
+      <c r="H103" s="42"/>
+      <c r="I103" s="6"/>
+    </row>
+    <row r="104" spans="1:9" s="2" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A104" s="10"/>
+      <c r="B104" s="10"/>
+      <c r="C104" s="10"/>
+      <c r="D104" s="10"/>
+      <c r="E104" s="15"/>
+      <c r="F104" s="10"/>
+      <c r="G104" s="10"/>
+      <c r="H104" s="41"/>
+      <c r="I104" s="5"/>
+    </row>
+    <row r="105" spans="1:9" s="3" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="A105" s="31"/>
+      <c r="B105" s="9"/>
+      <c r="C105" s="9"/>
+      <c r="D105" s="9"/>
+      <c r="E105" s="14"/>
+      <c r="F105" s="9"/>
+      <c r="G105" s="9"/>
+      <c r="H105" s="42"/>
+      <c r="I105" s="6"/>
+    </row>
+    <row r="106" spans="1:9" s="2" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A106" s="10"/>
+      <c r="B106" s="10"/>
+      <c r="C106" s="10"/>
+      <c r="D106" s="10"/>
+      <c r="E106" s="15"/>
+      <c r="F106" s="10"/>
+      <c r="G106" s="10"/>
+      <c r="H106" s="41"/>
+      <c r="I106" s="5"/>
+    </row>
+    <row r="107" spans="1:9" s="3" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="A107" s="31"/>
+      <c r="B107" s="9"/>
+      <c r="C107" s="9"/>
+      <c r="D107" s="9"/>
+      <c r="E107" s="14"/>
+      <c r="F107" s="9"/>
+      <c r="G107" s="9"/>
+      <c r="H107" s="42"/>
+      <c r="I107" s="6"/>
+    </row>
+    <row r="108" spans="1:9" s="2" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A108" s="10"/>
+      <c r="B108" s="10"/>
+      <c r="C108" s="10"/>
+      <c r="D108" s="10"/>
+      <c r="E108" s="15"/>
+      <c r="F108" s="10"/>
+      <c r="G108" s="10"/>
+      <c r="H108" s="41"/>
+      <c r="I108" s="5"/>
+    </row>
+    <row r="109" spans="1:9" s="3" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="A109" s="31"/>
+      <c r="B109" s="9"/>
+      <c r="C109" s="9"/>
+      <c r="D109" s="9"/>
+      <c r="E109" s="14"/>
+      <c r="F109" s="9"/>
+      <c r="G109" s="9"/>
+      <c r="H109" s="42"/>
+      <c r="I109" s="6"/>
+    </row>
+    <row r="110" spans="1:9" s="2" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A110" s="10"/>
+      <c r="B110" s="10"/>
+      <c r="C110" s="10"/>
+      <c r="D110" s="10"/>
+      <c r="E110" s="15"/>
+      <c r="F110" s="10"/>
+      <c r="G110" s="10"/>
+      <c r="H110" s="41"/>
+      <c r="I110" s="5"/>
+    </row>
+    <row r="111" spans="1:9" s="3" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="A111" s="31"/>
+      <c r="B111" s="9"/>
+      <c r="C111" s="9"/>
+      <c r="D111" s="9"/>
+      <c r="E111" s="14"/>
+      <c r="F111" s="9"/>
+      <c r="G111" s="9"/>
+      <c r="H111" s="42"/>
+      <c r="I111" s="6"/>
+    </row>
+    <row r="112" spans="1:9" s="2" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A112" s="10"/>
+      <c r="B112" s="10"/>
+      <c r="C112" s="10"/>
+      <c r="D112" s="10"/>
+      <c r="E112" s="15"/>
+      <c r="F112" s="10"/>
+      <c r="G112" s="10"/>
+      <c r="H112" s="41"/>
+      <c r="I112" s="5"/>
+    </row>
+    <row r="113" spans="1:9" s="3" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="A113" s="31"/>
+      <c r="B113" s="9"/>
+      <c r="C113" s="9"/>
+      <c r="D113" s="9"/>
+      <c r="E113" s="14"/>
+      <c r="F113" s="9"/>
+      <c r="G113" s="9"/>
+      <c r="H113" s="42"/>
+      <c r="I113" s="6"/>
+    </row>
+    <row r="114" spans="1:9" s="2" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A114" s="10"/>
+      <c r="B114" s="10"/>
+      <c r="C114" s="10"/>
+      <c r="D114" s="10"/>
+      <c r="E114" s="15"/>
+      <c r="F114" s="10"/>
+      <c r="G114" s="10"/>
+      <c r="H114" s="41"/>
+      <c r="I114" s="5"/>
+    </row>
+    <row r="115" spans="1:9" s="3" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="A115" s="31"/>
+      <c r="B115" s="9"/>
+      <c r="C115" s="9"/>
+      <c r="D115" s="9"/>
+      <c r="E115" s="14"/>
+      <c r="F115" s="9"/>
+      <c r="G115" s="9"/>
+      <c r="H115" s="42"/>
+      <c r="I115" s="6"/>
+    </row>
+    <row r="116" spans="1:9" s="2" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A116" s="10"/>
+      <c r="B116" s="10"/>
+      <c r="C116" s="10"/>
+      <c r="D116" s="10"/>
+      <c r="E116" s="15"/>
+      <c r="F116" s="10"/>
+      <c r="G116" s="10"/>
+      <c r="H116" s="41"/>
+      <c r="I116" s="5"/>
+    </row>
+    <row r="117" spans="1:9" s="3" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="A117" s="31"/>
+      <c r="B117" s="9"/>
+      <c r="C117" s="9"/>
+      <c r="D117" s="9"/>
+      <c r="E117" s="14"/>
+      <c r="F117" s="9"/>
+      <c r="G117" s="9"/>
+      <c r="H117" s="42"/>
+      <c r="I117" s="6"/>
+    </row>
+    <row r="118" spans="1:9" s="2" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A118" s="10"/>
+      <c r="B118" s="10"/>
+      <c r="C118" s="10"/>
+      <c r="D118" s="10"/>
+      <c r="E118" s="15"/>
+      <c r="F118" s="10"/>
+      <c r="G118" s="10"/>
+      <c r="H118" s="41"/>
+      <c r="I118" s="5"/>
+    </row>
+    <row r="119" spans="1:9" s="3" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="A119" s="31"/>
+      <c r="B119" s="9"/>
+      <c r="C119" s="9"/>
+      <c r="D119" s="9"/>
+      <c r="E119" s="14"/>
+      <c r="F119" s="9"/>
+      <c r="G119" s="9"/>
+      <c r="H119" s="42"/>
+      <c r="I119" s="6"/>
+    </row>
+    <row r="120" spans="1:9" s="2" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A120" s="10"/>
+      <c r="B120" s="10"/>
+      <c r="C120" s="10"/>
+      <c r="D120" s="10"/>
+      <c r="E120" s="15"/>
+      <c r="F120" s="10"/>
+      <c r="G120" s="10"/>
+      <c r="H120" s="41"/>
+      <c r="I120" s="5"/>
+    </row>
+    <row r="121" spans="1:9" s="3" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="A121" s="31"/>
+      <c r="B121" s="9"/>
+      <c r="C121" s="9"/>
+      <c r="D121" s="9"/>
+      <c r="E121" s="14"/>
+      <c r="F121" s="9"/>
+      <c r="G121" s="9"/>
+      <c r="H121" s="42"/>
+      <c r="I121" s="6"/>
+    </row>
+    <row r="122" spans="1:9" s="2" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A122" s="10"/>
+      <c r="B122" s="10"/>
+      <c r="C122" s="10"/>
+      <c r="D122" s="10"/>
+      <c r="E122" s="15"/>
+      <c r="F122" s="10"/>
+      <c r="G122" s="10"/>
+      <c r="H122" s="41"/>
+      <c r="I122" s="5"/>
+    </row>
+    <row r="123" spans="1:9" s="3" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="A123" s="31"/>
+      <c r="B123" s="9"/>
+      <c r="C123" s="9"/>
+      <c r="D123" s="9"/>
+      <c r="E123" s="14"/>
+      <c r="F123" s="9"/>
+      <c r="G123" s="9"/>
+      <c r="H123" s="42"/>
+      <c r="I123" s="6"/>
+    </row>
+    <row r="124" spans="1:9" s="2" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A124" s="10"/>
+      <c r="B124" s="10"/>
+      <c r="C124" s="10"/>
+      <c r="D124" s="10"/>
+      <c r="E124" s="15"/>
+      <c r="F124" s="10"/>
+      <c r="G124" s="10"/>
+      <c r="H124" s="41"/>
+      <c r="I124" s="5"/>
+    </row>
+    <row r="125" spans="1:9" s="3" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="A125" s="31"/>
+      <c r="B125" s="9"/>
+      <c r="C125" s="9"/>
+      <c r="D125" s="9"/>
+      <c r="E125" s="14"/>
+      <c r="F125" s="9"/>
+      <c r="G125" s="9"/>
+      <c r="H125" s="42"/>
+      <c r="I125" s="6"/>
+    </row>
+    <row r="126" spans="1:9" s="2" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A126" s="10"/>
+      <c r="B126" s="10"/>
+      <c r="C126" s="10"/>
+      <c r="D126" s="10"/>
+      <c r="E126" s="15"/>
+      <c r="F126" s="10"/>
+      <c r="G126" s="10"/>
+      <c r="H126" s="41"/>
+      <c r="I126" s="5"/>
+    </row>
+    <row r="127" spans="1:9" s="3" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="A127" s="31"/>
+      <c r="B127" s="9"/>
+      <c r="C127" s="9"/>
+      <c r="D127" s="9"/>
+      <c r="E127" s="14"/>
+      <c r="F127" s="9"/>
+      <c r="G127" s="9"/>
+      <c r="H127" s="42"/>
+      <c r="I127" s="6"/>
+    </row>
+    <row r="128" spans="1:9" s="2" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A128" s="10"/>
+      <c r="B128" s="10"/>
+      <c r="C128" s="10"/>
+      <c r="D128" s="10"/>
+      <c r="E128" s="15"/>
+      <c r="F128" s="10"/>
+      <c r="G128" s="10"/>
+      <c r="H128" s="41"/>
+      <c r="I128" s="5"/>
+    </row>
+    <row r="129" spans="1:9" s="3" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="A129" s="31"/>
+      <c r="B129" s="9"/>
+      <c r="C129" s="9"/>
+      <c r="D129" s="9"/>
+      <c r="E129" s="14"/>
+      <c r="F129" s="9"/>
+      <c r="G129" s="9"/>
+      <c r="H129" s="42"/>
+      <c r="I129" s="6"/>
+    </row>
+    <row r="130" spans="1:9" s="2" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A130" s="10"/>
+      <c r="B130" s="10"/>
+      <c r="C130" s="10"/>
+      <c r="D130" s="10"/>
+      <c r="E130" s="15"/>
+      <c r="F130" s="10"/>
+      <c r="G130" s="10"/>
+      <c r="H130" s="41"/>
+      <c r="I130" s="5"/>
+    </row>
+    <row r="131" spans="1:9" s="3" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="A131" s="31"/>
+      <c r="B131" s="9"/>
+      <c r="C131" s="9"/>
+      <c r="D131" s="9"/>
+      <c r="E131" s="14"/>
+      <c r="F131" s="9"/>
+      <c r="G131" s="9"/>
+      <c r="H131" s="42"/>
+      <c r="I131" s="6"/>
+    </row>
+    <row r="132" spans="1:9" s="2" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A132" s="10"/>
+      <c r="B132" s="10"/>
+      <c r="C132" s="10"/>
+      <c r="D132" s="10"/>
+      <c r="E132" s="15"/>
+      <c r="F132" s="10"/>
+      <c r="G132" s="10"/>
+      <c r="H132" s="41"/>
+      <c r="I132" s="5"/>
+    </row>
+    <row r="133" spans="1:9" s="3" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="A133" s="31"/>
+      <c r="B133" s="9"/>
+      <c r="C133" s="9"/>
+      <c r="D133" s="9"/>
+      <c r="E133" s="14"/>
+      <c r="F133" s="9"/>
+      <c r="G133" s="9"/>
+      <c r="H133" s="42"/>
+      <c r="I133" s="6"/>
+    </row>
+    <row r="134" spans="1:9" s="2" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A134" s="10"/>
+      <c r="B134" s="10"/>
+      <c r="C134" s="10"/>
+      <c r="D134" s="10"/>
+      <c r="E134" s="15"/>
+      <c r="F134" s="10"/>
+      <c r="G134" s="10"/>
+      <c r="H134" s="41"/>
+      <c r="I134" s="5"/>
+    </row>
+    <row r="135" spans="1:9" s="3" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="A135" s="31"/>
+      <c r="B135" s="9"/>
+      <c r="C135" s="9"/>
+      <c r="D135" s="9"/>
+      <c r="E135" s="14"/>
+      <c r="F135" s="9"/>
+      <c r="G135" s="9"/>
+      <c r="H135" s="42"/>
+      <c r="I135" s="6"/>
+    </row>
+    <row r="136" spans="1:9" s="2" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A136" s="10"/>
+      <c r="B136" s="10"/>
+      <c r="C136" s="10"/>
+      <c r="D136" s="10"/>
+      <c r="E136" s="15"/>
+      <c r="F136" s="10"/>
+      <c r="G136" s="10"/>
+      <c r="H136" s="41"/>
+      <c r="I136" s="5"/>
+    </row>
+    <row r="137" spans="1:9" s="3" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="A137" s="31"/>
+      <c r="B137" s="9"/>
+      <c r="C137" s="9"/>
+      <c r="D137" s="9"/>
+      <c r="E137" s="14"/>
+      <c r="F137" s="9"/>
+      <c r="G137" s="9"/>
+      <c r="H137" s="42"/>
+      <c r="I137" s="6"/>
+    </row>
+    <row r="138" spans="1:9" s="2" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A138" s="10"/>
+      <c r="B138" s="10"/>
+      <c r="C138" s="10"/>
+      <c r="D138" s="10"/>
+      <c r="E138" s="15"/>
+      <c r="F138" s="10"/>
+      <c r="G138" s="10"/>
+      <c r="H138" s="41"/>
+      <c r="I138" s="5"/>
+    </row>
+    <row r="139" spans="1:9" s="3" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="A139" s="31"/>
+      <c r="B139" s="9"/>
+      <c r="C139" s="9"/>
+      <c r="D139" s="9"/>
+      <c r="E139" s="14"/>
+      <c r="F139" s="9"/>
+      <c r="G139" s="9"/>
+      <c r="H139" s="42"/>
+      <c r="I139" s="6"/>
+    </row>
+    <row r="140" spans="1:9" s="2" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A140" s="10"/>
+      <c r="B140" s="10"/>
+      <c r="C140" s="10"/>
+      <c r="D140" s="10"/>
+      <c r="E140" s="15"/>
+      <c r="F140" s="10"/>
+      <c r="G140" s="10"/>
+      <c r="H140" s="41"/>
+      <c r="I140" s="5"/>
+    </row>
+    <row r="141" spans="1:9" s="3" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="A141" s="31"/>
+      <c r="B141" s="9"/>
+      <c r="C141" s="9"/>
+      <c r="D141" s="9"/>
+      <c r="E141" s="14"/>
+      <c r="F141" s="9"/>
+      <c r="G141" s="9"/>
+      <c r="H141" s="42"/>
+      <c r="I141" s="6"/>
+    </row>
+    <row r="142" spans="1:9" s="2" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A142" s="10"/>
+      <c r="B142" s="10"/>
+      <c r="C142" s="10"/>
+      <c r="D142" s="10"/>
+      <c r="E142" s="15"/>
+      <c r="F142" s="10"/>
+      <c r="G142" s="10"/>
+      <c r="H142" s="41"/>
+      <c r="I142" s="5"/>
+    </row>
+    <row r="143" spans="1:9" s="3" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="A143" s="31"/>
+      <c r="B143" s="9"/>
+      <c r="C143" s="9"/>
+      <c r="D143" s="9"/>
+      <c r="E143" s="14"/>
+      <c r="F143" s="9"/>
+      <c r="G143" s="9"/>
+      <c r="H143" s="42"/>
+      <c r="I143" s="6"/>
+    </row>
+    <row r="144" spans="1:9" s="2" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A144" s="10"/>
+      <c r="B144" s="10"/>
+      <c r="C144" s="10"/>
+      <c r="D144" s="10"/>
+      <c r="E144" s="15"/>
+      <c r="F144" s="10"/>
+      <c r="G144" s="10"/>
+      <c r="H144" s="41"/>
+      <c r="I144" s="5"/>
+    </row>
+    <row r="145" spans="1:9" s="3" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="A145" s="31"/>
+      <c r="B145" s="9"/>
+      <c r="C145" s="9"/>
+      <c r="D145" s="9"/>
+      <c r="E145" s="14"/>
+      <c r="F145" s="9"/>
+      <c r="G145" s="9"/>
+      <c r="H145" s="42"/>
+      <c r="I145" s="6"/>
+    </row>
+    <row r="146" spans="1:9" s="2" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A146" s="10"/>
+      <c r="B146" s="10"/>
+      <c r="C146" s="10"/>
+      <c r="D146" s="10"/>
+      <c r="E146" s="15"/>
+      <c r="F146" s="10"/>
+      <c r="G146" s="10"/>
+      <c r="H146" s="41"/>
+      <c r="I146" s="5"/>
+    </row>
+    <row r="147" spans="1:9" s="3" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="A147" s="31"/>
+      <c r="B147" s="9"/>
+      <c r="C147" s="9"/>
+      <c r="D147" s="9"/>
+      <c r="E147" s="14"/>
+      <c r="F147" s="9"/>
+      <c r="G147" s="9"/>
+      <c r="H147" s="42"/>
+      <c r="I147" s="6"/>
+    </row>
+    <row r="148" spans="1:9" s="2" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A148" s="10"/>
+      <c r="B148" s="10"/>
+      <c r="C148" s="10"/>
+      <c r="D148" s="10"/>
+      <c r="E148" s="15"/>
+      <c r="F148" s="10"/>
+      <c r="G148" s="10"/>
+      <c r="H148" s="41"/>
+      <c r="I148" s="5"/>
+    </row>
+    <row r="149" spans="1:9" s="3" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="A149" s="31"/>
+      <c r="B149" s="9"/>
+      <c r="C149" s="9"/>
+      <c r="D149" s="9"/>
+      <c r="E149" s="14"/>
+      <c r="F149" s="9"/>
+      <c r="G149" s="9"/>
+      <c r="H149" s="42"/>
+      <c r="I149" s="6"/>
+    </row>
+    <row r="150" spans="1:9" s="2" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A150" s="10"/>
+      <c r="B150" s="10"/>
+      <c r="C150" s="10"/>
+      <c r="D150" s="10"/>
+      <c r="E150" s="15"/>
+      <c r="F150" s="10"/>
+      <c r="G150" s="10"/>
+      <c r="H150" s="41"/>
+      <c r="I150" s="5"/>
+    </row>
+    <row r="151" spans="1:9" s="3" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="A151" s="31"/>
+      <c r="B151" s="9"/>
+      <c r="C151" s="9"/>
+      <c r="D151" s="9"/>
+      <c r="E151" s="14"/>
+      <c r="F151" s="9"/>
+      <c r="G151" s="9"/>
+      <c r="H151" s="42"/>
+      <c r="I151" s="6"/>
+    </row>
+    <row r="152" spans="1:9" s="2" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A152" s="10"/>
+      <c r="B152" s="10"/>
+      <c r="C152" s="10"/>
+      <c r="D152" s="10"/>
+      <c r="E152" s="15"/>
+      <c r="F152" s="10"/>
+      <c r="G152" s="10"/>
+      <c r="H152" s="41"/>
+      <c r="I152" s="5"/>
+    </row>
+    <row r="153" spans="1:9" s="3" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="A153" s="31"/>
+      <c r="B153" s="9"/>
+      <c r="C153" s="9"/>
+      <c r="D153" s="9"/>
+      <c r="E153" s="14"/>
+      <c r="F153" s="9"/>
+      <c r="G153" s="9"/>
+      <c r="H153" s="42"/>
+      <c r="I153" s="6"/>
+    </row>
+    <row r="154" spans="1:9" s="2" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A154" s="10"/>
+      <c r="B154" s="10"/>
+      <c r="C154" s="10"/>
+      <c r="D154" s="10"/>
+      <c r="E154" s="15"/>
+      <c r="F154" s="10"/>
+      <c r="G154" s="10"/>
+      <c r="H154" s="41"/>
+      <c r="I154" s="5"/>
+    </row>
+    <row r="155" spans="1:9" s="3" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="A155" s="31"/>
+      <c r="B155" s="9"/>
+      <c r="C155" s="9"/>
+      <c r="D155" s="9"/>
+      <c r="E155" s="14"/>
+      <c r="F155" s="9"/>
+      <c r="G155" s="9"/>
+      <c r="H155" s="42"/>
+      <c r="I155" s="6"/>
+    </row>
+    <row r="156" spans="1:9" s="2" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A156" s="10"/>
+      <c r="B156" s="10"/>
+      <c r="C156" s="10"/>
+      <c r="D156" s="10"/>
+      <c r="E156" s="15"/>
+      <c r="F156" s="10"/>
+      <c r="G156" s="10"/>
+      <c r="H156" s="41"/>
+      <c r="I156" s="5"/>
+    </row>
+    <row r="157" spans="1:9" s="3" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="A157" s="31"/>
+      <c r="B157" s="9"/>
+      <c r="C157" s="9"/>
+      <c r="D157" s="9"/>
+      <c r="E157" s="14"/>
+      <c r="F157" s="9"/>
+      <c r="G157" s="9"/>
+      <c r="H157" s="42"/>
+      <c r="I157" s="6"/>
+    </row>
+    <row r="158" spans="1:9" s="2" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A158" s="10"/>
+      <c r="B158" s="10"/>
+      <c r="C158" s="10"/>
+      <c r="D158" s="10"/>
+      <c r="E158" s="15"/>
+      <c r="F158" s="10"/>
+      <c r="G158" s="10"/>
+      <c r="H158" s="41"/>
+      <c r="I158" s="5"/>
+    </row>
+    <row r="159" spans="1:9" s="3" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="A159" s="31"/>
+      <c r="B159" s="9"/>
+      <c r="C159" s="9"/>
+      <c r="D159" s="9"/>
+      <c r="E159" s="14"/>
+      <c r="F159" s="9"/>
+      <c r="G159" s="9"/>
+      <c r="H159" s="42"/>
+      <c r="I159" s="6"/>
+    </row>
+    <row r="160" spans="1:9" s="2" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A160" s="10"/>
+      <c r="B160" s="10"/>
+      <c r="C160" s="10"/>
+      <c r="D160" s="10"/>
+      <c r="E160" s="15"/>
+      <c r="F160" s="10"/>
+      <c r="G160" s="10"/>
+      <c r="H160" s="41"/>
+      <c r="I160" s="5"/>
+    </row>
+    <row r="161" spans="1:9" s="3" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="A161" s="31"/>
+      <c r="B161" s="9"/>
+      <c r="C161" s="9"/>
+      <c r="D161" s="9"/>
+      <c r="E161" s="14"/>
+      <c r="F161" s="9"/>
+      <c r="G161" s="9"/>
+      <c r="H161" s="42"/>
+      <c r="I161" s="6"/>
+    </row>
+    <row r="162" spans="1:9" s="2" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A162" s="10"/>
+      <c r="B162" s="10"/>
+      <c r="C162" s="10"/>
+      <c r="D162" s="10"/>
+      <c r="E162" s="15"/>
+      <c r="F162" s="10"/>
+      <c r="G162" s="10"/>
+      <c r="H162" s="41"/>
+      <c r="I162" s="5"/>
+    </row>
+    <row r="163" spans="1:9" s="3" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="A163" s="31"/>
+      <c r="B163" s="9"/>
+      <c r="C163" s="9"/>
+      <c r="D163" s="9"/>
+      <c r="E163" s="14"/>
+      <c r="F163" s="9"/>
+      <c r="G163" s="9"/>
+      <c r="H163" s="42"/>
+      <c r="I163" s="6"/>
+    </row>
+    <row r="164" spans="1:9" s="2" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A164" s="10"/>
+      <c r="B164" s="10"/>
+      <c r="C164" s="10"/>
+      <c r="D164" s="10"/>
+      <c r="E164" s="15"/>
+      <c r="F164" s="10"/>
+      <c r="G164" s="10"/>
+      <c r="H164" s="41"/>
+      <c r="I164" s="5"/>
+    </row>
+    <row r="165" spans="1:9" s="3" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="A165" s="31"/>
+      <c r="B165" s="9"/>
+      <c r="C165" s="9"/>
+      <c r="D165" s="9"/>
+      <c r="E165" s="14"/>
+      <c r="F165" s="9"/>
+      <c r="G165" s="9"/>
+      <c r="H165" s="42"/>
+      <c r="I165" s="6"/>
+    </row>
+    <row r="166" spans="1:9" s="2" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A166" s="10"/>
+      <c r="B166" s="10"/>
+      <c r="C166" s="10"/>
+      <c r="D166" s="10"/>
+      <c r="E166" s="15"/>
+      <c r="F166" s="10"/>
+      <c r="G166" s="10"/>
+      <c r="H166" s="41"/>
+      <c r="I166" s="5"/>
+    </row>
+    <row r="167" spans="1:9" s="3" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="A167" s="31"/>
+      <c r="B167" s="9"/>
+      <c r="C167" s="9"/>
+      <c r="D167" s="9"/>
+      <c r="E167" s="14"/>
+      <c r="F167" s="9"/>
+      <c r="G167" s="9"/>
+      <c r="H167" s="42"/>
+      <c r="I167" s="6"/>
+    </row>
+    <row r="168" spans="1:9" s="2" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A168" s="10"/>
+      <c r="B168" s="10"/>
+      <c r="C168" s="10"/>
+      <c r="D168" s="10"/>
+      <c r="E168" s="15"/>
+      <c r="F168" s="10"/>
+      <c r="G168" s="10"/>
+      <c r="H168" s="41"/>
+      <c r="I168" s="5"/>
+    </row>
+    <row r="169" spans="1:9" s="3" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="A169" s="31"/>
+      <c r="B169" s="9"/>
+      <c r="C169" s="9"/>
+      <c r="D169" s="9"/>
+      <c r="E169" s="14"/>
+      <c r="F169" s="9"/>
+      <c r="G169" s="9"/>
+      <c r="H169" s="42"/>
+      <c r="I169" s="6"/>
+    </row>
+    <row r="170" spans="1:9" s="2" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A170" s="10"/>
+      <c r="B170" s="10"/>
+      <c r="C170" s="10"/>
+      <c r="D170" s="10"/>
+      <c r="E170" s="15"/>
+      <c r="F170" s="10"/>
+      <c r="G170" s="10"/>
+      <c r="H170" s="41"/>
+      <c r="I170" s="5"/>
+    </row>
+    <row r="171" spans="1:9" s="3" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="A171" s="31"/>
+      <c r="B171" s="9"/>
+      <c r="C171" s="9"/>
+      <c r="D171" s="9"/>
+      <c r="E171" s="14"/>
+      <c r="F171" s="9"/>
+      <c r="G171" s="9"/>
+      <c r="H171" s="42"/>
+      <c r="I171" s="6"/>
+    </row>
+    <row r="172" spans="1:9" s="2" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A172" s="10"/>
+      <c r="B172" s="10"/>
+      <c r="C172" s="10"/>
+      <c r="D172" s="10"/>
+      <c r="E172" s="15"/>
+      <c r="F172" s="10"/>
+      <c r="G172" s="10"/>
+      <c r="H172" s="41"/>
+      <c r="I172" s="5"/>
+    </row>
+    <row r="173" spans="1:9" s="3" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="A173" s="31"/>
+      <c r="B173" s="9"/>
+      <c r="C173" s="9"/>
+      <c r="D173" s="9"/>
+      <c r="E173" s="14"/>
+      <c r="F173" s="9"/>
+      <c r="G173" s="9"/>
+      <c r="H173" s="42"/>
+      <c r="I173" s="6"/>
+    </row>
+    <row r="174" spans="1:9" s="2" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A174" s="10"/>
+      <c r="B174" s="10"/>
+      <c r="C174" s="10"/>
+      <c r="D174" s="10"/>
+      <c r="E174" s="15"/>
+      <c r="F174" s="10"/>
+      <c r="G174" s="10"/>
+      <c r="H174" s="41"/>
+      <c r="I174" s="5"/>
+    </row>
+    <row r="175" spans="1:9" s="3" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="A175" s="31"/>
+      <c r="B175" s="9"/>
+      <c r="C175" s="9"/>
+      <c r="D175" s="9"/>
+      <c r="E175" s="14"/>
+      <c r="F175" s="9"/>
+      <c r="G175" s="9"/>
+      <c r="H175" s="42"/>
+      <c r="I175" s="6"/>
+    </row>
+    <row r="176" spans="1:9" s="2" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A176" s="10"/>
+      <c r="B176" s="10"/>
+      <c r="C176" s="10"/>
+      <c r="D176" s="10"/>
+      <c r="E176" s="15"/>
+      <c r="F176" s="10"/>
+      <c r="G176" s="10"/>
+      <c r="H176" s="41"/>
+      <c r="I176" s="5"/>
+    </row>
+    <row r="177" spans="1:9" s="3" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="A177" s="31"/>
+      <c r="B177" s="9"/>
+      <c r="C177" s="9"/>
+      <c r="D177" s="9"/>
+      <c r="E177" s="14"/>
+      <c r="F177" s="9"/>
+      <c r="G177" s="9"/>
+      <c r="H177" s="42"/>
+      <c r="I177" s="6"/>
+    </row>
+    <row r="178" spans="1:9" s="2" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A178" s="10"/>
+      <c r="B178" s="10"/>
+      <c r="C178" s="10"/>
+      <c r="D178" s="10"/>
+      <c r="E178" s="15"/>
+      <c r="F178" s="10"/>
+      <c r="G178" s="10"/>
+      <c r="H178" s="41"/>
+      <c r="I178" s="5"/>
+    </row>
+    <row r="179" spans="1:9" s="3" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="A179" s="31"/>
+      <c r="B179" s="9"/>
+      <c r="C179" s="9"/>
+      <c r="D179" s="9"/>
+      <c r="E179" s="14"/>
+      <c r="F179" s="9"/>
+      <c r="G179" s="9"/>
+      <c r="H179" s="42"/>
+      <c r="I179" s="6"/>
+    </row>
+    <row r="180" spans="1:9" s="2" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A180" s="10"/>
+      <c r="B180" s="10"/>
+      <c r="C180" s="10"/>
+      <c r="D180" s="10"/>
+      <c r="E180" s="15"/>
+      <c r="F180" s="10"/>
+      <c r="G180" s="10"/>
+      <c r="H180" s="41"/>
+      <c r="I180" s="5"/>
+    </row>
+    <row r="181" spans="1:9" s="3" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="A181" s="31"/>
+      <c r="B181" s="9"/>
+      <c r="C181" s="9"/>
+      <c r="D181" s="9"/>
+      <c r="E181" s="14"/>
+      <c r="F181" s="9"/>
+      <c r="G181" s="9"/>
+      <c r="H181" s="42"/>
+      <c r="I181" s="6"/>
+    </row>
+    <row r="182" spans="1:9" s="2" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A182" s="10"/>
+      <c r="B182" s="10"/>
+      <c r="C182" s="10"/>
+      <c r="D182" s="10"/>
+      <c r="E182" s="15"/>
+      <c r="F182" s="10"/>
+      <c r="G182" s="10"/>
+      <c r="H182" s="41"/>
+      <c r="I182" s="5"/>
+    </row>
+    <row r="183" spans="1:9" s="3" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="A183" s="31"/>
+      <c r="B183" s="9"/>
+      <c r="C183" s="9"/>
+      <c r="D183" s="9"/>
+      <c r="E183" s="14"/>
+      <c r="F183" s="9"/>
+      <c r="G183" s="9"/>
+      <c r="H183" s="42"/>
+      <c r="I183" s="6"/>
+    </row>
+    <row r="184" spans="1:9" s="2" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A184" s="10"/>
+      <c r="B184" s="10"/>
+      <c r="C184" s="10"/>
+      <c r="D184" s="10"/>
+      <c r="E184" s="15"/>
+      <c r="F184" s="10"/>
+      <c r="G184" s="10"/>
+      <c r="H184" s="41"/>
+      <c r="I184" s="5"/>
+    </row>
+    <row r="185" spans="1:9" s="3" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="A185" s="31"/>
+      <c r="B185" s="9"/>
+      <c r="C185" s="9"/>
+      <c r="D185" s="9"/>
+      <c r="E185" s="14"/>
+      <c r="F185" s="9"/>
+      <c r="G185" s="9"/>
+      <c r="H185" s="42"/>
+      <c r="I185" s="6"/>
+    </row>
+    <row r="186" spans="1:9" s="2" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A186" s="10"/>
+      <c r="B186" s="10"/>
+      <c r="C186" s="10"/>
+      <c r="D186" s="10"/>
+      <c r="E186" s="15"/>
+      <c r="F186" s="10"/>
+      <c r="G186" s="10"/>
+      <c r="H186" s="41"/>
+      <c r="I186" s="5"/>
+    </row>
+    <row r="187" spans="1:9" s="3" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="A187" s="31"/>
+      <c r="B187" s="9"/>
+      <c r="C187" s="9"/>
+      <c r="D187" s="9"/>
+      <c r="E187" s="14"/>
+      <c r="F187" s="9"/>
+      <c r="G187" s="9"/>
+      <c r="H187" s="42"/>
+      <c r="I187" s="6"/>
+    </row>
+    <row r="188" spans="1:9" s="2" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A188" s="10"/>
+      <c r="B188" s="10"/>
+      <c r="C188" s="10"/>
+      <c r="D188" s="10"/>
+      <c r="E188" s="15"/>
+      <c r="F188" s="10"/>
+      <c r="G188" s="10"/>
+      <c r="H188" s="41"/>
+      <c r="I188" s="5"/>
+    </row>
+    <row r="189" spans="1:9" s="3" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="A189" s="31"/>
+      <c r="B189" s="9"/>
+      <c r="C189" s="9"/>
+      <c r="D189" s="9"/>
+      <c r="E189" s="14"/>
+      <c r="F189" s="9"/>
+      <c r="G189" s="9"/>
+      <c r="H189" s="42"/>
+      <c r="I189" s="6"/>
+    </row>
+    <row r="190" spans="1:9" s="2" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A190" s="10"/>
+      <c r="B190" s="10"/>
+      <c r="C190" s="10"/>
+      <c r="D190" s="10"/>
+      <c r="E190" s="15"/>
+      <c r="F190" s="10"/>
+      <c r="G190" s="10"/>
+      <c r="H190" s="41"/>
+      <c r="I190" s="5"/>
+    </row>
+    <row r="191" spans="1:9" s="3" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="A191" s="31"/>
+      <c r="B191" s="9"/>
+      <c r="C191" s="9"/>
+      <c r="D191" s="9"/>
+      <c r="E191" s="14"/>
+      <c r="F191" s="9"/>
+      <c r="G191" s="9"/>
+      <c r="H191" s="42"/>
+      <c r="I191" s="6"/>
+    </row>
+    <row r="192" spans="1:9" s="2" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A192" s="10"/>
+      <c r="B192" s="10"/>
+      <c r="C192" s="10"/>
+      <c r="D192" s="10"/>
+      <c r="E192" s="15"/>
+      <c r="F192" s="10"/>
+      <c r="G192" s="10"/>
+      <c r="H192" s="41"/>
+      <c r="I192" s="5"/>
+    </row>
+    <row r="193" spans="1:9" s="3" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="A193" s="31"/>
+      <c r="B193" s="9"/>
+      <c r="C193" s="9"/>
+      <c r="D193" s="9"/>
+      <c r="E193" s="14"/>
+      <c r="F193" s="9"/>
+      <c r="G193" s="9"/>
+      <c r="H193" s="42"/>
+      <c r="I193" s="6"/>
+    </row>
+    <row r="194" spans="1:9" s="2" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A194" s="10"/>
+      <c r="B194" s="10"/>
+      <c r="C194" s="10"/>
+      <c r="D194" s="10"/>
+      <c r="E194" s="15"/>
+      <c r="F194" s="10"/>
+      <c r="G194" s="10"/>
+      <c r="H194" s="41"/>
+      <c r="I194" s="5"/>
+    </row>
+    <row r="195" spans="1:9" s="3" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="A195" s="31"/>
+      <c r="B195" s="9"/>
+      <c r="C195" s="9"/>
+      <c r="D195" s="9"/>
+      <c r="E195" s="14"/>
+      <c r="F195" s="9"/>
+      <c r="G195" s="9"/>
+      <c r="H195" s="42"/>
+      <c r="I195" s="6"/>
+    </row>
+    <row r="196" spans="1:9" s="2" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A196" s="10"/>
+      <c r="B196" s="10"/>
+      <c r="C196" s="10"/>
+      <c r="D196" s="10"/>
+      <c r="E196" s="15"/>
+      <c r="F196" s="10"/>
+      <c r="G196" s="10"/>
+      <c r="H196" s="41"/>
+      <c r="I196" s="5"/>
+    </row>
+    <row r="197" spans="1:9" s="3" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="A197" s="31"/>
+      <c r="B197" s="9"/>
+      <c r="C197" s="9"/>
+      <c r="D197" s="9"/>
+      <c r="E197" s="14"/>
+      <c r="F197" s="9"/>
+      <c r="G197" s="9"/>
+      <c r="H197" s="42"/>
+      <c r="I197" s="6"/>
+    </row>
+    <row r="198" spans="1:9" s="2" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A198" s="10"/>
+      <c r="B198" s="10"/>
+      <c r="C198" s="10"/>
+      <c r="D198" s="10"/>
+      <c r="E198" s="15"/>
+      <c r="F198" s="10"/>
+      <c r="G198" s="10"/>
+      <c r="H198" s="41"/>
+      <c r="I198" s="5"/>
+    </row>
+    <row r="199" spans="1:9" s="3" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="A199" s="31"/>
+      <c r="B199" s="9"/>
+      <c r="C199" s="9"/>
+      <c r="D199" s="9"/>
+      <c r="E199" s="14"/>
+      <c r="F199" s="9"/>
+      <c r="G199" s="9"/>
+      <c r="H199" s="42"/>
+      <c r="I199" s="6"/>
+    </row>
+    <row r="200" spans="1:9" s="2" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A200" s="10"/>
+      <c r="B200" s="10"/>
+      <c r="C200" s="10"/>
+      <c r="D200" s="10"/>
+      <c r="E200" s="15"/>
+      <c r="F200" s="10"/>
+      <c r="G200" s="10"/>
+      <c r="H200" s="41"/>
+      <c r="I200" s="5"/>
+    </row>
+    <row r="201" spans="1:9" s="3" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="A201" s="31"/>
+      <c r="B201" s="9"/>
+      <c r="C201" s="9"/>
+      <c r="D201" s="9"/>
+      <c r="E201" s="14"/>
+      <c r="F201" s="9"/>
+      <c r="G201" s="9"/>
+      <c r="H201" s="42"/>
+      <c r="I201" s="6"/>
+    </row>
+    <row r="202" spans="1:9" s="2" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A202" s="10"/>
+      <c r="B202" s="10"/>
+      <c r="C202" s="10"/>
+      <c r="D202" s="10"/>
+      <c r="E202" s="15"/>
+      <c r="F202" s="10"/>
+      <c r="G202" s="10"/>
+      <c r="H202" s="41"/>
+      <c r="I202" s="5"/>
+    </row>
+    <row r="203" spans="1:9" s="3" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="A203" s="31"/>
+      <c r="B203" s="9"/>
+      <c r="C203" s="9"/>
+      <c r="D203" s="9"/>
+      <c r="E203" s="14"/>
+      <c r="F203" s="9"/>
+      <c r="G203" s="9"/>
+      <c r="H203" s="42"/>
+      <c r="I203" s="6"/>
+    </row>
+    <row r="204" spans="1:9" s="2" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A204" s="10"/>
+      <c r="B204" s="10"/>
+      <c r="C204" s="10"/>
+      <c r="D204" s="10"/>
+      <c r="E204" s="15"/>
+      <c r="F204" s="10"/>
+      <c r="G204" s="10"/>
+      <c r="H204" s="41"/>
+      <c r="I204" s="5"/>
+    </row>
+    <row r="205" spans="1:9" s="3" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="A205" s="31"/>
+      <c r="B205" s="9"/>
+      <c r="C205" s="9"/>
+      <c r="D205" s="9"/>
+      <c r="E205" s="14"/>
+      <c r="F205" s="9"/>
+      <c r="G205" s="9"/>
+      <c r="H205" s="42"/>
+      <c r="I205" s="6"/>
+    </row>
+    <row r="206" spans="1:9" s="2" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A206" s="10"/>
+      <c r="B206" s="10"/>
+      <c r="C206" s="10"/>
+      <c r="D206" s="10"/>
+      <c r="E206" s="15"/>
+      <c r="F206" s="10"/>
+      <c r="G206" s="10"/>
+      <c r="H206" s="41"/>
+      <c r="I206" s="5"/>
+    </row>
+    <row r="207" spans="1:9" s="3" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="A207" s="31"/>
+      <c r="B207" s="9"/>
+      <c r="C207" s="9"/>
+      <c r="D207" s="9"/>
+      <c r="E207" s="14"/>
+      <c r="F207" s="9"/>
+      <c r="G207" s="9"/>
+      <c r="H207" s="42"/>
+      <c r="I207" s="6"/>
+    </row>
+    <row r="208" spans="1:9" s="2" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A208" s="10"/>
+      <c r="B208" s="10"/>
+      <c r="C208" s="10"/>
+      <c r="D208" s="10"/>
+      <c r="E208" s="15"/>
+      <c r="F208" s="10"/>
+      <c r="G208" s="10"/>
+      <c r="H208" s="41"/>
+      <c r="I208" s="5"/>
+    </row>
+    <row r="209" spans="1:9" s="3" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="A209" s="31"/>
+      <c r="B209" s="9"/>
+      <c r="C209" s="9"/>
+      <c r="D209" s="9"/>
+      <c r="E209" s="14"/>
+      <c r="F209" s="9"/>
+      <c r="G209" s="9"/>
+      <c r="H209" s="42"/>
+      <c r="I209" s="6"/>
+    </row>
+    <row r="210" spans="1:9" s="2" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A210" s="10"/>
+      <c r="B210" s="10"/>
+      <c r="C210" s="10"/>
+      <c r="D210" s="10"/>
+      <c r="E210" s="15"/>
+      <c r="F210" s="10"/>
+      <c r="G210" s="10"/>
+      <c r="H210" s="41"/>
+      <c r="I210" s="5"/>
+    </row>
+    <row r="211" spans="1:9" s="3" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="A211" s="31"/>
+      <c r="B211" s="9"/>
+      <c r="C211" s="9"/>
+      <c r="D211" s="9"/>
+      <c r="E211" s="14"/>
+      <c r="F211" s="9"/>
+      <c r="G211" s="9"/>
+      <c r="H211" s="42"/>
+      <c r="I211" s="6"/>
+    </row>
+    <row r="212" spans="1:9" s="2" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A212" s="10"/>
+      <c r="B212" s="10"/>
+      <c r="C212" s="10"/>
+      <c r="D212" s="10"/>
+      <c r="E212" s="15"/>
+      <c r="F212" s="10"/>
+      <c r="G212" s="10"/>
+      <c r="H212" s="41"/>
+      <c r="I212" s="5"/>
+    </row>
+    <row r="213" spans="1:9" s="3" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="A213" s="31"/>
+      <c r="B213" s="9"/>
+      <c r="C213" s="9"/>
+      <c r="D213" s="9"/>
+      <c r="E213" s="14"/>
+      <c r="F213" s="9"/>
+      <c r="G213" s="9"/>
+      <c r="H213" s="42"/>
+      <c r="I213" s="6"/>
+    </row>
+    <row r="214" spans="1:9" s="2" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A214" s="10"/>
+      <c r="B214" s="10"/>
+      <c r="C214" s="10"/>
+      <c r="D214" s="10"/>
+      <c r="E214" s="15"/>
+      <c r="F214" s="10"/>
+      <c r="G214" s="10"/>
+      <c r="H214" s="41"/>
+      <c r="I214" s="5"/>
+    </row>
+    <row r="215" spans="1:9" s="3" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="A215" s="31"/>
+      <c r="B215" s="9"/>
+      <c r="C215" s="9"/>
+      <c r="D215" s="9"/>
+      <c r="E215" s="14"/>
+      <c r="F215" s="9"/>
+      <c r="G215" s="9"/>
+      <c r="H215" s="42"/>
+      <c r="I215" s="6"/>
+    </row>
+    <row r="216" spans="1:9" s="2" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A216" s="10"/>
+      <c r="B216" s="10"/>
+      <c r="C216" s="10"/>
+      <c r="D216" s="10"/>
+      <c r="E216" s="15"/>
+      <c r="F216" s="10"/>
+      <c r="G216" s="10"/>
+      <c r="H216" s="41"/>
+      <c r="I216" s="5"/>
+    </row>
+    <row r="217" spans="1:9" s="3" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="A217" s="31"/>
+      <c r="B217" s="9"/>
+      <c r="C217" s="9"/>
+      <c r="D217" s="9"/>
+      <c r="E217" s="14"/>
+      <c r="F217" s="9"/>
+      <c r="G217" s="9"/>
+      <c r="H217" s="42"/>
+      <c r="I217" s="6"/>
+    </row>
+    <row r="218" spans="1:9" s="2" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A218" s="10"/>
+      <c r="B218" s="10"/>
+      <c r="C218" s="10"/>
+      <c r="D218" s="10"/>
+      <c r="E218" s="15"/>
+      <c r="F218" s="10"/>
+      <c r="G218" s="10"/>
+      <c r="H218" s="41"/>
+      <c r="I218" s="5"/>
+    </row>
+    <row r="219" spans="1:9" s="3" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="A219" s="31"/>
+      <c r="B219" s="9"/>
+      <c r="C219" s="9"/>
+      <c r="D219" s="9"/>
+      <c r="E219" s="14"/>
+      <c r="F219" s="9"/>
+      <c r="G219" s="9"/>
+      <c r="H219" s="42"/>
+      <c r="I219" s="6"/>
+    </row>
+    <row r="220" spans="1:9" s="2" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A220" s="10"/>
+      <c r="B220" s="10"/>
+      <c r="C220" s="10"/>
+      <c r="D220" s="10"/>
+      <c r="E220" s="15"/>
+      <c r="F220" s="10"/>
+      <c r="G220" s="10"/>
+      <c r="H220" s="41"/>
+      <c r="I220" s="5"/>
+    </row>
+    <row r="221" spans="1:9" s="3" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="A221" s="31"/>
+      <c r="B221" s="9"/>
+      <c r="C221" s="9"/>
+      <c r="D221" s="9"/>
+      <c r="E221" s="14"/>
+      <c r="F221" s="9"/>
+      <c r="G221" s="9"/>
+      <c r="H221" s="42"/>
+      <c r="I221" s="6"/>
+    </row>
+    <row r="222" spans="1:9" s="2" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A222" s="10"/>
+      <c r="B222" s="10"/>
+      <c r="C222" s="10"/>
+      <c r="D222" s="10"/>
+      <c r="E222" s="15"/>
+      <c r="F222" s="10"/>
+      <c r="G222" s="10"/>
+      <c r="H222" s="41"/>
+      <c r="I222" s="5"/>
+    </row>
+    <row r="223" spans="1:9" s="3" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="A223" s="31"/>
+      <c r="B223" s="9"/>
+      <c r="C223" s="9"/>
+      <c r="D223" s="9"/>
+      <c r="E223" s="14"/>
+      <c r="F223" s="9"/>
+      <c r="G223" s="9"/>
+      <c r="H223" s="42"/>
+      <c r="I223" s="6"/>
+    </row>
+    <row r="224" spans="1:9" s="2" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A224" s="10"/>
+      <c r="B224" s="10"/>
+      <c r="C224" s="10"/>
+      <c r="D224" s="10"/>
+      <c r="E224" s="15"/>
+      <c r="F224" s="10"/>
+      <c r="G224" s="10"/>
+      <c r="H224" s="41"/>
+      <c r="I224" s="5"/>
+    </row>
+    <row r="225" spans="1:9" s="3" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="A225" s="31"/>
+      <c r="B225" s="9"/>
+      <c r="C225" s="9"/>
+      <c r="D225" s="9"/>
+      <c r="E225" s="14"/>
+      <c r="F225" s="9"/>
+      <c r="G225" s="9"/>
+      <c r="H225" s="42"/>
+      <c r="I225" s="6"/>
+    </row>
+    <row r="226" spans="1:9" s="2" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A226" s="10"/>
+      <c r="B226" s="10"/>
+      <c r="C226" s="10"/>
+      <c r="D226" s="10"/>
+      <c r="E226" s="15"/>
+      <c r="F226" s="10"/>
+      <c r="G226" s="10"/>
+      <c r="H226" s="41"/>
+      <c r="I226" s="5"/>
+    </row>
+    <row r="227" spans="1:9" s="3" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="A227" s="31"/>
+      <c r="B227" s="9"/>
+      <c r="C227" s="9"/>
+      <c r="D227" s="9"/>
+      <c r="E227" s="14"/>
+      <c r="F227" s="9"/>
+      <c r="G227" s="9"/>
+      <c r="H227" s="42"/>
+      <c r="I227" s="6"/>
+    </row>
+    <row r="228" spans="1:9" s="2" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A228" s="10"/>
+      <c r="B228" s="10"/>
+      <c r="C228" s="10"/>
+      <c r="D228" s="10"/>
+      <c r="E228" s="15"/>
+      <c r="F228" s="10"/>
+      <c r="G228" s="10"/>
+      <c r="H228" s="41"/>
+      <c r="I228" s="5"/>
+    </row>
+    <row r="229" spans="1:9" s="3" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="A229" s="31"/>
+      <c r="B229" s="9"/>
+      <c r="C229" s="9"/>
+      <c r="D229" s="9"/>
+      <c r="E229" s="14"/>
+      <c r="F229" s="9"/>
+      <c r="G229" s="9"/>
+      <c r="H229" s="42"/>
+      <c r="I229" s="6"/>
+    </row>
+    <row r="230" spans="1:9" s="2" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A230" s="10"/>
+      <c r="B230" s="10"/>
+      <c r="C230" s="10"/>
+      <c r="D230" s="10"/>
+      <c r="E230" s="15"/>
+      <c r="F230" s="10"/>
+      <c r="G230" s="10"/>
+      <c r="H230" s="41"/>
+      <c r="I230" s="5"/>
+    </row>
+    <row r="231" spans="1:9" s="3" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="A231" s="31"/>
+      <c r="B231" s="9"/>
+      <c r="C231" s="9"/>
+      <c r="D231" s="9"/>
+      <c r="E231" s="14"/>
+      <c r="F231" s="9"/>
+      <c r="G231" s="9"/>
+      <c r="H231" s="42"/>
+      <c r="I231" s="6"/>
+    </row>
+    <row r="232" spans="1:9" s="2" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A232" s="10"/>
+      <c r="B232" s="10"/>
+      <c r="C232" s="10"/>
+      <c r="D232" s="10"/>
+      <c r="E232" s="15"/>
+      <c r="F232" s="10"/>
+      <c r="G232" s="10"/>
+      <c r="H232" s="41"/>
+      <c r="I232" s="5"/>
+    </row>
+    <row r="233" spans="1:9" s="3" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="A233" s="31"/>
+      <c r="B233" s="9"/>
+      <c r="C233" s="9"/>
+      <c r="D233" s="9"/>
+      <c r="E233" s="14"/>
+      <c r="F233" s="9"/>
+      <c r="G233" s="9"/>
+      <c r="H233" s="42"/>
+      <c r="I233" s="6"/>
+    </row>
+    <row r="234" spans="1:9" s="2" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A234" s="10"/>
+      <c r="B234" s="10"/>
+      <c r="C234" s="10"/>
+      <c r="D234" s="10"/>
+      <c r="E234" s="15"/>
+      <c r="F234" s="10"/>
+      <c r="G234" s="10"/>
+      <c r="H234" s="41"/>
+      <c r="I234" s="5"/>
+    </row>
+    <row r="235" spans="1:9" s="3" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="A235" s="31"/>
+      <c r="B235" s="9"/>
+      <c r="C235" s="9"/>
+      <c r="D235" s="9"/>
+      <c r="E235" s="14"/>
+      <c r="F235" s="9"/>
+      <c r="G235" s="9"/>
+      <c r="H235" s="42"/>
+      <c r="I235" s="6"/>
+    </row>
+    <row r="236" spans="1:9" s="2" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A236" s="10"/>
+      <c r="B236" s="10"/>
+      <c r="C236" s="10"/>
+      <c r="D236" s="10"/>
+      <c r="E236" s="15"/>
+      <c r="F236" s="10"/>
+      <c r="G236" s="10"/>
+      <c r="H236" s="41"/>
+      <c r="I236" s="5"/>
+    </row>
+    <row r="237" spans="1:9" s="3" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="A237" s="31"/>
+      <c r="B237" s="9"/>
+      <c r="C237" s="9"/>
+      <c r="D237" s="9"/>
+      <c r="E237" s="14"/>
+      <c r="F237" s="9"/>
+      <c r="G237" s="9"/>
+      <c r="H237" s="42"/>
+      <c r="I237" s="6"/>
+    </row>
+    <row r="238" spans="1:9" s="2" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A238" s="10"/>
+      <c r="B238" s="10"/>
+      <c r="C238" s="10"/>
+      <c r="D238" s="10"/>
+      <c r="E238" s="15"/>
+      <c r="F238" s="10"/>
+      <c r="G238" s="10"/>
+      <c r="H238" s="41"/>
+      <c r="I238" s="5"/>
+    </row>
+    <row r="239" spans="1:9" s="3" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="A239" s="31"/>
+      <c r="B239" s="9"/>
+      <c r="C239" s="9"/>
+      <c r="D239" s="9"/>
+      <c r="E239" s="14"/>
+      <c r="F239" s="9"/>
+      <c r="G239" s="9"/>
+      <c r="H239" s="42"/>
+      <c r="I239" s="6"/>
+    </row>
+    <row r="240" spans="1:9" s="2" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A240" s="10"/>
+      <c r="B240" s="10"/>
+      <c r="C240" s="10"/>
+      <c r="D240" s="10"/>
+      <c r="E240" s="15"/>
+      <c r="F240" s="10"/>
+      <c r="G240" s="10"/>
+      <c r="H240" s="41"/>
+      <c r="I240" s="5"/>
+    </row>
+    <row r="241" spans="1:9" s="3" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="A241" s="31"/>
+      <c r="B241" s="9"/>
+      <c r="C241" s="9"/>
+      <c r="D241" s="9"/>
+      <c r="E241" s="14"/>
+      <c r="F241" s="9"/>
+      <c r="G241" s="9"/>
+      <c r="H241" s="42"/>
+      <c r="I241" s="6"/>
     </row>
   </sheetData>
+  <phoneticPr fontId="3" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>
 </worksheet>

--- a/Hardware/UniversalConverter/BOM.xlsx
+++ b/Hardware/UniversalConverter/BOM.xlsx
@@ -3,13 +3,16 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="24527"/>
   <workbookPr filterPrivacy="1"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{293E6E7F-718D-41E6-86CF-79A40E295E35}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1928DF6F-9E60-4344-8CDD-F2BC4492AC17}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-1960" yWindow="580" windowWidth="21550" windowHeight="18260" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-110" yWindow="-110" windowWidth="38620" windowHeight="21220" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
+  <definedNames>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">Sheet1!$A$1:$I$52</definedName>
+  </definedNames>
   <calcPr calcId="162913"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
@@ -20,7 +23,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="137" uniqueCount="118">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="162" uniqueCount="138">
   <si>
     <t>Link</t>
   </si>
@@ -374,6 +377,66 @@
   </si>
   <si>
     <t>RES SMD 1K OHM 1% 1/10W 0603</t>
+  </si>
+  <si>
+    <t>641-1713-1-ND</t>
+  </si>
+  <si>
+    <t>Comchip Technology</t>
+  </si>
+  <si>
+    <t>DIODE SCHOTTKY 60V 1A DO214AA</t>
+  </si>
+  <si>
+    <t>RMCF0603FT49K9CT-ND</t>
+  </si>
+  <si>
+    <t>RES 49.9K OHM 1% 1/10W 0603</t>
+  </si>
+  <si>
+    <t>311-17.8KHRCT-ND</t>
+  </si>
+  <si>
+    <t>RES 17.8K OHM 1% 1/10W 0603</t>
+  </si>
+  <si>
+    <t>13-RE0603FRE07100KLCT-ND</t>
+  </si>
+  <si>
+    <t>RES SMD 100K OHM 1% 1/10W 0603</t>
+  </si>
+  <si>
+    <t>1763-1218-ND</t>
+  </si>
+  <si>
+    <t>Knowles Novacap</t>
+  </si>
+  <si>
+    <t>CAP CER 0.1UF 50V X7R 0805 EPOXY</t>
+  </si>
+  <si>
+    <t>478-10560-1-ND</t>
+  </si>
+  <si>
+    <t>KYOCERA AVX</t>
+  </si>
+  <si>
+    <t>CAP CER 5000PF 50V X7R 0805</t>
+  </si>
+  <si>
+    <t>CR0603-FX-4321ELFCT-ND</t>
+  </si>
+  <si>
+    <t>RES SMD 4.32K OHM 1% 1/10W 0603</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> </t>
+  </si>
+  <si>
+    <t>311-1057-1-ND</t>
+  </si>
+  <si>
+    <t>CAP CER 8PF 50V C0G/NPO 0603</t>
   </si>
 </sst>
 </file>
@@ -587,7 +650,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="44">
+  <cellXfs count="51">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -678,6 +741,27 @@
     <xf numFmtId="0" fontId="0" fillId="2" borderId="5" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="5" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1"/>
+    <xf numFmtId="164" fontId="0" fillId="2" borderId="5" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="164" fontId="1" fillId="2" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="164" fontId="1" fillId="3" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Hyperlink" xfId="1" builtinId="8"/>
@@ -962,7 +1046,7 @@
   <dimension ref="A1:I241"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D29" sqref="D29"/>
+      <selection activeCell="C40" sqref="C40"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -1052,46 +1136,46 @@
       <c r="I3" s="7"/>
     </row>
     <row r="4" spans="1:9" s="20" customFormat="1" x14ac:dyDescent="0.35">
-      <c r="A4" s="22" t="s">
+      <c r="A4" s="45" t="s">
         <v>13</v>
       </c>
-      <c r="B4" s="22" t="s">
+      <c r="B4" s="45" t="s">
         <v>15</v>
       </c>
-      <c r="C4" s="22" t="s">
+      <c r="C4" s="45" t="s">
         <v>14</v>
       </c>
-      <c r="D4" s="22"/>
-      <c r="E4" s="18">
+      <c r="D4" s="45"/>
+      <c r="E4" s="46">
         <v>11.53</v>
       </c>
-      <c r="F4" s="17">
+      <c r="F4" s="47">
         <v>2</v>
       </c>
-      <c r="G4" s="17">
+      <c r="G4" s="47">
         <v>3</v>
       </c>
       <c r="H4" s="39"/>
       <c r="I4" s="19"/>
     </row>
     <row r="5" spans="1:9" s="4" customFormat="1" x14ac:dyDescent="0.35">
-      <c r="A5" s="21" t="s">
+      <c r="A5" s="48" t="s">
         <v>16</v>
       </c>
-      <c r="B5" s="21" t="s">
+      <c r="B5" s="48" t="s">
         <v>17</v>
       </c>
-      <c r="C5" s="21" t="s">
+      <c r="C5" s="48" t="s">
         <v>18</v>
       </c>
-      <c r="D5" s="21"/>
-      <c r="E5" s="16">
+      <c r="D5" s="48"/>
+      <c r="E5" s="49">
         <v>1.08</v>
       </c>
-      <c r="F5" s="11">
+      <c r="F5" s="50">
         <v>30</v>
       </c>
-      <c r="G5" s="11">
+      <c r="G5" s="50">
         <v>12</v>
       </c>
       <c r="H5" s="40"/>
@@ -1119,46 +1203,46 @@
       <c r="I6" s="19"/>
     </row>
     <row r="7" spans="1:9" s="4" customFormat="1" x14ac:dyDescent="0.35">
-      <c r="A7" s="21" t="s">
+      <c r="A7" s="48" t="s">
         <v>21</v>
       </c>
-      <c r="B7" s="21" t="s">
+      <c r="B7" s="48" t="s">
         <v>22</v>
       </c>
-      <c r="C7" s="21" t="s">
+      <c r="C7" s="48" t="s">
         <v>23</v>
       </c>
-      <c r="D7" s="21"/>
-      <c r="E7" s="16">
+      <c r="D7" s="48"/>
+      <c r="E7" s="49">
         <v>5.53</v>
       </c>
-      <c r="F7" s="11">
+      <c r="F7" s="50">
         <v>2</v>
       </c>
-      <c r="G7" s="11">
+      <c r="G7" s="50">
         <v>2</v>
       </c>
       <c r="H7" s="40"/>
       <c r="I7" s="7"/>
     </row>
     <row r="8" spans="1:9" s="20" customFormat="1" x14ac:dyDescent="0.35">
-      <c r="A8" s="22" t="s">
+      <c r="A8" s="45" t="s">
         <v>40</v>
       </c>
-      <c r="B8" s="22" t="s">
+      <c r="B8" s="45" t="s">
         <v>41</v>
       </c>
-      <c r="C8" s="22" t="s">
+      <c r="C8" s="45" t="s">
         <v>42</v>
       </c>
-      <c r="D8" s="22"/>
-      <c r="E8" s="18">
+      <c r="D8" s="45"/>
+      <c r="E8" s="46">
         <v>4.8899999999999997</v>
       </c>
-      <c r="F8" s="17">
+      <c r="F8" s="47">
         <v>1</v>
       </c>
-      <c r="G8" s="17">
+      <c r="G8" s="47">
         <v>10</v>
       </c>
       <c r="H8" s="39"/>
@@ -1182,75 +1266,75 @@
         <v>1</v>
       </c>
       <c r="G9" s="11">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="H9" s="40"/>
       <c r="I9" s="7"/>
     </row>
     <row r="10" spans="1:9" s="20" customFormat="1" x14ac:dyDescent="0.35">
-      <c r="A10" s="22" t="s">
+      <c r="A10" s="45" t="s">
         <v>47</v>
       </c>
-      <c r="B10" s="22" t="s">
+      <c r="B10" s="45" t="s">
         <v>22</v>
       </c>
-      <c r="C10" s="22" t="s">
+      <c r="C10" s="45" t="s">
         <v>46</v>
       </c>
-      <c r="D10" s="22"/>
-      <c r="E10" s="18">
+      <c r="D10" s="45"/>
+      <c r="E10" s="46">
         <v>2.19</v>
       </c>
-      <c r="F10" s="17">
+      <c r="F10" s="47">
         <v>1</v>
       </c>
-      <c r="G10" s="17">
+      <c r="G10" s="47">
         <v>2</v>
       </c>
       <c r="H10" s="39"/>
       <c r="I10" s="19"/>
     </row>
     <row r="11" spans="1:9" s="4" customFormat="1" x14ac:dyDescent="0.35">
-      <c r="A11" s="21" t="s">
+      <c r="A11" s="48" t="s">
         <v>48</v>
       </c>
-      <c r="B11" s="21" t="s">
+      <c r="B11" s="48" t="s">
         <v>50</v>
       </c>
-      <c r="C11" s="21" t="s">
+      <c r="C11" s="48" t="s">
         <v>49</v>
       </c>
-      <c r="D11" s="21"/>
-      <c r="E11" s="16">
+      <c r="D11" s="48"/>
+      <c r="E11" s="49">
         <v>0.66</v>
       </c>
-      <c r="F11" s="11">
+      <c r="F11" s="50">
         <v>11</v>
       </c>
-      <c r="G11" s="11">
+      <c r="G11" s="50">
         <v>32</v>
       </c>
       <c r="H11" s="40"/>
       <c r="I11" s="7"/>
     </row>
     <row r="12" spans="1:9" s="20" customFormat="1" x14ac:dyDescent="0.35">
-      <c r="A12" s="22" t="s">
+      <c r="A12" s="45" t="s">
         <v>52</v>
       </c>
-      <c r="B12" s="22" t="s">
+      <c r="B12" s="45" t="s">
         <v>41</v>
       </c>
-      <c r="C12" s="22" t="s">
+      <c r="C12" s="45" t="s">
         <v>51</v>
       </c>
-      <c r="D12" s="22"/>
-      <c r="E12" s="18">
+      <c r="D12" s="45"/>
+      <c r="E12" s="46">
         <v>4.49</v>
       </c>
-      <c r="F12" s="17">
+      <c r="F12" s="47">
         <v>1</v>
       </c>
-      <c r="G12" s="17">
+      <c r="G12" s="47">
         <v>5</v>
       </c>
       <c r="H12" s="39"/>
@@ -1280,23 +1364,23 @@
       <c r="I13" s="7"/>
     </row>
     <row r="14" spans="1:9" s="20" customFormat="1" x14ac:dyDescent="0.35">
-      <c r="A14" s="22" t="s">
+      <c r="A14" s="45" t="s">
         <v>56</v>
       </c>
-      <c r="B14" s="22" t="s">
+      <c r="B14" s="45" t="s">
         <v>41</v>
       </c>
-      <c r="C14" s="22" t="s">
+      <c r="C14" s="45" t="s">
         <v>57</v>
       </c>
-      <c r="D14" s="22"/>
-      <c r="E14" s="18">
+      <c r="D14" s="45"/>
+      <c r="E14" s="46">
         <v>3.34</v>
       </c>
-      <c r="F14" s="17">
+      <c r="F14" s="47">
         <v>3</v>
       </c>
-      <c r="G14" s="17">
+      <c r="G14" s="47">
         <v>6</v>
       </c>
       <c r="H14" s="39"/>
@@ -1326,184 +1410,186 @@
       <c r="I15" s="7"/>
     </row>
     <row r="16" spans="1:9" s="20" customFormat="1" x14ac:dyDescent="0.35">
-      <c r="A16" s="22" t="s">
+      <c r="A16" s="45" t="s">
         <v>60</v>
       </c>
-      <c r="B16" s="22" t="s">
+      <c r="B16" s="45" t="s">
         <v>62</v>
       </c>
-      <c r="C16" s="22" t="s">
+      <c r="C16" s="45" t="s">
         <v>61</v>
       </c>
-      <c r="D16" s="22"/>
-      <c r="E16" s="18">
+      <c r="D16" s="45"/>
+      <c r="E16" s="46">
         <v>0.63</v>
       </c>
-      <c r="F16" s="17">
+      <c r="F16" s="47">
         <v>2</v>
       </c>
-      <c r="G16" s="17">
+      <c r="G16" s="47">
         <v>5</v>
       </c>
       <c r="H16" s="39"/>
       <c r="I16" s="19"/>
     </row>
     <row r="17" spans="1:9" s="4" customFormat="1" x14ac:dyDescent="0.35">
-      <c r="A17" s="21" t="s">
+      <c r="A17" s="48" t="s">
         <v>64</v>
       </c>
-      <c r="B17" s="21" t="s">
+      <c r="B17" s="48" t="s">
         <v>50</v>
       </c>
-      <c r="C17" s="21" t="s">
+      <c r="C17" s="48" t="s">
         <v>63</v>
       </c>
-      <c r="D17" s="21"/>
-      <c r="E17" s="16">
+      <c r="D17" s="48"/>
+      <c r="E17" s="49">
         <v>1.24</v>
       </c>
-      <c r="F17" s="11">
+      <c r="F17" s="50">
         <v>10</v>
       </c>
-      <c r="G17" s="11">
+      <c r="G17" s="50">
         <v>10</v>
       </c>
       <c r="H17" s="40"/>
       <c r="I17" s="7"/>
     </row>
     <row r="18" spans="1:9" s="27" customFormat="1" x14ac:dyDescent="0.35">
-      <c r="A18" s="22" t="s">
+      <c r="A18" s="45" t="s">
         <v>24</v>
       </c>
-      <c r="B18" s="22" t="s">
+      <c r="B18" s="45" t="s">
         <v>26</v>
       </c>
-      <c r="C18" s="22" t="s">
+      <c r="C18" s="45" t="s">
         <v>25</v>
       </c>
-      <c r="D18" s="22"/>
-      <c r="E18" s="18">
+      <c r="D18" s="45"/>
+      <c r="E18" s="46">
         <v>0.67</v>
       </c>
-      <c r="F18" s="17">
+      <c r="F18" s="47">
         <v>2</v>
       </c>
-      <c r="G18" s="17">
+      <c r="G18" s="47">
         <v>2</v>
       </c>
-      <c r="H18" s="22"/>
+      <c r="H18" s="22" t="s">
+        <v>135</v>
+      </c>
       <c r="I18" s="26"/>
     </row>
     <row r="19" spans="1:9" s="29" customFormat="1" x14ac:dyDescent="0.35">
-      <c r="A19" s="21" t="s">
+      <c r="A19" s="48" t="s">
         <v>27</v>
       </c>
-      <c r="B19" s="21" t="s">
+      <c r="B19" s="48" t="s">
         <v>26</v>
       </c>
-      <c r="C19" s="21" t="s">
+      <c r="C19" s="48" t="s">
         <v>28</v>
       </c>
-      <c r="D19" s="21"/>
-      <c r="E19" s="16">
+      <c r="D19" s="48"/>
+      <c r="E19" s="49">
         <v>0.74</v>
       </c>
-      <c r="F19" s="11">
+      <c r="F19" s="50">
         <v>2</v>
       </c>
-      <c r="G19" s="11">
+      <c r="G19" s="50">
         <v>2</v>
       </c>
       <c r="H19" s="21"/>
       <c r="I19" s="28"/>
     </row>
     <row r="20" spans="1:9" s="27" customFormat="1" x14ac:dyDescent="0.35">
-      <c r="A20" s="22" t="s">
+      <c r="A20" s="45" t="s">
         <v>31</v>
       </c>
-      <c r="B20" s="22" t="s">
+      <c r="B20" s="45" t="s">
         <v>30</v>
       </c>
-      <c r="C20" s="22" t="s">
+      <c r="C20" s="45" t="s">
         <v>29</v>
       </c>
-      <c r="D20" s="22"/>
-      <c r="E20" s="18">
+      <c r="D20" s="45"/>
+      <c r="E20" s="46">
         <v>1.76</v>
       </c>
-      <c r="F20" s="17">
+      <c r="F20" s="47">
         <v>2</v>
       </c>
-      <c r="G20" s="17">
+      <c r="G20" s="47">
         <v>2</v>
       </c>
       <c r="H20" s="22"/>
       <c r="I20" s="26"/>
     </row>
     <row r="21" spans="1:9" s="29" customFormat="1" x14ac:dyDescent="0.35">
-      <c r="A21" s="21" t="s">
+      <c r="A21" s="48" t="s">
         <v>32</v>
       </c>
-      <c r="B21" s="21" t="s">
+      <c r="B21" s="48" t="s">
         <v>33</v>
       </c>
-      <c r="C21" s="21" t="s">
+      <c r="C21" s="48" t="s">
         <v>34</v>
       </c>
-      <c r="D21" s="21"/>
-      <c r="E21" s="16">
+      <c r="D21" s="48"/>
+      <c r="E21" s="49">
         <v>0.7</v>
       </c>
-      <c r="F21" s="11">
+      <c r="F21" s="50">
         <v>2</v>
       </c>
-      <c r="G21" s="11">
+      <c r="G21" s="50">
         <v>2</v>
       </c>
       <c r="H21" s="21"/>
       <c r="I21" s="28"/>
     </row>
     <row r="22" spans="1:9" s="27" customFormat="1" x14ac:dyDescent="0.35">
-      <c r="A22" s="22" t="s">
+      <c r="A22" s="45" t="s">
         <v>35</v>
       </c>
-      <c r="B22" s="22" t="s">
+      <c r="B22" s="45" t="s">
         <v>26</v>
       </c>
-      <c r="C22" s="22" t="s">
+      <c r="C22" s="45" t="s">
         <v>36</v>
       </c>
-      <c r="D22" s="22"/>
-      <c r="E22" s="18">
+      <c r="D22" s="45"/>
+      <c r="E22" s="46">
         <v>0.74</v>
       </c>
-      <c r="F22" s="17">
+      <c r="F22" s="47">
         <v>2</v>
       </c>
-      <c r="G22" s="17">
+      <c r="G22" s="47">
         <v>2</v>
       </c>
       <c r="H22" s="22"/>
       <c r="I22" s="26"/>
     </row>
     <row r="23" spans="1:9" s="29" customFormat="1" x14ac:dyDescent="0.35">
-      <c r="A23" s="21" t="s">
+      <c r="A23" s="48" t="s">
         <v>37</v>
       </c>
-      <c r="B23" s="21" t="s">
+      <c r="B23" s="48" t="s">
         <v>38</v>
       </c>
-      <c r="C23" s="21" t="s">
+      <c r="C23" s="48" t="s">
         <v>39</v>
       </c>
-      <c r="D23" s="21"/>
-      <c r="E23" s="16">
+      <c r="D23" s="48"/>
+      <c r="E23" s="49">
         <v>0.73</v>
       </c>
-      <c r="F23" s="11">
+      <c r="F23" s="50">
         <v>2</v>
       </c>
-      <c r="G23" s="11">
+      <c r="G23" s="50">
         <v>2</v>
       </c>
       <c r="H23" s="21"/>
@@ -1762,23 +1848,23 @@
       <c r="I35" s="6"/>
     </row>
     <row r="36" spans="1:9" s="2" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A36" s="30" t="s">
+      <c r="A36" s="45" t="s">
         <v>95</v>
       </c>
-      <c r="B36" s="30" t="s">
+      <c r="B36" s="45" t="s">
         <v>80</v>
       </c>
-      <c r="C36" s="30" t="s">
+      <c r="C36" s="45" t="s">
         <v>96</v>
       </c>
-      <c r="D36" s="30"/>
-      <c r="E36" s="15">
+      <c r="D36" s="45"/>
+      <c r="E36" s="46">
         <v>6.32</v>
       </c>
-      <c r="F36" s="10">
+      <c r="F36" s="47">
         <v>1</v>
       </c>
-      <c r="G36" s="10">
+      <c r="G36" s="47">
         <v>4</v>
       </c>
       <c r="H36" s="41"/>
@@ -1953,90 +2039,170 @@
       <c r="I44" s="5"/>
     </row>
     <row r="45" spans="1:9" s="3" customFormat="1" x14ac:dyDescent="0.35">
-      <c r="A45" s="31"/>
-      <c r="B45" s="9"/>
-      <c r="C45" s="9"/>
+      <c r="A45" s="31" t="s">
+        <v>118</v>
+      </c>
+      <c r="B45" s="31" t="s">
+        <v>119</v>
+      </c>
+      <c r="C45" s="31" t="s">
+        <v>120</v>
+      </c>
       <c r="D45" s="9"/>
-      <c r="E45" s="14"/>
-      <c r="F45" s="9"/>
+      <c r="E45" s="14">
+        <v>0.35</v>
+      </c>
+      <c r="F45" s="9">
+        <v>3</v>
+      </c>
       <c r="G45" s="9"/>
       <c r="H45" s="42"/>
       <c r="I45" s="6"/>
     </row>
     <row r="46" spans="1:9" s="2" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A46" s="10"/>
-      <c r="B46" s="10"/>
-      <c r="C46" s="10"/>
+      <c r="A46" s="30" t="s">
+        <v>121</v>
+      </c>
+      <c r="B46" s="30" t="s">
+        <v>107</v>
+      </c>
+      <c r="C46" s="30" t="s">
+        <v>122</v>
+      </c>
       <c r="D46" s="10"/>
-      <c r="E46" s="15"/>
-      <c r="F46" s="10"/>
+      <c r="E46" s="15">
+        <v>0.1</v>
+      </c>
+      <c r="F46" s="10">
+        <v>2</v>
+      </c>
       <c r="G46" s="10"/>
       <c r="H46" s="41"/>
       <c r="I46" s="5"/>
     </row>
     <row r="47" spans="1:9" s="3" customFormat="1" x14ac:dyDescent="0.35">
-      <c r="A47" s="31"/>
-      <c r="B47" s="9"/>
-      <c r="C47" s="9"/>
+      <c r="A47" s="31" t="s">
+        <v>123</v>
+      </c>
+      <c r="B47" s="31" t="s">
+        <v>38</v>
+      </c>
+      <c r="C47" s="31" t="s">
+        <v>124</v>
+      </c>
       <c r="D47" s="9"/>
-      <c r="E47" s="14"/>
-      <c r="F47" s="9"/>
+      <c r="E47" s="14">
+        <v>0.1</v>
+      </c>
+      <c r="F47" s="9">
+        <v>2</v>
+      </c>
       <c r="G47" s="9"/>
       <c r="H47" s="42"/>
       <c r="I47" s="6"/>
     </row>
     <row r="48" spans="1:9" s="2" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A48" s="10"/>
-      <c r="B48" s="10"/>
-      <c r="C48" s="10"/>
+      <c r="A48" s="30" t="s">
+        <v>125</v>
+      </c>
+      <c r="B48" s="30" t="s">
+        <v>38</v>
+      </c>
+      <c r="C48" s="30" t="s">
+        <v>126</v>
+      </c>
       <c r="D48" s="10"/>
-      <c r="E48" s="15"/>
-      <c r="F48" s="10"/>
+      <c r="E48" s="15">
+        <v>0.1</v>
+      </c>
+      <c r="F48" s="10">
+        <v>10</v>
+      </c>
       <c r="G48" s="10"/>
       <c r="H48" s="41"/>
       <c r="I48" s="5"/>
     </row>
     <row r="49" spans="1:9" s="3" customFormat="1" x14ac:dyDescent="0.35">
-      <c r="A49" s="31"/>
-      <c r="B49" s="9"/>
-      <c r="C49" s="9"/>
+      <c r="A49" s="31" t="s">
+        <v>127</v>
+      </c>
+      <c r="B49" s="31" t="s">
+        <v>128</v>
+      </c>
+      <c r="C49" s="31" t="s">
+        <v>129</v>
+      </c>
       <c r="D49" s="9"/>
-      <c r="E49" s="14"/>
-      <c r="F49" s="9"/>
+      <c r="E49" s="14">
+        <v>1.21</v>
+      </c>
+      <c r="F49" s="9">
+        <v>2</v>
+      </c>
       <c r="G49" s="9"/>
       <c r="H49" s="42"/>
       <c r="I49" s="6"/>
     </row>
     <row r="50" spans="1:9" s="2" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A50" s="10"/>
-      <c r="B50" s="10"/>
-      <c r="C50" s="10"/>
+      <c r="A50" s="30" t="s">
+        <v>130</v>
+      </c>
+      <c r="B50" s="30" t="s">
+        <v>131</v>
+      </c>
+      <c r="C50" s="30" t="s">
+        <v>132</v>
+      </c>
       <c r="D50" s="10"/>
-      <c r="E50" s="15"/>
-      <c r="F50" s="10"/>
+      <c r="E50" s="15">
+        <v>0.3</v>
+      </c>
+      <c r="F50" s="10">
+        <v>2</v>
+      </c>
       <c r="G50" s="10"/>
       <c r="H50" s="41"/>
       <c r="I50" s="5"/>
     </row>
     <row r="51" spans="1:9" s="3" customFormat="1" x14ac:dyDescent="0.35">
-      <c r="A51" s="31"/>
-      <c r="B51" s="9"/>
-      <c r="C51" s="9"/>
+      <c r="A51" s="31" t="s">
+        <v>133</v>
+      </c>
+      <c r="B51" s="31" t="s">
+        <v>26</v>
+      </c>
+      <c r="C51" s="31" t="s">
+        <v>134</v>
+      </c>
       <c r="D51" s="9"/>
-      <c r="E51" s="14"/>
-      <c r="F51" s="9"/>
+      <c r="E51" s="14">
+        <v>0.1</v>
+      </c>
+      <c r="F51" s="9">
+        <v>2</v>
+      </c>
       <c r="G51" s="9"/>
       <c r="H51" s="42"/>
       <c r="I51" s="6"/>
     </row>
     <row r="52" spans="1:9" s="2" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A52" s="10"/>
-      <c r="B52" s="10"/>
-      <c r="C52" s="10"/>
-      <c r="D52" s="10"/>
-      <c r="E52" s="15"/>
-      <c r="F52" s="10"/>
-      <c r="G52" s="10"/>
+      <c r="A52" s="30" t="s">
+        <v>136</v>
+      </c>
+      <c r="B52" s="30" t="s">
+        <v>38</v>
+      </c>
+      <c r="C52" s="30" t="s">
+        <v>137</v>
+      </c>
+      <c r="D52" s="30"/>
+      <c r="E52" s="44">
+        <v>0.1</v>
+      </c>
+      <c r="F52" s="30">
+        <v>2</v>
+      </c>
+      <c r="G52" s="30"/>
       <c r="H52" s="41"/>
       <c r="I52" s="5"/>
     </row>
@@ -4120,6 +4286,7 @@
       <c r="I241" s="6"/>
     </row>
   </sheetData>
+  <autoFilter ref="A1:I52" xr:uid="{00000000-0001-0000-0000-000000000000}"/>
   <phoneticPr fontId="3" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>
